--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_281.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_281.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g33250-d1950010-Reviews-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>184</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>196</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Fairfield-Inn-Suites-By-Marriott-Los-Angeles-West-Covina.h4006877.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_281.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_281.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="822">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,2350 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/01/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r566344777-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>33250</t>
+  </si>
+  <si>
+    <t>1950010</t>
+  </si>
+  <si>
+    <t>566344777</t>
+  </si>
+  <si>
+    <t>03/13/2018</t>
+  </si>
+  <si>
+    <t>Business Trip</t>
+  </si>
+  <si>
+    <t>Fairfield Suites has a great location on the I-10.  Close to the 57 if you need to go to Orange County or have work in the greater LA area.  Rooms are big, bed is comfortable and the staff is top notch.</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r562405367-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>562405367</t>
+  </si>
+  <si>
+    <t>02/23/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great staff and lovely room!! </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> had a reservation at the Hampton Inn next door.  I reserved a wheelchair accessible room.  Unfortunately for us, Hampton gave away our room and tried to put us in a non accessible room. (my son  is in a wheelchair). Since the Hampton solution wasn't going to work for us,  Hampton called the Fairfield hotel and worked with K. at the front desk.  K. was able to get us into a very nice room, fully accessible for my son. When we arrived at the front desk, K was truly welcoming and made us feel like valued customers.  Very refreshing after our rough start to our weekend!! This hotel is very nice, updated, and clean. The room is very nicely setup and enough room for the wheelchair. We will stay here again!! MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> had a reservation at the Hampton Inn next door.  I reserved a wheelchair accessible room.  Unfortunately for us, Hampton gave away our room and tried to put us in a non accessible room. (my son  is in a wheelchair). Since the Hampton solution wasn't going to work for us,  Hampton called the Fairfield hotel and worked with K. at the front desk.  K. was able to get us into a very nice room, fully accessible for my son. When we arrived at the front desk, K was truly welcoming and made us feel like valued customers.  Very refreshing after our rough start to our weekend!! This hotel is very nice, updated, and clean. The room is very nicely setup and enough room for the wheelchair. We will stay here again!! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r554005167-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>554005167</t>
+  </si>
+  <si>
+    <t>01/15/2018</t>
+  </si>
+  <si>
+    <t>Great place to stay in West Covina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stayed here for MLK weekend.  Great location, friendly staff and clean. Close by to restaurants,Target, Walmart and other popular stores. Our room was very nice that included a good size mini fridge and microwave. Also, a buffet breakfast was included with our stay. We would definitely come back here.  Thank you to the great staff for making our stay comfortable and a pleasant experience! </t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r536977392-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>536977392</t>
+  </si>
+  <si>
+    <t>10/29/2017</t>
+  </si>
+  <si>
+    <t>Glad I chose this hotel.</t>
+  </si>
+  <si>
+    <t>I was here for a week on a business trip. This hotel was farther out then the place I was recommended to stay. Glad I chose what I did. Lot's of places to eat close by without hitting all the traffic. Couple of places we just walked to that were not fast food which was extra nice. The staff is very friendly. Front desk always polite and quick to answer all questions and address any concerns. The hotel is very clean. I have stayed in many hotels and the small things I see at other hotels that are not addressed are taken care of here. The elevators are cleaned so no fingerprints all over the doors inside, hallway floors vacuumed every day. Just things I have noticed at other places that are neglected are taken care of here. Congrats to the staff for stepping it up. One other thing is no matter who I passed from cleaning, maintenance, front desk, literally every staff member would stop to take the time to say hello and ask how my stay was or if I needed anything. I hope the management will recognize and congratulate the staff on a job very well done. The breakfast is as good as any I have had and much better than most. They do not let the food run out and usually have a member of the staff that stays out just to monitor everything at breakfast....I was here for a week on a business trip. This hotel was farther out then the place I was recommended to stay. Glad I chose what I did. Lot's of places to eat close by without hitting all the traffic. Couple of places we just walked to that were not fast food which was extra nice. The staff is very friendly. Front desk always polite and quick to answer all questions and address any concerns. The hotel is very clean. I have stayed in many hotels and the small things I see at other hotels that are not addressed are taken care of here. The elevators are cleaned so no fingerprints all over the doors inside, hallway floors vacuumed every day. Just things I have noticed at other places that are neglected are taken care of here. Congrats to the staff for stepping it up. One other thing is no matter who I passed from cleaning, maintenance, front desk, literally every staff member would stop to take the time to say hello and ask how my stay was or if I needed anything. I hope the management will recognize and congratulate the staff on a job very well done. The breakfast is as good as any I have had and much better than most. They do not let the food run out and usually have a member of the staff that stays out just to monitor everything at breakfast. The room was very nice. Bed is comfortable, good sheets and blankets, A/C worked well, good selection of pillows and T.V worked great. Also the mini fridge was actually a fridge and not just a cooler that kept drinks cool and not cold. Microwave and coffee pot were good. Everything in my room was very clean. Carpets clean, behind the toilet was clean and there was not that mysterious ball of hair in the shower.....It may be a while before I have to head back to L.A but when I do I will be sure to stay at this hotel. I hope the head guys at Marriot take notes from this location. Your staff is doing a great job and your customers notice.I was travelling with another employee of my company and he agreed about the staff and hotel. Thank you for a very pleasant stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>I was here for a week on a business trip. This hotel was farther out then the place I was recommended to stay. Glad I chose what I did. Lot's of places to eat close by without hitting all the traffic. Couple of places we just walked to that were not fast food which was extra nice. The staff is very friendly. Front desk always polite and quick to answer all questions and address any concerns. The hotel is very clean. I have stayed in many hotels and the small things I see at other hotels that are not addressed are taken care of here. The elevators are cleaned so no fingerprints all over the doors inside, hallway floors vacuumed every day. Just things I have noticed at other places that are neglected are taken care of here. Congrats to the staff for stepping it up. One other thing is no matter who I passed from cleaning, maintenance, front desk, literally every staff member would stop to take the time to say hello and ask how my stay was or if I needed anything. I hope the management will recognize and congratulate the staff on a job very well done. The breakfast is as good as any I have had and much better than most. They do not let the food run out and usually have a member of the staff that stays out just to monitor everything at breakfast....I was here for a week on a business trip. This hotel was farther out then the place I was recommended to stay. Glad I chose what I did. Lot's of places to eat close by without hitting all the traffic. Couple of places we just walked to that were not fast food which was extra nice. The staff is very friendly. Front desk always polite and quick to answer all questions and address any concerns. The hotel is very clean. I have stayed in many hotels and the small things I see at other hotels that are not addressed are taken care of here. The elevators are cleaned so no fingerprints all over the doors inside, hallway floors vacuumed every day. Just things I have noticed at other places that are neglected are taken care of here. Congrats to the staff for stepping it up. One other thing is no matter who I passed from cleaning, maintenance, front desk, literally every staff member would stop to take the time to say hello and ask how my stay was or if I needed anything. I hope the management will recognize and congratulate the staff on a job very well done. The breakfast is as good as any I have had and much better than most. They do not let the food run out and usually have a member of the staff that stays out just to monitor everything at breakfast. The room was very nice. Bed is comfortable, good sheets and blankets, A/C worked well, good selection of pillows and T.V worked great. Also the mini fridge was actually a fridge and not just a cooler that kept drinks cool and not cold. Microwave and coffee pot were good. Everything in my room was very clean. Carpets clean, behind the toilet was clean and there was not that mysterious ball of hair in the shower.....It may be a while before I have to head back to L.A but when I do I will be sure to stay at this hotel. I hope the head guys at Marriot take notes from this location. Your staff is doing a great job and your customers notice.I was travelling with another employee of my company and he agreed about the staff and hotel. Thank you for a very pleasant stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r530789302-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>530789302</t>
+  </si>
+  <si>
+    <t>10/07/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Con: Very noisy Pro: Everything else </t>
+  </si>
+  <si>
+    <t>I had read previous reviews and was prepared noise...but you should believe what everyone is saying about the noise.  In hindsight, I should have asked for a room on the top floor ( I was on the 4th).  I left the air conditioner on "fan" all night to help drown out noise from other rooms but you could still hear doors closing and footsteps all night long.  However, the beds were very comfortable, the front desk staff were noticeably jovial and helpful ( I appreciated the kind demeanor after a long flight and 2 hour car ride), the hotel was conveniently located near the highway and a mall, and we were a short drive to Pomona college where we were during a college tour.MoreShow less</t>
+  </si>
+  <si>
+    <t>FFIgmwestcovina, Manager at Fairfield Inn &amp; Suites Los Angeles West Covina, responded to this reviewResponded October 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 9, 2017</t>
+  </si>
+  <si>
+    <t>I had read previous reviews and was prepared noise...but you should believe what everyone is saying about the noise.  In hindsight, I should have asked for a room on the top floor ( I was on the 4th).  I left the air conditioner on "fan" all night to help drown out noise from other rooms but you could still hear doors closing and footsteps all night long.  However, the beds were very comfortable, the front desk staff were noticeably jovial and helpful ( I appreciated the kind demeanor after a long flight and 2 hour car ride), the hotel was conveniently located near the highway and a mall, and we were a short drive to Pomona college where we were during a college tour.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r529194578-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>529194578</t>
+  </si>
+  <si>
+    <t>10/02/2017</t>
+  </si>
+  <si>
+    <t>Excellent value</t>
+  </si>
+  <si>
+    <t>Fairfield is usually pretty good for business trips, but this one was great. Staff was very good, room was clean and comfortable, and the breakfast offerings were exceptional. I'll definitely be back.</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r505866872-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>505866872</t>
+  </si>
+  <si>
+    <t>07/26/2017</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>Really enjoyed staying at this hotel.  It was very clean and everything seemed quite new.  The room was comfortable and roomy.  Near the freeway, but not noisy.  The only thing is that the walls are thin and you could sort of hear noise from people in the next room.  The free breakfast was good.  Parking was easy.  It was within walking distance to some restaurants and to Eastland Shopping Center.  Would definitely like to stay here again!</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r500475355-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>500475355</t>
+  </si>
+  <si>
+    <t>07/10/2017</t>
+  </si>
+  <si>
+    <t>Nice place to stay</t>
+  </si>
+  <si>
+    <t>The family and I stayed 2 nights in a king suite, Bed was very soft and comfortable for us. Even know you are right by the freeway we heard very little traffic noise.Maid did a nice job of cleaning up without moving personal items that where left in the room. All in all when would book here again for sure.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r499186127-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>499186127</t>
+  </si>
+  <si>
+    <t>07/06/2017</t>
+  </si>
+  <si>
+    <t>Nice amenities and staff, tasty breakfast buffet, clean and spacious rooms</t>
+  </si>
+  <si>
+    <t>Get a third floor room away from freeway for a bit less noise but it's really just white noise.  Good breakfast buffet choices, clean rooms, very friendly staff, nice amenities, right next to restaurants, close to shopping. Pool is small.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r471528847-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>471528847</t>
+  </si>
+  <si>
+    <t>03/30/2017</t>
+  </si>
+  <si>
+    <t>Clean, updated look, friendly staff, nice rooms</t>
+  </si>
+  <si>
+    <t>I was relieved to find this place clean, up to date, quiet ( i was on the non freeway side ) and the friendly staff was an added bonus. I wish the hotel had more options in the mini-store but with so many shops close by it wasn't really an issue.</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r467575705-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>467575705</t>
+  </si>
+  <si>
+    <t>03/15/2017</t>
+  </si>
+  <si>
+    <t>Comfy &amp; Professional</t>
+  </si>
+  <si>
+    <t>My boyfriend stays at this Fairfield Inn &amp; Suites usually 2-3 times a month for business trips. I decided to tag along since I had a day off unexpectedly. Hotel staff were very nice and professional. They knew my boyfriend from his monthly visits and made me feel as though they knew me just as well. The rooms were very clean and the beds were absolutely heavenly. I'm the type of person who likes an extra firm mattress but these were the right mix of soft and firm. Amenities at the hotel were clearly listed and pretty standard. If I had to find one thing about the hotel I didn't like it would have to be the towels. One was very soft and comfy the the rest were rather scruffy. Besides the towels I understand why my boyfriend likes this hotel so much. I'll definitely be back to stay here if I'm in the area again. MoreShow less</t>
+  </si>
+  <si>
+    <t>My boyfriend stays at this Fairfield Inn &amp; Suites usually 2-3 times a month for business trips. I decided to tag along since I had a day off unexpectedly. Hotel staff were very nice and professional. They knew my boyfriend from his monthly visits and made me feel as though they knew me just as well. The rooms were very clean and the beds were absolutely heavenly. I'm the type of person who likes an extra firm mattress but these were the right mix of soft and firm. Amenities at the hotel were clearly listed and pretty standard. If I had to find one thing about the hotel I didn't like it would have to be the towels. One was very soft and comfy the the rest were rather scruffy. Besides the towels I understand why my boyfriend likes this hotel so much. I'll definitely be back to stay here if I'm in the area again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r466626040-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>466626040</t>
+  </si>
+  <si>
+    <t>03/12/2017</t>
+  </si>
+  <si>
+    <t>Hotel staff is just great, rooms very clean</t>
+  </si>
+  <si>
+    <t>Staff is excellent, makes you feel at home.  Location is good, but traffic is bad no matter where you go.  Front desk is welcoming and friendly. Rooms are clean and very functional.  Bed is comfortable and the AC works very well.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r454369740-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>454369740</t>
+  </si>
+  <si>
+    <t>01/23/2017</t>
+  </si>
+  <si>
+    <t>Friendly Staff-Terrific Location</t>
+  </si>
+  <si>
+    <t>We were greeted by two of the friendliest front desk staff.  Our room was clean and effieient.  The breakfast was more than ample and the location was convenient to restaurants, shopping and freeway access.</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r454331772-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>454331772</t>
+  </si>
+  <si>
+    <t>Another Great Marriott Stay</t>
+  </si>
+  <si>
+    <t>Another Fairfield by Marriott.  Convenient location right off of the freeway.  Plenty of restaurants and activities close by to choose from as well. Easy to find, easy to access. Plenty of parking. Standard breakfast.  If you are not familiar with the Marriott breakfast...you get scrambled eggs (from bulk), sausage or bacon, assorted breakfast fruits like bananas, cantaloupe, pineapple, and apples. They have various breakfast muffins, pastries, and breads. OJ, milk, and cold cereals. Some have a waffle maker, bagels, and toaster as well.  Hard boiled eggs, yogurts. More than a continental, but not your gourmet breakfast by any means. As you can see from my reviews, I try to stay at the Marriott hotels. Reasonably priced compared to others, and a great place to spend a night or two on the road.MoreShow less</t>
+  </si>
+  <si>
+    <t>Another Fairfield by Marriott.  Convenient location right off of the freeway.  Plenty of restaurants and activities close by to choose from as well. Easy to find, easy to access. Plenty of parking. Standard breakfast.  If you are not familiar with the Marriott breakfast...you get scrambled eggs (from bulk), sausage or bacon, assorted breakfast fruits like bananas, cantaloupe, pineapple, and apples. They have various breakfast muffins, pastries, and breads. OJ, milk, and cold cereals. Some have a waffle maker, bagels, and toaster as well.  Hard boiled eggs, yogurts. More than a continental, but not your gourmet breakfast by any means. As you can see from my reviews, I try to stay at the Marriott hotels. Reasonably priced compared to others, and a great place to spend a night or two on the road.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r452206871-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>452206871</t>
+  </si>
+  <si>
+    <t>01/15/2017</t>
+  </si>
+  <si>
+    <t>Close to shopping and friendly staff</t>
+  </si>
+  <si>
+    <t>This hotel is right off the freeway, very close to a ton of shopping areas and eateries. The staff were very friendly, from the front desk folks checking us in to the ladies assisting during the breakfast. Speaking of breakfast, probably one of the more decent breakfast we have had in one of the smaller Marriott brand hotels. Usually you get what you pay for, or in this case, not pay for since it's free breakfast but this place had much better breakfast than most.The room was a nice size, a lot of space and had a refrigerator and microwave, which we were very happy about. Allowed us to bring some food back to the hotel, store what we did not eat and warm it next day in the microwave.It is located close to the freeway, close to restaurants and shopping area. There is an IKEA around the corner. It is about 30 minutes to Disneyland with no traffic, although in LA there is traffic most of the time. It is also an hour drive or so to downtown Los Angeles. If you are looking for an hotel that is inexpensive, clean and decent service, this is a good one.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>FFIgmwestcovina, Manager at Fairfield Inn &amp; Suites Los Angeles West Covina, responded to this reviewResponded May 30, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 30, 2017</t>
+  </si>
+  <si>
+    <t>This hotel is right off the freeway, very close to a ton of shopping areas and eateries. The staff were very friendly, from the front desk folks checking us in to the ladies assisting during the breakfast. Speaking of breakfast, probably one of the more decent breakfast we have had in one of the smaller Marriott brand hotels. Usually you get what you pay for, or in this case, not pay for since it's free breakfast but this place had much better breakfast than most.The room was a nice size, a lot of space and had a refrigerator and microwave, which we were very happy about. Allowed us to bring some food back to the hotel, store what we did not eat and warm it next day in the microwave.It is located close to the freeway, close to restaurants and shopping area. There is an IKEA around the corner. It is about 30 minutes to Disneyland with no traffic, although in LA there is traffic most of the time. It is also an hour drive or so to downtown Los Angeles. If you are looking for an hotel that is inexpensive, clean and decent service, this is a good one.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r446316684-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>446316684</t>
+  </si>
+  <si>
+    <t>12/23/2016</t>
+  </si>
+  <si>
+    <t>nice place</t>
+  </si>
+  <si>
+    <t>I stayed here for business for 9 nights.  Nearly everything about this place is very good.  So I'll start first with the 2 areas that could be better to get that out of the way.  Another reviewer said the rooms are small. She was right.  I stayed in a regular room the first night but it wasn't much bigger than the bed.  For the price I would have expected more space.  I moved to a suite.  Nice but again, small compared to other suites I've been in with the same property, or Towneplace Suites, or Best Western.  The fitness room - be aware there are TVs on the 2 treadmills but they don't work. The TV up on the wall is hard to see as it is blocked partially by the treadmills.  So that could be better. Otherwise it is a really nice property.  Very clean and nicely decorated. Super comfortable beds and pillows. Lots of parking.  Many places to eat within walking distance.  Very quiet even though right off I 10.  Good breakfast (scrambled eggs as well as omelet, lots of fruit, breads, etc).  Very nice staff.  Overall it will be by # 2 go to place while in the area just because you can get bigger rooms for the same or less elsewhere.  But, those I have tried were not as new or nicely decorated as this one. So it is overall quite goodMoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>I stayed here for business for 9 nights.  Nearly everything about this place is very good.  So I'll start first with the 2 areas that could be better to get that out of the way.  Another reviewer said the rooms are small. She was right.  I stayed in a regular room the first night but it wasn't much bigger than the bed.  For the price I would have expected more space.  I moved to a suite.  Nice but again, small compared to other suites I've been in with the same property, or Towneplace Suites, or Best Western.  The fitness room - be aware there are TVs on the 2 treadmills but they don't work. The TV up on the wall is hard to see as it is blocked partially by the treadmills.  So that could be better. Otherwise it is a really nice property.  Very clean and nicely decorated. Super comfortable beds and pillows. Lots of parking.  Many places to eat within walking distance.  Very quiet even though right off I 10.  Good breakfast (scrambled eggs as well as omelet, lots of fruit, breads, etc).  Very nice staff.  Overall it will be by # 2 go to place while in the area just because you can get bigger rooms for the same or less elsewhere.  But, those I have tried were not as new or nicely decorated as this one. So it is overall quite goodMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r443882394-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>443882394</t>
+  </si>
+  <si>
+    <t>12/12/2016</t>
+  </si>
+  <si>
+    <t>Nice stay</t>
+  </si>
+  <si>
+    <t>Had made a reservation on line months ago.  Last minute added another night to the front end of our trip which was accommodated without a problem - I was grateful.  Finding the location was easy as it sits right off the freeway where everything is under construction.  Our check-in was quick &amp; our request for a room on a high floor on an end was honored.  We were even offered chocolate chip cookies upon arrival &amp; given a bottle of water for each of us, both of which were very nice.  Kelly, our check-in hostess was very nice &amp; fast.  In no time we were in our room.  It was very nice having a small frig &amp; microwave available right in the room.  The bed was EXTREMELY comfortable.  There was a small desk &amp; lamp, perfect for setting up electronics.  The lights next to the bed were perfect.  The room is a tight fit with a side chair crammed into a very small space between the TV &amp; the desk.  The bathroom is decorated in black &amp; white, looking retro but didn't match the rest of the room.  The bathroom is large &amp; had everything we needed.  A couple of the tiles on the bathroom floor are cracked &amp; the bathroom door would not stay open.  The staff was very nice &amp; although we were not able to take advantage of the included breakfast, we were able to enjoy coffee...Had made a reservation on line months ago.  Last minute added another night to the front end of our trip which was accommodated without a problem - I was grateful.  Finding the location was easy as it sits right off the freeway where everything is under construction.  Our check-in was quick &amp; our request for a room on a high floor on an end was honored.  We were even offered chocolate chip cookies upon arrival &amp; given a bottle of water for each of us, both of which were very nice.  Kelly, our check-in hostess was very nice &amp; fast.  In no time we were in our room.  It was very nice having a small frig &amp; microwave available right in the room.  The bed was EXTREMELY comfortable.  There was a small desk &amp; lamp, perfect for setting up electronics.  The lights next to the bed were perfect.  The room is a tight fit with a side chair crammed into a very small space between the TV &amp; the desk.  The bathroom is decorated in black &amp; white, looking retro but didn't match the rest of the room.  The bathroom is large &amp; had everything we needed.  A couple of the tiles on the bathroom floor are cracked &amp; the bathroom door would not stay open.  The staff was very nice &amp; although we were not able to take advantage of the included breakfast, we were able to enjoy coffee &amp; hot chocolate even after breakfast hours are over.  We were always able to find a parking spot but the lot seems a bit small if the hotel ever has a sell-out.  The rates were reasonable &amp; no extra charge for parking.MoreShow less</t>
+  </si>
+  <si>
+    <t>Had made a reservation on line months ago.  Last minute added another night to the front end of our trip which was accommodated without a problem - I was grateful.  Finding the location was easy as it sits right off the freeway where everything is under construction.  Our check-in was quick &amp; our request for a room on a high floor on an end was honored.  We were even offered chocolate chip cookies upon arrival &amp; given a bottle of water for each of us, both of which were very nice.  Kelly, our check-in hostess was very nice &amp; fast.  In no time we were in our room.  It was very nice having a small frig &amp; microwave available right in the room.  The bed was EXTREMELY comfortable.  There was a small desk &amp; lamp, perfect for setting up electronics.  The lights next to the bed were perfect.  The room is a tight fit with a side chair crammed into a very small space between the TV &amp; the desk.  The bathroom is decorated in black &amp; white, looking retro but didn't match the rest of the room.  The bathroom is large &amp; had everything we needed.  A couple of the tiles on the bathroom floor are cracked &amp; the bathroom door would not stay open.  The staff was very nice &amp; although we were not able to take advantage of the included breakfast, we were able to enjoy coffee...Had made a reservation on line months ago.  Last minute added another night to the front end of our trip which was accommodated without a problem - I was grateful.  Finding the location was easy as it sits right off the freeway where everything is under construction.  Our check-in was quick &amp; our request for a room on a high floor on an end was honored.  We were even offered chocolate chip cookies upon arrival &amp; given a bottle of water for each of us, both of which were very nice.  Kelly, our check-in hostess was very nice &amp; fast.  In no time we were in our room.  It was very nice having a small frig &amp; microwave available right in the room.  The bed was EXTREMELY comfortable.  There was a small desk &amp; lamp, perfect for setting up electronics.  The lights next to the bed were perfect.  The room is a tight fit with a side chair crammed into a very small space between the TV &amp; the desk.  The bathroom is decorated in black &amp; white, looking retro but didn't match the rest of the room.  The bathroom is large &amp; had everything we needed.  A couple of the tiles on the bathroom floor are cracked &amp; the bathroom door would not stay open.  The staff was very nice &amp; although we were not able to take advantage of the included breakfast, we were able to enjoy coffee &amp; hot chocolate even after breakfast hours are over.  We were always able to find a parking spot but the lot seems a bit small if the hotel ever has a sell-out.  The rates were reasonable &amp; no extra charge for parking.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r438640077-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>438640077</t>
+  </si>
+  <si>
+    <t>11/19/2016</t>
+  </si>
+  <si>
+    <t>Very nice but still to close to highway - it is noisy</t>
+  </si>
+  <si>
+    <t>I don't really understand why this is called LA - when you put in West Covina and fill out all the info for a new site, it comes back with this motel and calls it LA/West Covina.Makes no sense to me!  Anyway we stayed here on our way back to Phoenix and even tho we requested and were assigned what is probably the least noisy room (103) I was still awakened by 5:00am due to the noise of the highway 10.  It's a fine motel but the noise would keep me from stopping here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>FFIgmwestcovina, Manager at Fairfield Inn &amp; Suites Los Angeles West Covina, responded to this reviewResponded November 22, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 22, 2016</t>
+  </si>
+  <si>
+    <t>I don't really understand why this is called LA - when you put in West Covina and fill out all the info for a new site, it comes back with this motel and calls it LA/West Covina.Makes no sense to me!  Anyway we stayed here on our way back to Phoenix and even tho we requested and were assigned what is probably the least noisy room (103) I was still awakened by 5:00am due to the noise of the highway 10.  It's a fine motel but the noise would keep me from stopping here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r424815903-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>424815903</t>
+  </si>
+  <si>
+    <t>10/03/2016</t>
+  </si>
+  <si>
+    <t>Hotel was Ok</t>
+  </si>
+  <si>
+    <t>Stayed at this hotel in September for three nights at the start of our holiday to the USA. Check in was straightforward but didn't feel very welcoming by the reception staff. Rooms were good, clean and had the facilities required. Breakfast was included and was the usual buffet style which suited our needs. What was disappointing was that the hotel used paper plates and plastic cutlery. We felt this let the hotel down. Overall an average hotel, MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>FFIgmwestcovina, Manager at Fairfield Inn &amp; Suites Los Angeles West Covina, responded to this reviewResponded October 4, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 4, 2016</t>
+  </si>
+  <si>
+    <t>Stayed at this hotel in September for three nights at the start of our holiday to the USA. Check in was straightforward but didn't feel very welcoming by the reception staff. Rooms were good, clean and had the facilities required. Breakfast was included and was the usual buffet style which suited our needs. What was disappointing was that the hotel used paper plates and plastic cutlery. We felt this let the hotel down. Overall an average hotel, More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r414109611-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>414109611</t>
+  </si>
+  <si>
+    <t>09/02/2016</t>
+  </si>
+  <si>
+    <t>Excellent service and nice room</t>
+  </si>
+  <si>
+    <t>Staff were all very friendly and accommodating both in person and on the phone. My king suite was directly across from the elevator so I was concerned about noise but the layout of the room has the bed away from it so didn't have any issues. Clean and updated. The only problem was wifi didn't work.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r411648569-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>411648569</t>
+  </si>
+  <si>
+    <t>08/27/2016</t>
+  </si>
+  <si>
+    <t>Convenient with some shortcomings</t>
+  </si>
+  <si>
+    <t>Hotel is very conveniently located right off the 10. Offers a full complementary breakfast which is great. I found the service and staff to be very helpful.We had a king suite which we didn't realize only included one long room split by a partial wall. Having small kids we booked a suite so that we could have separate rooms. This might have been my oversight but I feel like calling something a suite implies multiple rooms with doors. As a result it was a nightmare getting our kids to sleep. This was the biggest issue. The pool is also very small which is hard to tell in the pictures.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>FFIgmwestcovina, Manager at Fairfield Inn &amp; Suites Los Angeles West Covina, responded to this reviewResponded August 29, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 29, 2016</t>
+  </si>
+  <si>
+    <t>Hotel is very conveniently located right off the 10. Offers a full complementary breakfast which is great. I found the service and staff to be very helpful.We had a king suite which we didn't realize only included one long room split by a partial wall. Having small kids we booked a suite so that we could have separate rooms. This might have been my oversight but I feel like calling something a suite implies multiple rooms with doors. As a result it was a nightmare getting our kids to sleep. This was the biggest issue. The pool is also very small which is hard to tell in the pictures.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r397213072-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>397213072</t>
+  </si>
+  <si>
+    <t>07/26/2016</t>
+  </si>
+  <si>
+    <t>Not bad</t>
+  </si>
+  <si>
+    <t>Rooms were extremely small and the curtains looked very tacky, no modern air conditioning system just one of those huge a.c's. Friendly staff at breakfast not at the front desk though they couldn't care less about their customers. Anyways if you have to its not a bad place to stop by. Cleanliness: 7Value for money: 6Breakfast:6MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>FFIgmwestcovina, Manager at Fairfield Inn &amp; Suites Los Angeles West Covina, responded to this reviewResponded July 28, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 28, 2016</t>
+  </si>
+  <si>
+    <t>Rooms were extremely small and the curtains looked very tacky, no modern air conditioning system just one of those huge a.c's. Friendly staff at breakfast not at the front desk though they couldn't care less about their customers. Anyways if you have to its not a bad place to stop by. Cleanliness: 7Value for money: 6Breakfast:6More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r396458311-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>396458311</t>
+  </si>
+  <si>
+    <t>07/24/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Satisfied with this hotel </t>
+  </si>
+  <si>
+    <t>The hotel room was small but it was nice and clean and it had a fridge, microwave and coffee machine and tv. The bad thing was they didn't allow an extra bed and the coffee machine was dirty inside so I went downstairs to get hot water (they had coffee downstairs for free). It was a nice hotel overall.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r391982257-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>391982257</t>
+  </si>
+  <si>
+    <t>07/13/2016</t>
+  </si>
+  <si>
+    <t>HIDDEN GEM</t>
+  </si>
+  <si>
+    <t>Surprisingly great hotel. Very clean and modern, good size rooms and free coffee 24/7. Great breakfast and staff are very, very accommodating and helpful. Good pool, great aircon and comfy beds. Very handy location near freeway but very quite and relaxing,</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r369747618-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>369747618</t>
+  </si>
+  <si>
+    <t>05/03/2016</t>
+  </si>
+  <si>
+    <t>Good Business Hotel , maybe not so for Tourists</t>
+  </si>
+  <si>
+    <t>Great place to stay . Extremely clean and Calm.  I was booked by my agent here and its a good 1 hour drive away from downtown LA. So its not a very convenient location for tourists like me , but its a good one for maybe Business people.  you have to have a hired car here as no public transport is near here.</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r362696952-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>362696952</t>
+  </si>
+  <si>
+    <t>04/08/2016</t>
+  </si>
+  <si>
+    <t>Basic amenities but convenient to shops</t>
+  </si>
+  <si>
+    <t>With its convenient location near many shops and restaurants, this midrange Marriott property attracts many travelers. However, the front desk staff seemed indifferent, even to its gold elite members. The staff at the free breakfast, on the other hand, was extremely helpful.The equipment in the fitness room seems worn out. For example, the treadmill felt bumpy under your feet. The room itself is clean but quite basic. The shower in the bathroom still has plastic curtains, unlike the more sanitary glass door that other hotels start to install.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>FFIgmwestcovina, General Manager at Fairfield Inn &amp; Suites Los Angeles West Covina, responded to this reviewResponded April 10, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 10, 2016</t>
+  </si>
+  <si>
+    <t>With its convenient location near many shops and restaurants, this midrange Marriott property attracts many travelers. However, the front desk staff seemed indifferent, even to its gold elite members. The staff at the free breakfast, on the other hand, was extremely helpful.The equipment in the fitness room seems worn out. For example, the treadmill felt bumpy under your feet. The room itself is clean but quite basic. The shower in the bathroom still has plastic curtains, unlike the more sanitary glass door that other hotels start to install.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r361924526-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>361924526</t>
+  </si>
+  <si>
+    <t>04/05/2016</t>
+  </si>
+  <si>
+    <t>nice, clean property with convenient location</t>
+  </si>
+  <si>
+    <t>this location is solid, right on 10 and near 57, proximate to various restaurants and stores within a few blocks.continental breakfast is very solid, and the space is nice.small pool that is in the shade until afternoon. smaller parking lot. my king room was very small (likely unique, as a utility closet took up the typical space of a hotel bathroom, pushing everything back toward the window). bring earplugs if you like it quiet- interstate traffic is audible in rooms.recommended, with a few caveats.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r350327449-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>350327449</t>
+  </si>
+  <si>
+    <t>02/23/2016</t>
+  </si>
+  <si>
+    <t>Best Fairfield Inn we have stayed at!</t>
+  </si>
+  <si>
+    <t>Front Desk was very friendly. Our room was wonderful. We had a small suite and it was immaculate. We loved the location as it was easy to get around. The hotel was very comfortable. We would definitely stay here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>FFIgmwestcovina, General Manager at Fairfield Inn &amp; Suites Los Angeles West Covina, responded to this reviewResponded March 8, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 8, 2016</t>
+  </si>
+  <si>
+    <t>Front Desk was very friendly. Our room was wonderful. We had a small suite and it was immaculate. We loved the location as it was easy to get around. The hotel was very comfortable. We would definitely stay here again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r349830601-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>349830601</t>
+  </si>
+  <si>
+    <t>02/21/2016</t>
+  </si>
+  <si>
+    <t>Great from start to finish</t>
+  </si>
+  <si>
+    <t>Arrived a little before check-in time but the young man at the desk did everything in his power to ask housekeeping to move to our room(s) next. Within 30 minutes they were ready upgraded to a beautiful suite and  named the VIP of the day. Box of goodies came with that. Very clean and quiet and even the breakfast area was busy due to group of girls softball players, there was plenty of food with a nice variety. This will be my hotel when in this area again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Arrived a little before check-in time but the young man at the desk did everything in his power to ask housekeeping to move to our room(s) next. Within 30 minutes they were ready upgraded to a beautiful suite and  named the VIP of the day. Box of goodies came with that. Very clean and quiet and even the breakfast area was busy due to group of girls softball players, there was plenty of food with a nice variety. This will be my hotel when in this area again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r348672846-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>348672846</t>
+  </si>
+  <si>
+    <t>02/17/2016</t>
+  </si>
+  <si>
+    <t>Close to Cal Poly Pomona</t>
+  </si>
+  <si>
+    <t>We stayed at the property as an overflow location for an event at Cal Poly.  We were pleasantly surprised by the efficient check-in process; great hot breakfast the following morning included in the price.  The lobby was clean and rooms were in great condition. Although it says Los Angeles if that is your destination this is not that close.  Ontario is a more convenient airport to this property.MoreShow less</t>
+  </si>
+  <si>
+    <t>FFIgmwestcovina, General Manager at Fairfield Inn &amp; Suites Los Angeles West Covina, responded to this reviewResponded February 21, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 21, 2016</t>
+  </si>
+  <si>
+    <t>We stayed at the property as an overflow location for an event at Cal Poly.  We were pleasantly surprised by the efficient check-in process; great hot breakfast the following morning included in the price.  The lobby was clean and rooms were in great condition. Although it says Los Angeles if that is your destination this is not that close.  Ontario is a more convenient airport to this property.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r338328494-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>338328494</t>
+  </si>
+  <si>
+    <t>01/07/2016</t>
+  </si>
+  <si>
+    <t>Exceptional Hotel &amp; Service</t>
+  </si>
+  <si>
+    <t>My wife and I stayed at Fairfield for 4 nights. From the booking of the room, appearance of the hotel, staff friendliness, quality breakfast buffet, and hot coffee availability, Fairfield was exceptional in every category. The building appears to be fairly new with updated furnishings. The room and bathroom was very clean. We highly recommend Fairfield in West Covina!  MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>FFIgmwestcovina, General Manager at Fairfield Inn &amp; Suites Los Angeles West Covina, responded to this reviewResponded January 11, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 11, 2016</t>
+  </si>
+  <si>
+    <t>My wife and I stayed at Fairfield for 4 nights. From the booking of the room, appearance of the hotel, staff friendliness, quality breakfast buffet, and hot coffee availability, Fairfield was exceptional in every category. The building appears to be fairly new with updated furnishings. The room and bathroom was very clean. We highly recommend Fairfield in West Covina!  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r335579239-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>335579239</t>
+  </si>
+  <si>
+    <t>12/28/2015</t>
+  </si>
+  <si>
+    <t>Clean and great location</t>
+  </si>
+  <si>
+    <t>We used this hotel when we visited my SoCal family mid-December. We've stayed here before in Sept 2012, but didn't write a review back then. We had a pleasant stay then, that's why we stayed here again. It is very convenient and within walking distance of a lot of shops and eateries and close to freeway (I-10). This hotel can accommodate my family of five (2 adults and 3 kids). My kids love the make-your-own waffles for breakfast. It's free parking, free wifi, free breakfast. There's a microwave and mini fridge in the rooms. The beds and rooms are clean and the pillows are super comfortable. I love that there are 2 TVs (one for kids and one for adults.)  The only downside to this hotel was the pull out sofa bed. My daughter and son played rock-paper-scissors to see who would get stuck with the sofa bed. My daughter lost and she said the sofa bed was uncomfortable. She said she tossed and turned all night cause of it. She could feel the bed springs.Since I don't have to sleep on the sofa bed, I still would stay at this hotel in the future. MoreShow less</t>
+  </si>
+  <si>
+    <t>We used this hotel when we visited my SoCal family mid-December. We've stayed here before in Sept 2012, but didn't write a review back then. We had a pleasant stay then, that's why we stayed here again. It is very convenient and within walking distance of a lot of shops and eateries and close to freeway (I-10). This hotel can accommodate my family of five (2 adults and 3 kids). My kids love the make-your-own waffles for breakfast. It's free parking, free wifi, free breakfast. There's a microwave and mini fridge in the rooms. The beds and rooms are clean and the pillows are super comfortable. I love that there are 2 TVs (one for kids and one for adults.)  The only downside to this hotel was the pull out sofa bed. My daughter and son played rock-paper-scissors to see who would get stuck with the sofa bed. My daughter lost and she said the sofa bed was uncomfortable. She said she tossed and turned all night cause of it. She could feel the bed springs.Since I don't have to sleep on the sofa bed, I still would stay at this hotel in the future. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r328770718-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>328770718</t>
+  </si>
+  <si>
+    <t>11/24/2015</t>
+  </si>
+  <si>
+    <t>Consistently great service</t>
+  </si>
+  <si>
+    <t>Even though I make a little fun of some of their decor  this is really a great place to stay.  We have been here a couple of times along with a travel softball team, and we could not have had better service.  This seems to be a favorite place to stay for many different youth sports teams, but the noise level is never elevated, and guests are always well behaved. The staff is unfailingly helpful, welcoming, and friendly. The rooms are always clean, comfortable, and the room arrangement is very useful for the size. The breakfast buffet is very well done, with a good selection, and everything prepared very nicely. You could not ask for a better place to stay that is very convenient and always presents the same high standards. MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>FFIgmwestcovina, General Manager at Fairfield Inn &amp; Suites Los Angeles West Covina, responded to this reviewResponded November 25, 2015</t>
+  </si>
+  <si>
+    <t>Responded November 25, 2015</t>
+  </si>
+  <si>
+    <t>Even though I make a little fun of some of their decor  this is really a great place to stay.  We have been here a couple of times along with a travel softball team, and we could not have had better service.  This seems to be a favorite place to stay for many different youth sports teams, but the noise level is never elevated, and guests are always well behaved. The staff is unfailingly helpful, welcoming, and friendly. The rooms are always clean, comfortable, and the room arrangement is very useful for the size. The breakfast buffet is very well done, with a good selection, and everything prepared very nicely. You could not ask for a better place to stay that is very convenient and always presents the same high standards. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r311611273-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>311611273</t>
+  </si>
+  <si>
+    <t>09/18/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My CA home </t>
+  </si>
+  <si>
+    <t>Great hotel and staff! Everytime my family and I come to California this is our go to! Clean lobby, good coffee and tea, comfy beds, rooms are nice and spacious, staff are very friendly with great customer service! Only down fall is the pool area is so small.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>FFIgmwestcovina, General Manager at Fairfield Inn &amp; Suites Los Angeles West Covina, responded to this reviewResponded September 24, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 24, 2015</t>
+  </si>
+  <si>
+    <t>Great hotel and staff! Everytime my family and I come to California this is our go to! Clean lobby, good coffee and tea, comfy beds, rooms are nice and spacious, staff are very friendly with great customer service! Only down fall is the pool area is so small.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r311419413-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>311419413</t>
+  </si>
+  <si>
+    <t>09/17/2015</t>
+  </si>
+  <si>
+    <t>A nice stay</t>
+  </si>
+  <si>
+    <t>A very convenient hotel- right across I-10, but very quiet- cannot hear highway noise at all. Stayed for one night during roadtrip from Bay Area to San Diego, arrived at 9pm or so, check-in smooth and efficient, room clean, bed comfortable, breakfast pretty good- an excellent Marriott (fairfield) standard hotel!MoreShow less</t>
+  </si>
+  <si>
+    <t>A very convenient hotel- right across I-10, but very quiet- cannot hear highway noise at all. Stayed for one night during roadtrip from Bay Area to San Diego, arrived at 9pm or so, check-in smooth and efficient, room clean, bed comfortable, breakfast pretty good- an excellent Marriott (fairfield) standard hotel!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r305526290-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>305526290</t>
+  </si>
+  <si>
+    <t>08/31/2015</t>
+  </si>
+  <si>
+    <t>Good place in great location</t>
+  </si>
+  <si>
+    <t>I came to W Covina for a high school reunion. My flight was very early on Friday, and the staff let me check in early, which was great. The bed was really great, the amenities were nice. Breakfast was very good. The hotel is on the same block as a Marie Callenders and a Tostitos. One block away is a Starbucks and a few more restaurants at the Eastland Center. A couple blocks away is an In n Out Burger for the true SoCal experience. And it's just behind an IKEA.Only downside was that once in the hotel, my Sprint-based phone did not work. They were willing to take my one long-distance phone call off my bill.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>FFIgmwestcovina, General Manager at Fairfield Inn &amp; Suites Los Angeles West Covina, responded to this reviewResponded September 13, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 13, 2015</t>
+  </si>
+  <si>
+    <t>I came to W Covina for a high school reunion. My flight was very early on Friday, and the staff let me check in early, which was great. The bed was really great, the amenities were nice. Breakfast was very good. The hotel is on the same block as a Marie Callenders and a Tostitos. One block away is a Starbucks and a few more restaurants at the Eastland Center. A couple blocks away is an In n Out Burger for the true SoCal experience. And it's just behind an IKEA.Only downside was that once in the hotel, my Sprint-based phone did not work. They were willing to take my one long-distance phone call off my bill.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r291941620-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>291941620</t>
+  </si>
+  <si>
+    <t>07/23/2015</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>We arrived at this hotel at 1:00pm.  The staff had our room ready for an early check in.  We were offer free bottles of water, a gesture that is well appreciated.  We had a room on a high floor that was clean and quiet. It included a small refrigerator that we reserved ahead of time.The Plaza West Covina Mall is 10 to 15 minutes away.  We had dinner at the HK2 Plaza, which is 15 minutes away.This hotel had a nice breakfast area, which is kept very clean. Check out was a breeze. We will stay in this hotel again whenever we are in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>FFIgmwestcovina, General Manager at Fairfield Inn &amp; Suites Los Angeles West Covina, responded to this reviewResponded July 30, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 30, 2015</t>
+  </si>
+  <si>
+    <t>We arrived at this hotel at 1:00pm.  The staff had our room ready for an early check in.  We were offer free bottles of water, a gesture that is well appreciated.  We had a room on a high floor that was clean and quiet. It included a small refrigerator that we reserved ahead of time.The Plaza West Covina Mall is 10 to 15 minutes away.  We had dinner at the HK2 Plaza, which is 15 minutes away.This hotel had a nice breakfast area, which is kept very clean. Check out was a breeze. We will stay in this hotel again whenever we are in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r286483386-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>286483386</t>
+  </si>
+  <si>
+    <t>07/07/2015</t>
+  </si>
+  <si>
+    <t>Clean and well located</t>
+  </si>
+  <si>
+    <t>Clean hotel although needs an upgrade.  I've been here twice on business and it is very satisfactory.  Amazing amount of television channels but I had to turn on the sleep timer on the TV as their remotes give no access to this.  Great location as there are many restaurants and shopping areas nearby.  Beds were soft, too soft for me so I woke in pain.  But that is my issue.  The breakfast was only ok.  The same items every day, powdered eggs and sausage and waffles. Plus the usual breads and two kinds of muffins.  There is also a small sampling of fresh fruit and yogurt.  Not the nicest but it is suitable.  I would return here if business requires.  I flew into John Wayne Airport.MoreShow less</t>
+  </si>
+  <si>
+    <t>FFIgmwestcovina, General Manager at Fairfield Inn &amp; Suites Los Angeles West Covina, responded to this reviewResponded July 15, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 15, 2015</t>
+  </si>
+  <si>
+    <t>Clean hotel although needs an upgrade.  I've been here twice on business and it is very satisfactory.  Amazing amount of television channels but I had to turn on the sleep timer on the TV as their remotes give no access to this.  Great location as there are many restaurants and shopping areas nearby.  Beds were soft, too soft for me so I woke in pain.  But that is my issue.  The breakfast was only ok.  The same items every day, powdered eggs and sausage and waffles. Plus the usual breads and two kinds of muffins.  There is also a small sampling of fresh fruit and yogurt.  Not the nicest but it is suitable.  I would return here if business requires.  I flew into John Wayne Airport.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r274213324-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>274213324</t>
+  </si>
+  <si>
+    <t>05/24/2015</t>
+  </si>
+  <si>
+    <t>Best Fairfield Inn</t>
+  </si>
+  <si>
+    <t>Smoothest Check In Process.. the  front desk was very helpful with tips for Dinner.  Easy and Free Parking, Wifi and a very decent breakfast.  Comfy Bed.. the only thing was the toilet is close to the toilet paper holder... they might consider moving it a bit..MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>FFIgmwestcovina, General Manager at Fairfield Inn &amp; Suites Los Angeles West Covina, responded to this reviewResponded May 27, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 27, 2015</t>
+  </si>
+  <si>
+    <t>Smoothest Check In Process.. the  front desk was very helpful with tips for Dinner.  Easy and Free Parking, Wifi and a very decent breakfast.  Comfy Bed.. the only thing was the toilet is close to the toilet paper holder... they might consider moving it a bit..More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r264118205-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>264118205</t>
+  </si>
+  <si>
+    <t>04/06/2015</t>
+  </si>
+  <si>
+    <t>great location but hugely BAD bed</t>
+  </si>
+  <si>
+    <t>I travel every week and was so disappointed in the quality of the bed !!!!  This hotel was clean, convenient and had great front desk staff. The downside is that the bed was hideously soft with no support and was very noisy with the fact it sat next to the I-10.  I wouldn't choose to stay here again for these reasons.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>FFIgmwestcovina, General Manager at Fairfield Inn &amp; Suites Los Angeles West Covina, responded to this reviewResponded April 7, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 7, 2015</t>
+  </si>
+  <si>
+    <t>I travel every week and was so disappointed in the quality of the bed !!!!  This hotel was clean, convenient and had great front desk staff. The downside is that the bed was hideously soft with no support and was very noisy with the fact it sat next to the I-10.  I wouldn't choose to stay here again for these reasons.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r263501377-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>263501377</t>
+  </si>
+  <si>
+    <t>04/03/2015</t>
+  </si>
+  <si>
+    <t>Good Value</t>
+  </si>
+  <si>
+    <t>We have stayed here multiple times when visiting our daughter at APU. Very friendly staff, clean rooms, breakfast included,  comfortable beds, very reasonable rates-all the reasons  we continue to return. A small issue with the drier when we did laundry on one visit. Our money was quickly returned and maintenance was repairing it within minutes. We will continue to return as long as the quality and value remain.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>FFIgmwestcovina, General Manager at Fairfield Inn &amp; Suites Los Angeles West Covina, responded to this reviewResponded April 4, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 4, 2015</t>
+  </si>
+  <si>
+    <t>We have stayed here multiple times when visiting our daughter at APU. Very friendly staff, clean rooms, breakfast included,  comfortable beds, very reasonable rates-all the reasons  we continue to return. A small issue with the drier when we did laundry on one visit. Our money was quickly returned and maintenance was repairing it within minutes. We will continue to return as long as the quality and value remain.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r263311011-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>263311011</t>
+  </si>
+  <si>
+    <t>04/02/2015</t>
+  </si>
+  <si>
+    <t>Good vale</t>
+  </si>
+  <si>
+    <t>Nice hotel.  I stayed at others in the area and this was the best.  Good breakfast, clean and good internet.  Rooms look like they were just redone and breakfast was pretty good for this type of property.MoreShow less</t>
+  </si>
+  <si>
+    <t>Nice hotel.  I stayed at others in the area and this was the best.  Good breakfast, clean and good internet.  Rooms look like they were just redone and breakfast was pretty good for this type of property.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r260051159-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>260051159</t>
+  </si>
+  <si>
+    <t>03/17/2015</t>
+  </si>
+  <si>
+    <t>Nice hotel</t>
+  </si>
+  <si>
+    <t>Stayed here for a two night business trip. The location is very convenient to the 10. There are several restaurants within walking distance. Their free breakfast was adequate. The fitness center was nice with two treadmills, an elliptical, and some weights. The outdoor pool was small but clean. Would stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed here for a two night business trip. The location is very convenient to the 10. There are several restaurants within walking distance. Their free breakfast was adequate. The fitness center was nice with two treadmills, an elliptical, and some weights. The outdoor pool was small but clean. Would stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r252821167-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>252821167</t>
+  </si>
+  <si>
+    <t>02/05/2015</t>
+  </si>
+  <si>
+    <t>Great Location</t>
+  </si>
+  <si>
+    <t>We stayed at this Fairfield Inn tipo take advantage of the good shopping opportunities aka IKEA !  Besides being walking distance to Ikea ther was also a huge mall a short drive away with multiple dining and shopping options.  The hotel was very clean and the personnel were great!  The free breakfast was very good and there was a pretty good selection of items.  The pool area was very nice and also very clean.  My only complaint is that the room had a little bit of a musty smell but it was not that bad.  All in all a great place to stay and so convenient to the freeway.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>FFIgmwestcovina, General Manager at Fairfield Inn &amp; Suites Los Angeles West Covina, responded to this reviewResponded February 8, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 8, 2015</t>
+  </si>
+  <si>
+    <t>We stayed at this Fairfield Inn tipo take advantage of the good shopping opportunities aka IKEA !  Besides being walking distance to Ikea ther was also a huge mall a short drive away with multiple dining and shopping options.  The hotel was very clean and the personnel were great!  The free breakfast was very good and there was a pretty good selection of items.  The pool area was very nice and also very clean.  My only complaint is that the room had a little bit of a musty smell but it was not that bad.  All in all a great place to stay and so convenient to the freeway.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r250340793-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>250340793</t>
+  </si>
+  <si>
+    <t>01/21/2015</t>
+  </si>
+  <si>
+    <t>Nice, New, Very Clean, Excellent Marriott Property</t>
+  </si>
+  <si>
+    <t>This is a very nice hotel.  It is probably suited for a nice businessman's hotel or an efficient traveler's hotel.  The Marriott standards are very clearly enforced.The manager reached out to me, before my stay, by email, to welcome me to the hotel.  Very nice.Hot breakfast was very good.  Linens and carpets very clean.  TV was an HD flat screen.It is in a nice, blue collar part of town,.  The hotel itself is in and near malls and shopping.  It is right off the I-10.It took a half hour to drive to the ocean or Hollywood so these areas were accessible without the premium prices.MoreShow less</t>
+  </si>
+  <si>
+    <t>FFIgmwestcovina, General Manager at Fairfield Inn &amp; Suites Los Angeles West Covina, responded to this reviewResponded January 24, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 24, 2015</t>
+  </si>
+  <si>
+    <t>This is a very nice hotel.  It is probably suited for a nice businessman's hotel or an efficient traveler's hotel.  The Marriott standards are very clearly enforced.The manager reached out to me, before my stay, by email, to welcome me to the hotel.  Very nice.Hot breakfast was very good.  Linens and carpets very clean.  TV was an HD flat screen.It is in a nice, blue collar part of town,.  The hotel itself is in and near malls and shopping.  It is right off the I-10.It took a half hour to drive to the ocean or Hollywood so these areas were accessible without the premium prices.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r246537636-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>246537636</t>
+  </si>
+  <si>
+    <t>12/30/2014</t>
+  </si>
+  <si>
+    <t>Unimpressive!!</t>
+  </si>
+  <si>
+    <t>I was not impressed at all.  The room was as small as many european hotels (Inn and Suites???) and I could hear the traffic from the highway all night long.  I've stayed at airport hotels that have better soundproofing than this one.  First and last time I will ever stay here!!MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>FFIgmwestcovina, General Manager at Fairfield Inn &amp; Suites Los Angeles West Covina, responded to this reviewResponded December 31, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 31, 2014</t>
+  </si>
+  <si>
+    <t>I was not impressed at all.  The room was as small as many european hotels (Inn and Suites???) and I could hear the traffic from the highway all night long.  I've stayed at airport hotels that have better soundproofing than this one.  First and last time I will ever stay here!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r246248683-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>246248683</t>
+  </si>
+  <si>
+    <t>12/28/2014</t>
+  </si>
+  <si>
+    <t>Stay here</t>
+  </si>
+  <si>
+    <t>Great hotel, not bad location, shuttle bus to train station, gym, pool, clothes washing and drying facilities, excellent staff very helpful and polite. Fabulous room, air con, breakfast ok self service as much as you want and a good variety MoreShow less</t>
+  </si>
+  <si>
+    <t>Great hotel, not bad location, shuttle bus to train station, gym, pool, clothes washing and drying facilities, excellent staff very helpful and polite. Fabulous room, air con, breakfast ok self service as much as you want and a good variety More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r245649470-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>245649470</t>
+  </si>
+  <si>
+    <t>12/23/2014</t>
+  </si>
+  <si>
+    <t>I enjoyed my stay at this property. Jasmine M. checked me in and she was very friendly and informative. The bathrooms were cool and modern. Breakfast was very nice. I loved the fresh cut fruit salad. I will definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>FFIgmwestcovina, General Manager at Fairfield Inn &amp; Suites Los Angeles West Covina, responded to this reviewResponded December 27, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 27, 2014</t>
+  </si>
+  <si>
+    <t>I enjoyed my stay at this property. Jasmine M. checked me in and she was very friendly and informative. The bathrooms were cool and modern. Breakfast was very nice. I loved the fresh cut fruit salad. I will definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r241182068-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>241182068</t>
+  </si>
+  <si>
+    <t>11/23/2014</t>
+  </si>
+  <si>
+    <t>Excellent stay</t>
+  </si>
+  <si>
+    <t>Spent just one night here, but the entire experience was excellent. Public spaces, pool area, and room were all immaculate.  We were greeted by a friendly, helpful staff. The breakfast was fresh and plentiful.  We will stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>FFIgmwestcovina, General Manager at Fairfield Inn &amp; Suites Los Angeles West Covina, responded to this reviewResponded November 25, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 25, 2014</t>
+  </si>
+  <si>
+    <t>Spent just one night here, but the entire experience was excellent. Public spaces, pool area, and room were all immaculate.  We were greeted by a friendly, helpful staff. The breakfast was fresh and plentiful.  We will stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r239111989-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>239111989</t>
+  </si>
+  <si>
+    <t>11/10/2014</t>
+  </si>
+  <si>
+    <t>Business Travel, Excellent Service</t>
+  </si>
+  <si>
+    <t>Kudos! A few of my colleagues were requested to attend an almost month long assignment in the area, and this hotel was suggested. Everyone reported they enjoyed their room and facility. The front desk staff as well as the Asst. Manager went above and beyond assisting me with extending reservations, retrieving weekly folios, and making sure my colleagues felt welcomed. Thank you again.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>FFIgmwestcovina, General Manager at Fairfield Inn &amp; Suites Los Angeles West Covina, responded to this reviewResponded November 18, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 18, 2014</t>
+  </si>
+  <si>
+    <t>Kudos! A few of my colleagues were requested to attend an almost month long assignment in the area, and this hotel was suggested. Everyone reported they enjoyed their room and facility. The front desk staff as well as the Asst. Manager went above and beyond assisting me with extending reservations, retrieving weekly folios, and making sure my colleagues felt welcomed. Thank you again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r237855767-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>237855767</t>
+  </si>
+  <si>
+    <t>11/03/2014</t>
+  </si>
+  <si>
+    <t>Good choice if you are looking in this area</t>
+  </si>
+  <si>
+    <t>We stayed here for 3 nights and found the rooms clean and updated.  The front desk was very friendly and helpful as I had some packages delivered and they had them on the counter even before I asked for them.  I found the ceilings unusually high which made the room and washroom feel more spacious.  The hotel serves a nice hot breakfast that was replenished often.  There was always yogurt and fruit, fresh made waffles, muffins, juice, coffee, and eggs (sometimes scrambled or boiled or both) and sausages or bacon. We found the elevators a bit slow (especially when there was a large school group checked in) but used the stairs since we were only on the 2nd floor.  Wifi is complementary and the room had lots of channels on the TV.  Parking is plentiful and we never had an issue finding a spot even coming back late at night.  I only have two gripes: the lack of outlets for charging our devices and the loud air conditioner unit.  I prefer to have outlets closer to the nightstands and the air conditioner was loud and tended to knock around the curtain poles.  All in all a great stay but located a bit far from central LA.  If this location works for you, then I would definitely choose this hotel over others.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>FFIgmwestcovina, General Manager at Fairfield Inn &amp; Suites Los Angeles West Covina, responded to this reviewResponded November 10, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 10, 2014</t>
+  </si>
+  <si>
+    <t>We stayed here for 3 nights and found the rooms clean and updated.  The front desk was very friendly and helpful as I had some packages delivered and they had them on the counter even before I asked for them.  I found the ceilings unusually high which made the room and washroom feel more spacious.  The hotel serves a nice hot breakfast that was replenished often.  There was always yogurt and fruit, fresh made waffles, muffins, juice, coffee, and eggs (sometimes scrambled or boiled or both) and sausages or bacon. We found the elevators a bit slow (especially when there was a large school group checked in) but used the stairs since we were only on the 2nd floor.  Wifi is complementary and the room had lots of channels on the TV.  Parking is plentiful and we never had an issue finding a spot even coming back late at night.  I only have two gripes: the lack of outlets for charging our devices and the loud air conditioner unit.  I prefer to have outlets closer to the nightstands and the air conditioner was loud and tended to knock around the curtain poles.  All in all a great stay but located a bit far from central LA.  If this location works for you, then I would definitely choose this hotel over others.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r228910517-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>228910517</t>
+  </si>
+  <si>
+    <t>09/14/2014</t>
+  </si>
+  <si>
+    <t>High school baseball show case scout stay</t>
+  </si>
+  <si>
+    <t>We stayed at this location with my Son's high school club baseball team from Colorado.  The hotel staff were A+ from the front desk to the breakfast crew and the house cleaners. The rooms were clean as any one could ask for.  The beds were good.  Top of the line TV's.  The small gym was very good, and equipment worked.  The pool and hot tube clean.  It was 103 degrees while we were there.  The rooms were nice and cool.  Coming back to the rooms after all day baseball, the swimming pool was chilled and a delight after brutal day long heat.  Refreshing.   The morning breakfast was really good.  Eggs, bacon, bagels, cereal, fresh fruit, ripe bananas.  Lots of food.Coffee was good.The area is very central.  Marie Calendars two doors down, the pie is good.  Hooters three doors down.  LA fitness between hooters and Marie calendars run or work off, pie and hooters wings.Starbucks half a mile away, In and Out burger within a mile.Target store, 1.5 mile away.Our playing fields were all close.We flew in to Orange County John Wayne airport.  27 from our hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>FFIgmwestcovina, General Manager at Fairfield Inn &amp; Suites Los Angeles West Covina, responded to this reviewResponded October 1, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 1, 2014</t>
+  </si>
+  <si>
+    <t>We stayed at this location with my Son's high school club baseball team from Colorado.  The hotel staff were A+ from the front desk to the breakfast crew and the house cleaners. The rooms were clean as any one could ask for.  The beds were good.  Top of the line TV's.  The small gym was very good, and equipment worked.  The pool and hot tube clean.  It was 103 degrees while we were there.  The rooms were nice and cool.  Coming back to the rooms after all day baseball, the swimming pool was chilled and a delight after brutal day long heat.  Refreshing.   The morning breakfast was really good.  Eggs, bacon, bagels, cereal, fresh fruit, ripe bananas.  Lots of food.Coffee was good.The area is very central.  Marie Calendars two doors down, the pie is good.  Hooters three doors down.  LA fitness between hooters and Marie calendars run or work off, pie and hooters wings.Starbucks half a mile away, In and Out burger within a mile.Target store, 1.5 mile away.Our playing fields were all close.We flew in to Orange County John Wayne airport.  27 from our hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r227813216-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>227813216</t>
+  </si>
+  <si>
+    <t>09/08/2014</t>
+  </si>
+  <si>
+    <t>ALERT:  Strong chemicals being used!</t>
+  </si>
+  <si>
+    <t>IF YOU ARE AT ALL SENSITIVE TO CHEMICALS, PLEASE READ!
+I've stayed at this property about a half dozen times and have had good experiences.  When I entered the hotel last week, I was immediately hit with a strong, overwhelming odor of pineapple and coconut.  I mentioned it to the front desk gal, and she happily said it was "pina colada."  I should have turned around and gone to a neighboring hotel, but I didn't.  : (  I was at this property for 2 nights; the odor was overwhelmingly strong in the common areas (lobby, halls, etc.).  I skipped breakfast both mornings.  The odor couldn't be detected in my room, but I put a water-soaked towel in the door crack.
+I sent a note to Marriott and shared my concerns, and indicated that people with chemical sensitivities will struggle.  Someone replied immediately.  She indicated "Our scent has been turned down to be less fragrant, however we choose our scents thru brand specifications."  Huh?  I've written back and asked what this meant -- if all Fairfields will now have some type of intentional odor, but haven't heard back yet.  (The woman has been very responsive -- I just wrote the last note a few hours ago.)  
+There are other hotels within walking distance of the Fairfield (I think they are the Hampton Inn, Holiday Inn Express, and a Best Western).  If you have chemical sensitivities like I do, I recommend you...IF YOU ARE AT ALL SENSITIVE TO CHEMICALS, PLEASE READ!I've stayed at this property about a half dozen times and have had good experiences.  When I entered the hotel last week, I was immediately hit with a strong, overwhelming odor of pineapple and coconut.  I mentioned it to the front desk gal, and she happily said it was "pina colada."  I should have turned around and gone to a neighboring hotel, but I didn't.  : (  I was at this property for 2 nights; the odor was overwhelmingly strong in the common areas (lobby, halls, etc.).  I skipped breakfast both mornings.  The odor couldn't be detected in my room, but I put a water-soaked towel in the door crack.I sent a note to Marriott and shared my concerns, and indicated that people with chemical sensitivities will struggle.  Someone replied immediately.  She indicated "Our scent has been turned down to be less fragrant, however we choose our scents thru brand specifications."  Huh?  I've written back and asked what this meant -- if all Fairfields will now have some type of intentional odor, but haven't heard back yet.  (The woman has been very responsive -- I just wrote the last note a few hours ago.)  There are other hotels within walking distance of the Fairfield (I think they are the Hampton Inn, Holiday Inn Express, and a Best Western).  If you have chemical sensitivities like I do, I recommend you choose another hotel.  We stay in Marriott properties at least 30 days a year -- but this specific property is now off our list.MoreShow less</t>
+  </si>
+  <si>
+    <t>FFIgmwestcovina, Manager at Fairfield Inn &amp; Suites Los Angeles West Covina, responded to this reviewResponded September 9, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 9, 2014</t>
+  </si>
+  <si>
+    <t>IF YOU ARE AT ALL SENSITIVE TO CHEMICALS, PLEASE READ!
+I've stayed at this property about a half dozen times and have had good experiences.  When I entered the hotel last week, I was immediately hit with a strong, overwhelming odor of pineapple and coconut.  I mentioned it to the front desk gal, and she happily said it was "pina colada."  I should have turned around and gone to a neighboring hotel, but I didn't.  : (  I was at this property for 2 nights; the odor was overwhelmingly strong in the common areas (lobby, halls, etc.).  I skipped breakfast both mornings.  The odor couldn't be detected in my room, but I put a water-soaked towel in the door crack.
+I sent a note to Marriott and shared my concerns, and indicated that people with chemical sensitivities will struggle.  Someone replied immediately.  She indicated "Our scent has been turned down to be less fragrant, however we choose our scents thru brand specifications."  Huh?  I've written back and asked what this meant -- if all Fairfields will now have some type of intentional odor, but haven't heard back yet.  (The woman has been very responsive -- I just wrote the last note a few hours ago.)  
+There are other hotels within walking distance of the Fairfield (I think they are the Hampton Inn, Holiday Inn Express, and a Best Western).  If you have chemical sensitivities like I do, I recommend you...IF YOU ARE AT ALL SENSITIVE TO CHEMICALS, PLEASE READ!I've stayed at this property about a half dozen times and have had good experiences.  When I entered the hotel last week, I was immediately hit with a strong, overwhelming odor of pineapple and coconut.  I mentioned it to the front desk gal, and she happily said it was "pina colada."  I should have turned around and gone to a neighboring hotel, but I didn't.  : (  I was at this property for 2 nights; the odor was overwhelmingly strong in the common areas (lobby, halls, etc.).  I skipped breakfast both mornings.  The odor couldn't be detected in my room, but I put a water-soaked towel in the door crack.I sent a note to Marriott and shared my concerns, and indicated that people with chemical sensitivities will struggle.  Someone replied immediately.  She indicated "Our scent has been turned down to be less fragrant, however we choose our scents thru brand specifications."  Huh?  I've written back and asked what this meant -- if all Fairfields will now have some type of intentional odor, but haven't heard back yet.  (The woman has been very responsive -- I just wrote the last note a few hours ago.)  There are other hotels within walking distance of the Fairfield (I think they are the Hampton Inn, Holiday Inn Express, and a Best Western).  If you have chemical sensitivities like I do, I recommend you choose another hotel.  We stay in Marriott properties at least 30 days a year -- but this specific property is now off our list.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r226161332-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>226161332</t>
+  </si>
+  <si>
+    <t>09/01/2014</t>
+  </si>
+  <si>
+    <t>Lovely Hotel</t>
+  </si>
+  <si>
+    <t>Great experience.  Everyone from the front desk staff  to house keeping were polite and professional.  Rooms are very clean. Kenny was great with accommodating our needs. Prices were a little higher than neighboring hotels but it was well worth it!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>FFIgmwestcovina, General Manager at Fairfield Inn &amp; Suites Los Angeles West Covina, responded to this reviewResponded September 2, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 2, 2014</t>
+  </si>
+  <si>
+    <t>Great experience.  Everyone from the front desk staff  to house keeping were polite and professional.  Rooms are very clean. Kenny was great with accommodating our needs. Prices were a little higher than neighboring hotels but it was well worth it!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r221470030-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>221470030</t>
+  </si>
+  <si>
+    <t>08/12/2014</t>
+  </si>
+  <si>
+    <t>Top Rate Fairfield</t>
+  </si>
+  <si>
+    <t>This hotel does not seem like your average Fairfield. It's on the same level as most Courtyards. I actually looked at the literature in the room to verify it was a Fairfield. Very clean, fairly new. Very comfortable. We stayed here for a night during a baseball tourney at Azusa Pacific and Citrus College. Wish we would have known about this hotel earlier in the week. We stayed in Anahiem, which made for a 1 hour drive thru traffic. This was very close to Azusa. Not many hotels close to Azusa. This hotel is within walking distance to a few restaurants. If you are a long stay, get a first floor room. We were in 101 close to laundry, ice and breakfast. Perfect if you don't want to run back and forth to check on laundry.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>FFIgmwestcovina, General Manager at Fairfield Inn &amp; Suites Los Angeles West Covina, responded to this reviewResponded August 19, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 19, 2014</t>
+  </si>
+  <si>
+    <t>This hotel does not seem like your average Fairfield. It's on the same level as most Courtyards. I actually looked at the literature in the room to verify it was a Fairfield. Very clean, fairly new. Very comfortable. We stayed here for a night during a baseball tourney at Azusa Pacific and Citrus College. Wish we would have known about this hotel earlier in the week. We stayed in Anahiem, which made for a 1 hour drive thru traffic. This was very close to Azusa. Not many hotels close to Azusa. This hotel is within walking distance to a few restaurants. If you are a long stay, get a first floor room. We were in 101 close to laundry, ice and breakfast. Perfect if you don't want to run back and forth to check on laundry.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r219291520-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>219291520</t>
+  </si>
+  <si>
+    <t>08/03/2014</t>
+  </si>
+  <si>
+    <t>Great place</t>
+  </si>
+  <si>
+    <t>Just came back from a week stay here and my family and I were very pleased. It is nice and clean and centrally located with a very attentive staff. No complaints at all. Very appreciative of everything. Thank you!MoreShow less</t>
+  </si>
+  <si>
+    <t>FFIgmwestcovina, General Manager at Fairfield Inn &amp; Suites Los Angeles West Covina, responded to this reviewResponded August 4, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 4, 2014</t>
+  </si>
+  <si>
+    <t>Just came back from a week stay here and my family and I were very pleased. It is nice and clean and centrally located with a very attentive staff. No complaints at all. Very appreciative of everything. Thank you!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r215832039-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>215832039</t>
+  </si>
+  <si>
+    <t>07/16/2014</t>
+  </si>
+  <si>
+    <t>Nice, clean hotel and good location</t>
+  </si>
+  <si>
+    <t>Front desk staff was very friendly and so was staff. Rooms were clean and the hotel was excellent overall. Only issue was with breakfast. They said they served until 9 am and 3 of the mornings we were there, they ran out of food, milk and yogurt by 8:30 am and did not refill them. MoreShow less</t>
+  </si>
+  <si>
+    <t>FFIgmwestcovina, General Manager at Fairfield Inn &amp; Suites Los Angeles West Covina, responded to this reviewResponded July 17, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 17, 2014</t>
+  </si>
+  <si>
+    <t>Front desk staff was very friendly and so was staff. Rooms were clean and the hotel was excellent overall. Only issue was with breakfast. They said they served until 9 am and 3 of the mornings we were there, they ran out of food, milk and yogurt by 8:30 am and did not refill them. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r214192922-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>214192922</t>
+  </si>
+  <si>
+    <t>07/07/2014</t>
+  </si>
+  <si>
+    <t>Fantastic Stay</t>
+  </si>
+  <si>
+    <t>We stayed in West Covina for 5 days.  We had two connecting rooms and were able to spread out nicely. The hotel was clean and comfortable.  The staff was so amazing! The front desk was so helpful always! The cleaning crew did an amazing job cleaning my room everyday.  We had a blow up mattress and she even made that bed just like the others.  Truly a fantastic stay! OH and the breakfast was great. Eggs, bacon or sausage and waffles daily. My kids were in heaven and talked about breakfast all day long. At dinner they would say, "I cant wait until breakfast tomorrow."MoreShow less</t>
+  </si>
+  <si>
+    <t>FFIgmwestcovina, General Manager at Fairfield Inn &amp; Suites Los Angeles West Covina, responded to this reviewResponded July 15, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 15, 2014</t>
+  </si>
+  <si>
+    <t>We stayed in West Covina for 5 days.  We had two connecting rooms and were able to spread out nicely. The hotel was clean and comfortable.  The staff was so amazing! The front desk was so helpful always! The cleaning crew did an amazing job cleaning my room everyday.  We had a blow up mattress and she even made that bed just like the others.  Truly a fantastic stay! OH and the breakfast was great. Eggs, bacon or sausage and waffles daily. My kids were in heaven and talked about breakfast all day long. At dinner they would say, "I cant wait until breakfast tomorrow."More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r214164778-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>214164778</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stay here </t>
+  </si>
+  <si>
+    <t>After a horrible experience at a hotel nearby decided to give this place a chance. Absolutely amazing. This hotel was clean, the staff was super professional. Free breakfast. Great coffee. Lots of restaurants and shops close by. Highly recommend .MoreShow less</t>
+  </si>
+  <si>
+    <t>After a horrible experience at a hotel nearby decided to give this place a chance. Absolutely amazing. This hotel was clean, the staff was super professional. Free breakfast. Great coffee. Lots of restaurants and shops close by. Highly recommend .More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r211485936-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>211485936</t>
+  </si>
+  <si>
+    <t>06/22/2014</t>
+  </si>
+  <si>
+    <t>Quiet, Excellent Value</t>
+  </si>
+  <si>
+    <t>Stayed for 3 nights.  Room was very quiet despite being above the pool and near elevator.  Room very well insulated.  Friendly staff, no complaints.  Free Breakfast was nice for this class of hotel (self-serve, not made to order).  MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>FFIgmwestcovina, General Manager at Fairfield Inn &amp; Suites Los Angeles West Covina, responded to this reviewResponded June 23, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 23, 2014</t>
+  </si>
+  <si>
+    <t>Stayed for 3 nights.  Room was very quiet despite being above the pool and near elevator.  Room very well insulated.  Friendly staff, no complaints.  Free Breakfast was nice for this class of hotel (self-serve, not made to order).  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r208266837-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>208266837</t>
+  </si>
+  <si>
+    <t>05/31/2014</t>
+  </si>
+  <si>
+    <t>Outstanding Customer Service and Room</t>
+  </si>
+  <si>
+    <t>I am on oxygen 24/7 and try to stay at Marriott hotels because of their service and comfortable beds. This Fairfield Inn has the best customer service of any Marriott I have ever stayed, we are talking for at least 20 years. When I could not go out because the weather was so hot one of their employees went and picked me up lunch at the Mexican restaurant next door. They also took me to a Fed Ex store to mail some of my things back home. I can't say enough about them, from their manager to various employees on the desk to housekeeping. Above and beyond they went to make my vacation better. Thank you all. Catherine CostellaMoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>FFIgmwestcovina, General Manager at Fairfield Inn &amp; Suites Los Angeles West Covina, responded to this reviewResponded June 2, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 2, 2014</t>
+  </si>
+  <si>
+    <t>I am on oxygen 24/7 and try to stay at Marriott hotels because of their service and comfortable beds. This Fairfield Inn has the best customer service of any Marriott I have ever stayed, we are talking for at least 20 years. When I could not go out because the weather was so hot one of their employees went and picked me up lunch at the Mexican restaurant next door. They also took me to a Fed Ex store to mail some of my things back home. I can't say enough about them, from their manager to various employees on the desk to housekeeping. Above and beyond they went to make my vacation better. Thank you all. Catherine CostellaMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r208110606-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>208110606</t>
+  </si>
+  <si>
+    <t>05/30/2014</t>
+  </si>
+  <si>
+    <t>Other option for CalPoly stay.</t>
+  </si>
+  <si>
+    <t>My daughter goes to Cal Poly University. For orientation we stayed at the hotel on campus. It was okay, but nothing around. The next time we stayed at what we were told were the closes. I had to cut my stay short. For my last few stays I have stayed here and it has been wonderful. The staff is great and the hotel is clean with everything close. The price is perfect. MoreShow less</t>
+  </si>
+  <si>
+    <t>My daughter goes to Cal Poly University. For orientation we stayed at the hotel on campus. It was okay, but nothing around. The next time we stayed at what we were told were the closes. I had to cut my stay short. For my last few stays I have stayed here and it has been wonderful. The staff is great and the hotel is clean with everything close. The price is perfect. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r207398380-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>207398380</t>
+  </si>
+  <si>
+    <t>05/27/2014</t>
+  </si>
+  <si>
+    <t>Middle point for Dodgers and Angels!</t>
+  </si>
+  <si>
+    <t>We needed a place to stay that was between the two LA baseball teams... And it was a good one. It was right off the highway, which at night you could hear the large trucks go by but when the AC was on no problems! Restaurants were close and breakfast was a nice hotel hot breakfast. Our suite was perfect and we had a great stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>FFIgmwestcovina, General Manager at Fairfield Inn &amp; Suites Los Angeles West Covina, responded to this reviewResponded May 28, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 28, 2014</t>
+  </si>
+  <si>
+    <t>We needed a place to stay that was between the two LA baseball teams... And it was a good one. It was right off the highway, which at night you could hear the large trucks go by but when the AC was on no problems! Restaurants were close and breakfast was a nice hotel hot breakfast. Our suite was perfect and we had a great stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r205976590-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>205976590</t>
+  </si>
+  <si>
+    <t>05/17/2014</t>
+  </si>
+  <si>
+    <t>Not pleased with our stay</t>
+  </si>
+  <si>
+    <t>From the get-go, this was rough. I should have recognized the red flags of poor customer service. They put me on hold for over 10 minutes… I proceeded to hang up and call back only to be answered promptly. Indicates they forgot about a customer. That's not good. I asked for a fridge, they said there were none. I asked for a crib, they delivered it without sheets. The next day when our party came to join us, they got a fridge no problem (sharing with us of course, but they should have made a note and given it to us as we were staying for 3 nights - they offered us the fridge in the front for any perishables we might have brought (nice thought but a little odd). The next day, our keys magically expired at checkout, even though we stayed for 3 nights in the same room. The breakfast was fine, rooms were decent. Requested an adjoined room and was not guaranteed it because apparently it is against Marriott's policy to secure connecting rooms (?) and although it was annoying to be denied the guarantee several times (as both parties called to put a request) it was given to us. BUT, at check in I had to be moved from another room because they overlooked my request. Customer service was super poor. And that's really sad for a marriott.MoreShow less</t>
+  </si>
+  <si>
+    <t>FFIgmwestcovina, General Manager at Fairfield Inn &amp; Suites Los Angeles West Covina, responded to this reviewResponded May 19, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 19, 2014</t>
+  </si>
+  <si>
+    <t>From the get-go, this was rough. I should have recognized the red flags of poor customer service. They put me on hold for over 10 minutes… I proceeded to hang up and call back only to be answered promptly. Indicates they forgot about a customer. That's not good. I asked for a fridge, they said there were none. I asked for a crib, they delivered it without sheets. The next day when our party came to join us, they got a fridge no problem (sharing with us of course, but they should have made a note and given it to us as we were staying for 3 nights - they offered us the fridge in the front for any perishables we might have brought (nice thought but a little odd). The next day, our keys magically expired at checkout, even though we stayed for 3 nights in the same room. The breakfast was fine, rooms were decent. Requested an adjoined room and was not guaranteed it because apparently it is against Marriott's policy to secure connecting rooms (?) and although it was annoying to be denied the guarantee several times (as both parties called to put a request) it was given to us. BUT, at check in I had to be moved from another room because they overlooked my request. Customer service was super poor. And that's really sad for a marriott.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r205133789-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>205133789</t>
+  </si>
+  <si>
+    <t>05/11/2014</t>
+  </si>
+  <si>
+    <t>Clean and friendly</t>
+  </si>
+  <si>
+    <t>The staff is friendly and helpful. The facility is kept up and clean. The breakfast was very convenient with the wide range of hot breakfast items. Parking is included and well situated. If I have any complaints, there were only two. The exhaust fan in my bathroom was very weak which allowed for no ventilation of shower steam at all. My bed headboard was adjacent to the next unit's wall where their TV was situated, and of course, was on all night by that guest. This is poor furniture setup design. The rooms should have staggered bed to tv room positoning.   MoreShow less</t>
+  </si>
+  <si>
+    <t>FFIgmwestcovina, General Manager at Fairfield Inn &amp; Suites Los Angeles West Covina, responded to this reviewResponded May 12, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 12, 2014</t>
+  </si>
+  <si>
+    <t>The staff is friendly and helpful. The facility is kept up and clean. The breakfast was very convenient with the wide range of hot breakfast items. Parking is included and well situated. If I have any complaints, there were only two. The exhaust fan in my bathroom was very weak which allowed for no ventilation of shower steam at all. My bed headboard was adjacent to the next unit's wall where their TV was situated, and of course, was on all night by that guest. This is poor furniture setup design. The rooms should have staggered bed to tv room positoning.   More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r203526509-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>203526509</t>
+  </si>
+  <si>
+    <t>04/30/2014</t>
+  </si>
+  <si>
+    <t>water heater is really loud!</t>
+  </si>
+  <si>
+    <t>Checked in on Saturday night and the front desk girl was really friendly. I told her I had sleep issues so I prefer a quiet room, I've got Rm. 113 (the end of hallway) and it's not facing freeway. My room was quiet until 6am on Saturday, I woke up by the loud knocking noises, I asked the slender gentleman with the glasses at frontdesk, he said he will ask someone to check, but he never did, he seems to be aware of the problem and said it could be water heater, He said "sorry about that, our rooms are all earthquake proof...etc", but I'm very disappointed because he didn't care how I feel and didn't offer any solution at all. After a long road trip from San Jose, I only got 4 hours sleep here. If you are a night owl like me who don't like to wake up at 6am, please stay away from the end unit, the noise is worse than freeway.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>FFIgmwestcovina, General Manager at Fairfield Inn &amp; Suites Los Angeles West Covina, responded to this reviewResponded May 3, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 3, 2014</t>
+  </si>
+  <si>
+    <t>Checked in on Saturday night and the front desk girl was really friendly. I told her I had sleep issues so I prefer a quiet room, I've got Rm. 113 (the end of hallway) and it's not facing freeway. My room was quiet until 6am on Saturday, I woke up by the loud knocking noises, I asked the slender gentleman with the glasses at frontdesk, he said he will ask someone to check, but he never did, he seems to be aware of the problem and said it could be water heater, He said "sorry about that, our rooms are all earthquake proof...etc", but I'm very disappointed because he didn't care how I feel and didn't offer any solution at all. After a long road trip from San Jose, I only got 4 hours sleep here. If you are a night owl like me who don't like to wake up at 6am, please stay away from the end unit, the noise is worse than freeway.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r195555270-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>195555270</t>
+  </si>
+  <si>
+    <t>02/27/2014</t>
+  </si>
+  <si>
+    <t>Spacious, comfortable room, modern and value for money</t>
+  </si>
+  <si>
+    <t>A bright, modern hotel which is very attractive, clean and has easy parking.  There was no problem with an early check in, the staff were very helpful and gave us a bottle of water each.  Coffee is available all day in the lobby and there is comfortable seating, tv and a business centre.  The room was spacious, comfortable and had coffee making facilities.  There was a pool and a hot tub which would have been useful in warmer weather.  Breakfast was more than adequate with plenty of choice and hot and cold drinks.  The location was good for the local shopping mall and bars/restaurants.  We had no problem driving from West Covina to Hollywood, Burbank and Brea.  We enjoyed our stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>FFIgmwestcovina, General Manager at Fairfield Inn &amp; Suites Los Angeles West Covina, responded to this reviewResponded March 4, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 4, 2014</t>
+  </si>
+  <si>
+    <t>A bright, modern hotel which is very attractive, clean and has easy parking.  There was no problem with an early check in, the staff were very helpful and gave us a bottle of water each.  Coffee is available all day in the lobby and there is comfortable seating, tv and a business centre.  The room was spacious, comfortable and had coffee making facilities.  There was a pool and a hot tub which would have been useful in warmer weather.  Breakfast was more than adequate with plenty of choice and hot and cold drinks.  The location was good for the local shopping mall and bars/restaurants.  We had no problem driving from West Covina to Hollywood, Burbank and Brea.  We enjoyed our stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r195333452-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>195333452</t>
+  </si>
+  <si>
+    <t>02/25/2014</t>
+  </si>
+  <si>
+    <t>Nice Hotel- Good Value</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel as we traveled to see my son's Marching Band march in the Rose Parade.  Arrived late on New Years eve, check in was great, host even gave us inside information for trip to Pasadena the next morning &amp; avoiding traffic.  Only in room for a few hours. Room was well appointed, bathroom nice but small.  Hotel even put together breakfast bags for those that were leaving the hotel early for the parade!!  Great access to the freeway and easy drive to the parade.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel as we traveled to see my son's Marching Band march in the Rose Parade.  Arrived late on New Years eve, check in was great, host even gave us inside information for trip to Pasadena the next morning &amp; avoiding traffic.  Only in room for a few hours. Room was well appointed, bathroom nice but small.  Hotel even put together breakfast bags for those that were leaving the hotel early for the parade!!  Great access to the freeway and easy drive to the parade.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r194072155-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>194072155</t>
+  </si>
+  <si>
+    <t>02/14/2014</t>
+  </si>
+  <si>
+    <t>Good value in a convenient hotel in the area</t>
+  </si>
+  <si>
+    <t>This Fairfield Inn is relatively new and is quite comfortable with every needed convenience.  It is a very good value and quite convenient for a stay in the West Covina area.  Overall, it is very similar in quality to the Hampton Inn next door.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>This Fairfield Inn is relatively new and is quite comfortable with every needed convenience.  It is a very good value and quite convenient for a stay in the West Covina area.  Overall, it is very similar in quality to the Hampton Inn next door.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r190962542-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>190962542</t>
+  </si>
+  <si>
+    <t>01/15/2014</t>
+  </si>
+  <si>
+    <t>Everything you'd expect from a Fairfield Marriott. Clean, decent breakfast, comfortable bed. There are restaurants close by, wall-mart, target, ikea, gyms all within 1mile. Great access to highway. Location is nice. Would stay here again. Talk to front desk they can give recommendations for restaurants some of which offer discounts if you show your room key.MoreShow less</t>
+  </si>
+  <si>
+    <t>Everything you'd expect from a Fairfield Marriott. Clean, decent breakfast, comfortable bed. There are restaurants close by, wall-mart, target, ikea, gyms all within 1mile. Great access to highway. Location is nice. Would stay here again. Talk to front desk they can give recommendations for restaurants some of which offer discounts if you show your room key.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r188904826-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>188904826</t>
+  </si>
+  <si>
+    <t>12/29/2013</t>
+  </si>
+  <si>
+    <t>Fairfield West Covina a Nice Property</t>
+  </si>
+  <si>
+    <t>We stayed one night in the Fairfield Inn West Covina, California in mid-December 2013. This is a well maintained property and our stay was enjoyable. The rooms are small. But everything was extremely clean and the bathroom was spacious. Beds and pillows were comfortable and the hotel was very quiet. Breakfast is adequate---no better or worse than other chains. And rates were reasonable especially for Southern California. Would recommend this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed one night in the Fairfield Inn West Covina, California in mid-December 2013. This is a well maintained property and our stay was enjoyable. The rooms are small. But everything was extremely clean and the bathroom was spacious. Beds and pillows were comfortable and the hotel was very quiet. Breakfast is adequate---no better or worse than other chains. And rates were reasonable especially for Southern California. Would recommend this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r188332145-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>188332145</t>
+  </si>
+  <si>
+    <t>12/22/2013</t>
+  </si>
+  <si>
+    <t>A fantastic Fairfield....</t>
+  </si>
+  <si>
+    <t>I'm always surprised  and get very tired with reviews that seem to think that every hotel should be the Ritz when they are paying 100 bucks a night in Southern California....not gonna happen...  but if there was a Ritz of Fairfields,  this one would qualify.  I am judging this Fairfield against other Fairfield properties and it is superlative.  (Anaheim Hills another Fairfield in the superlative category)  
+As you may read in other reviews,  yes,  the beds are magical.  I was working on my laptop around 11pm,  wasn't sleepy at all, and poof..I woke up at 5 am ...laptop next to me,  little bit of drool and and my face with a tattoo of the bedspread that was wrinkled underneath me... And felt so amazingly refreshed.  And it was the same the second night ...except I consciously went to sleep and woke up..only 6 hours..feeling amazing.....I was pouting when I was checking out. 
+The king room I originally booked a bit small for my tastes,  but if you are looking for a comfy clean place to lay your head, not spending hours in the room...you will not find this ethereal of a sleep in any room as reasonable as here.  I chose to upgrade to the suite...I could definitely be quite comfortable living in this space..give me an oven..we are good to go!  The suite also comes with a microwave and mini fridge.  The regular room does not. BUT... Kimberly at...I'm always surprised  and get very tired with reviews that seem to think that every hotel should be the Ritz when they are paying 100 bucks a night in Southern California....not gonna happen...  but if there was a Ritz of Fairfields,  this one would qualify.  I am judging this Fairfield against other Fairfield properties and it is superlative.  (Anaheim Hills another Fairfield in the superlative category)  As you may read in other reviews,  yes,  the beds are magical.  I was working on my laptop around 11pm,  wasn't sleepy at all, and poof..I woke up at 5 am ...laptop next to me,  little bit of drool and and my face with a tattoo of the bedspread that was wrinkled underneath me... And felt so amazingly refreshed.  And it was the same the second night ...except I consciously went to sleep and woke up..only 6 hours..feeling amazing.....I was pouting when I was checking out. The king room I originally booked a bit small for my tastes,  but if you are looking for a comfy clean place to lay your head, not spending hours in the room...you will not find this ethereal of a sleep in any room as reasonable as here.  I chose to upgrade to the suite...I could definitely be quite comfortable living in this space..give me an oven..we are good to go!  The suite also comes with a microwave and mini fridge.  The regular room does not. BUT... Kimberly at the front desk was very patient and awesome offering right away to bring a mini fridge up to that room in case I didn't want to upgrade.  As I ended up in the hotel room more than expected,  I am glad I went for the bigger space.  Love the suite open layout! Staff was exceptional, Front desk, Guest services, and housekeeping... you are awesome!   Very quick with responding to my several requests, which after my initial changing of rooms I felt like I was being a high maintenance guest which they never ever acted as if I was.  I wouldn't have blamed them at all...and they were genuinely happy to help.  Breakfast very good,  waffles, eggs, sausage, bacon ..they did run out of bacon though...happens at most comped breakfasts so not holding it against them.  But note to hotels..EVERYTHING is better with bacon...most of us can live without the sausage...bring on more BACON!  :)   Power outlets were a plenty and readily accessible,  everything was clean and in working order,  really good water pressure ...and I will stay here again....sooner than later...  There is an Ikea within a two minute walk!  And a shopping center at the closest major intersection... Yay!   Many restaurant choices very close..My only complaint...which is a small one...kill the vacuuming in the halls until noon checkout... :)MoreShow less</t>
+  </si>
+  <si>
+    <t>I'm always surprised  and get very tired with reviews that seem to think that every hotel should be the Ritz when they are paying 100 bucks a night in Southern California....not gonna happen...  but if there was a Ritz of Fairfields,  this one would qualify.  I am judging this Fairfield against other Fairfield properties and it is superlative.  (Anaheim Hills another Fairfield in the superlative category)  
+As you may read in other reviews,  yes,  the beds are magical.  I was working on my laptop around 11pm,  wasn't sleepy at all, and poof..I woke up at 5 am ...laptop next to me,  little bit of drool and and my face with a tattoo of the bedspread that was wrinkled underneath me... And felt so amazingly refreshed.  And it was the same the second night ...except I consciously went to sleep and woke up..only 6 hours..feeling amazing.....I was pouting when I was checking out. 
+The king room I originally booked a bit small for my tastes,  but if you are looking for a comfy clean place to lay your head, not spending hours in the room...you will not find this ethereal of a sleep in any room as reasonable as here.  I chose to upgrade to the suite...I could definitely be quite comfortable living in this space..give me an oven..we are good to go!  The suite also comes with a microwave and mini fridge.  The regular room does not. BUT... Kimberly at...I'm always surprised  and get very tired with reviews that seem to think that every hotel should be the Ritz when they are paying 100 bucks a night in Southern California....not gonna happen...  but if there was a Ritz of Fairfields,  this one would qualify.  I am judging this Fairfield against other Fairfield properties and it is superlative.  (Anaheim Hills another Fairfield in the superlative category)  As you may read in other reviews,  yes,  the beds are magical.  I was working on my laptop around 11pm,  wasn't sleepy at all, and poof..I woke up at 5 am ...laptop next to me,  little bit of drool and and my face with a tattoo of the bedspread that was wrinkled underneath me... And felt so amazingly refreshed.  And it was the same the second night ...except I consciously went to sleep and woke up..only 6 hours..feeling amazing.....I was pouting when I was checking out. The king room I originally booked a bit small for my tastes,  but if you are looking for a comfy clean place to lay your head, not spending hours in the room...you will not find this ethereal of a sleep in any room as reasonable as here.  I chose to upgrade to the suite...I could definitely be quite comfortable living in this space..give me an oven..we are good to go!  The suite also comes with a microwave and mini fridge.  The regular room does not. BUT... Kimberly at the front desk was very patient and awesome offering right away to bring a mini fridge up to that room in case I didn't want to upgrade.  As I ended up in the hotel room more than expected,  I am glad I went for the bigger space.  Love the suite open layout! Staff was exceptional, Front desk, Guest services, and housekeeping... you are awesome!   Very quick with responding to my several requests, which after my initial changing of rooms I felt like I was being a high maintenance guest which they never ever acted as if I was.  I wouldn't have blamed them at all...and they were genuinely happy to help.  Breakfast very good,  waffles, eggs, sausage, bacon ..they did run out of bacon though...happens at most comped breakfasts so not holding it against them.  But note to hotels..EVERYTHING is better with bacon...most of us can live without the sausage...bring on more BACON!  :)   Power outlets were a plenty and readily accessible,  everything was clean and in working order,  really good water pressure ...and I will stay here again....sooner than later...  There is an Ikea within a two minute walk!  And a shopping center at the closest major intersection... Yay!   Many restaurant choices very close..My only complaint...which is a small one...kill the vacuuming in the halls until noon checkout... :)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r180262479-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>180262479</t>
+  </si>
+  <si>
+    <t>10/08/2013</t>
+  </si>
+  <si>
+    <t>Good hotel in West Covina</t>
+  </si>
+  <si>
+    <t>We stayed in one of their suites, which has two queen beds and a sofa bed.  There is no door that separates the two queen bed and sofa bed, and it could get pretty tight in spacing when the sofa bed is in use.  Besides the standard Fairfield inn amenities, there is also a fridge and microwave in the suite; which could be useful for some people.  The location is great, with freeway ramps close by, few restaurants, and a Walmart and Target.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>FFIgmwestcovina, General Manager at Fairfield Inn &amp; Suites Los Angeles West Covina, responded to this reviewResponded March 14, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 14, 2014</t>
+  </si>
+  <si>
+    <t>We stayed in one of their suites, which has two queen beds and a sofa bed.  There is no door that separates the two queen bed and sofa bed, and it could get pretty tight in spacing when the sofa bed is in use.  Besides the standard Fairfield inn amenities, there is also a fridge and microwave in the suite; which could be useful for some people.  The location is great, with freeway ramps close by, few restaurants, and a Walmart and Target.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r179479088-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>179479088</t>
+  </si>
+  <si>
+    <t>10/02/2013</t>
+  </si>
+  <si>
+    <t>Standard Fairfield Inn</t>
+  </si>
+  <si>
+    <t>Stayed one evening on business. Place was clean, updated and close to the highway. Plenty of parking. Service was fine--no issues or problems. No issues with internet in room. Overall, recommended property.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r177815241-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>177815241</t>
+  </si>
+  <si>
+    <t>09/19/2013</t>
+  </si>
+  <si>
+    <t>A Gem in West Covina</t>
+  </si>
+  <si>
+    <t>Great addition to hotels along I-10 in West Covina. Essential hotel requirements exceptionally well done. A well maintained and smart looking modern facilities. Lots of pride, helpfulness and friendliness demonstrated by all members of the staff. We were treated to a comfortable and functional room with a compact and efficient layout. The non-smoking facility was big plus. Small workout room, pool and whirlpool among list of facility features. On-site free parking is also included. Free daily breakfast is provided. An especially nice feature is complimentary wireless internet is part of the package. Location is a short distance via I-10 from the Los Angeles County Fairplex and Cal Poly Pomona. The Fairfield Inn is a gem!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>FFIgmwestcovina, General Manager at Fairfield Inn &amp; Suites Los Angeles West Covina, responded to this reviewResponded April 7, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 7, 2014</t>
+  </si>
+  <si>
+    <t>Great addition to hotels along I-10 in West Covina. Essential hotel requirements exceptionally well done. A well maintained and smart looking modern facilities. Lots of pride, helpfulness and friendliness demonstrated by all members of the staff. We were treated to a comfortable and functional room with a compact and efficient layout. The non-smoking facility was big plus. Small workout room, pool and whirlpool among list of facility features. On-site free parking is also included. Free daily breakfast is provided. An especially nice feature is complimentary wireless internet is part of the package. Location is a short distance via I-10 from the Los Angeles County Fairplex and Cal Poly Pomona. The Fairfield Inn is a gem!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r171973193-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>171973193</t>
+  </si>
+  <si>
+    <t>08/12/2013</t>
+  </si>
+  <si>
+    <t>Okay</t>
+  </si>
+  <si>
+    <t>Last year we stayed at Fairfield Inn West Covina LAX. The hotel room was nice as well as the staff. We came back because we like it.July this year we stayed there again and it was a total nightmare. We booked for a king side bed and they checked us in a room for two double sized bed! My husband and I can't fit in one bed. I didn't get to sleep well the whole time we stayed there.The hotel served free breakfast.The hotel has a fitness center and a swimming pool.The staffs aren't that bad.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>Last year we stayed at Fairfield Inn West Covina LAX. The hotel room was nice as well as the staff. We came back because we like it.July this year we stayed there again and it was a total nightmare. We booked for a king side bed and they checked us in a room for two double sized bed! My husband and I can't fit in one bed. I didn't get to sleep well the whole time we stayed there.The hotel served free breakfast.The hotel has a fitness center and a swimming pool.The staffs aren't that bad.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r171275750-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>171275750</t>
+  </si>
+  <si>
+    <t>08/07/2013</t>
+  </si>
+  <si>
+    <t>Great breakfast and location</t>
+  </si>
+  <si>
+    <t>I stayed here for a reunion that I recently had In Diamond Bar. All other hotels were taken or going for an absurd price and we were lucky enough to find this hotel. On arrival, I was a little stressed and was able to get checked in quickly. I enjoyed their hot chocolate machine in the lobby and was amazed at the selection and variety of foods during breakfast. The service was pretty good as well. Lastly, I loved being close to the freeway so that I could get around easily. I would definitely stay at this hotel again. The rooms were comfy and pretty and the bathrooms were beautifully decorated. I loved it!MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed here for a reunion that I recently had In Diamond Bar. All other hotels were taken or going for an absurd price and we were lucky enough to find this hotel. On arrival, I was a little stressed and was able to get checked in quickly. I enjoyed their hot chocolate machine in the lobby and was amazed at the selection and variety of foods during breakfast. The service was pretty good as well. Lastly, I loved being close to the freeway so that I could get around easily. I would definitely stay at this hotel again. The rooms were comfy and pretty and the bathrooms were beautifully decorated. I loved it!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r170446985-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>170446985</t>
+  </si>
+  <si>
+    <t>08/02/2013</t>
+  </si>
+  <si>
+    <t>Convenient and clean</t>
+  </si>
+  <si>
+    <t>On a quick overnight trip to the area for a family gathering, we decided to try a different place than where we usually stay when visiting family. Having grown up in the area we were familiar with the location. This area is slowly being revamped. Facility is clean, staff was friendly.  Nothing was outstanding and nothing was terrible.MoreShow less</t>
+  </si>
+  <si>
+    <t>On a quick overnight trip to the area for a family gathering, we decided to try a different place than where we usually stay when visiting family. Having grown up in the area we were familiar with the location. This area is slowly being revamped. Facility is clean, staff was friendly.  Nothing was outstanding and nothing was terrible.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r164850246-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>164850246</t>
+  </si>
+  <si>
+    <t>06/22/2013</t>
+  </si>
+  <si>
+    <t>Surprised by  Quality</t>
+  </si>
+  <si>
+    <t>The room was very nice,  King Bed very comfy, two televisions, Sofa Bed.  The breakfast was included and it was eggs, bacon, sausage, fresh pancakes, fruit, Juice, cereal, milk, coffee, the works. etc. etc. etc.</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r164513424-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>164513424</t>
+  </si>
+  <si>
+    <t>06/19/2013</t>
+  </si>
+  <si>
+    <t>Great Location!</t>
+  </si>
+  <si>
+    <t>In town for 3 nights and stayed at Fairfield Inn &amp; Suites.  Super location to I-10 for ease of travel and lots of food choices near by.     2 boys ball teams were staying in hotel at the same time and they got VERY loud at the pool w/ no supervision, and when one Dad did come out beer was in hand (room was pool siide)  but once they finally went inside it got relatively quiet other than I-10 rumble and helicopters off and on most of the night.   We ran the fan on low and that pretty much cancelled out that issue.    With family of 5, breakfast included makes this a great choice to stay.   With both ball teams in food area, we had to find a tight corner and eat off our laps by the front doors, but it worked.    We ate at Marie Callenders a few doors down, costly for a fam of 5 ($70) but oh was food good.   Used the laundry room and glad no one else had that in mind as there was only 1 washer and 1 dryer.  Overall, A comfortable 3- nights stay in a very clean room.    On our 13-day trip, was only Mariott property that we stayed out that would not give us a AAA rate.MoreShow less</t>
+  </si>
+  <si>
+    <t>In town for 3 nights and stayed at Fairfield Inn &amp; Suites.  Super location to I-10 for ease of travel and lots of food choices near by.     2 boys ball teams were staying in hotel at the same time and they got VERY loud at the pool w/ no supervision, and when one Dad did come out beer was in hand (room was pool siide)  but once they finally went inside it got relatively quiet other than I-10 rumble and helicopters off and on most of the night.   We ran the fan on low and that pretty much cancelled out that issue.    With family of 5, breakfast included makes this a great choice to stay.   With both ball teams in food area, we had to find a tight corner and eat off our laps by the front doors, but it worked.    We ate at Marie Callenders a few doors down, costly for a fam of 5 ($70) but oh was food good.   Used the laundry room and glad no one else had that in mind as there was only 1 washer and 1 dryer.  Overall, A comfortable 3- nights stay in a very clean room.    On our 13-day trip, was only Mariott property that we stayed out that would not give us a AAA rate.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r161282020-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>161282020</t>
+  </si>
+  <si>
+    <t>05/20/2013</t>
+  </si>
+  <si>
+    <t>Great location and great front desk service.</t>
+  </si>
+  <si>
+    <t>Nice, newer Fairfield Inn in a great location for most Southern California attractions and highways. Front desk staff was courteous and very professional.  Made good suggestions on how to get around easily.  Located very close (some within walking distance) of several restaurants.  We ate at El Torrito where you get 15% off with your room key. It is within walking distance.  Always love having coffee available 24 hours a day.  For a newer building, I was surprised on how much I could hear the neighbors talking and the children in the room above us running around their room. Bed was very comfortable.</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r156241587-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>156241587</t>
+  </si>
+  <si>
+    <t>04/01/2013</t>
+  </si>
+  <si>
+    <t>Room next to elevator was very noisy</t>
+  </si>
+  <si>
+    <t>We had a hard time sleeping as there was a noise every 10-15 minutes. They gave us a room next to the elevator on the second floor even though I had asked for a room on a high floor. I am not sure if the noise is from the ice machine or from the elevator. The breakfast was average as there were a bunch of people eating Jimmy Dean breakfast sandwich but by the time we got there at 8am, it was already all gone and the kitchen staff did not place any more out for us to have some.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>We had a hard time sleeping as there was a noise every 10-15 minutes. They gave us a room next to the elevator on the second floor even though I had asked for a room on a high floor. I am not sure if the noise is from the ice machine or from the elevator. The breakfast was average as there were a bunch of people eating Jimmy Dean breakfast sandwich but by the time we got there at 8am, it was already all gone and the kitchen staff did not place any more out for us to have some.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r155894025-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>155894025</t>
+  </si>
+  <si>
+    <t>03/28/2013</t>
+  </si>
+  <si>
+    <t>Good place</t>
+  </si>
+  <si>
+    <t>We needed a hotel out in the northern burbs of LA, close to Ontario airport, and this place worked well. Just off I-10, but far enough removed that highway noise was pretty minimal. Everything was in good shape. Breakfast was good. It was the PEOPLE that made this place really good. When I arrived at 1AM, the person at the counter asked if I wanted a bottle of water and some snacks, which I gladly took. My family and I stayed for four nights, and several times I would come down to ask questions or directions for things I could not readily determine. I never could stump them, always had a good answer. Internet worked well. Just an absolutely trouble free and enjoyable stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>We needed a hotel out in the northern burbs of LA, close to Ontario airport, and this place worked well. Just off I-10, but far enough removed that highway noise was pretty minimal. Everything was in good shape. Breakfast was good. It was the PEOPLE that made this place really good. When I arrived at 1AM, the person at the counter asked if I wanted a bottle of water and some snacks, which I gladly took. My family and I stayed for four nights, and several times I would come down to ask questions or directions for things I could not readily determine. I never could stump them, always had a good answer. Internet worked well. Just an absolutely trouble free and enjoyable stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r155382893-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>155382893</t>
+  </si>
+  <si>
+    <t>03/22/2013</t>
+  </si>
+  <si>
+    <t>What a gem!</t>
+  </si>
+  <si>
+    <t>Looks and feels brand new.  Pleasant welcoming staff, modern clean rooms. Great value as it is a level one on points but shows like a level 4.  Awesome, love this place as my base anytime I'm in LA.  Free WiFi and breakfast. Thanks Marriott!!  Your management at this place are doing a great job MoreShow less</t>
+  </si>
+  <si>
+    <t>Looks and feels brand new.  Pleasant welcoming staff, modern clean rooms. Great value as it is a level one on points but shows like a level 4.  Awesome, love this place as my base anytime I'm in LA.  Free WiFi and breakfast. Thanks Marriott!!  Your management at this place are doing a great job More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r150770685-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>150770685</t>
+  </si>
+  <si>
+    <t>01/27/2013</t>
+  </si>
+  <si>
+    <t>Great place to stay</t>
+  </si>
+  <si>
+    <t>We had reservations for 4 rooms, 12 of us spending the night to attend the Rose Bowl Parade the next day.  I had made the reservations almost a year in advance.  All of us were very pleased with the rooms, they were clean and beds were comfortable.  It was also a very quiet place even though the freeway was so nearby.  The staff was very friendly and helpful from the beginning phone calls to our actual stay.  They printed us maps &amp; gave directions which was a big help.  Having several nice restaurants so close was great, we walked to one for dinner that night.  We were in a rush to leave the next morning so didn't take time for the breakfast.  I would definitely recommend this hotel.  Sue L.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>We had reservations for 4 rooms, 12 of us spending the night to attend the Rose Bowl Parade the next day.  I had made the reservations almost a year in advance.  All of us were very pleased with the rooms, they were clean and beds were comfortable.  It was also a very quiet place even though the freeway was so nearby.  The staff was very friendly and helpful from the beginning phone calls to our actual stay.  They printed us maps &amp; gave directions which was a big help.  Having several nice restaurants so close was great, we walked to one for dinner that night.  We were in a rush to leave the next morning so didn't take time for the breakfast.  I would definitely recommend this hotel.  Sue L.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r148633017-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>148633017</t>
+  </si>
+  <si>
+    <t>01/02/2013</t>
+  </si>
+  <si>
+    <t>Great place to stay!</t>
+  </si>
+  <si>
+    <t>We stayed for 3 nights for the Rose Bowl Parade. The hotel is very clean, breakfast is great and the front desk super helpful. They helped us find places to eat for a large party of 9 and called around to assist us finding a table with no wait. Concierge service!  Also, great directions and advice. Our room was lovely as well! I heard no freeway noise and had no complaints. Great price and great hotel!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r147582082-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>147582082</t>
+  </si>
+  <si>
+    <t>12/16/2012</t>
+  </si>
+  <si>
+    <t>Great Place</t>
+  </si>
+  <si>
+    <t>Friendly staff, clean rooms, comfortable beds, free computers and printers in the lobby and Jimmy Dean breakfast sandwiches included in the free breakfast with a free newspaper. What more do you need?How about being close to the 10 freeway and not hearing any freeway noise in the room?Used points so I have no idea how much this hotel costs though.Only negative, forget the small pool.</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r139603392-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>139603392</t>
+  </si>
+  <si>
+    <t>09/06/2012</t>
+  </si>
+  <si>
+    <t>Perfect Stay.  Great staff...couldn't have asked for more...</t>
+  </si>
+  <si>
+    <t>I booked 2 rooms at this hotel to throw a slumber party for my niece's 13th birthday.  Josh was very helpful and accommodating.  He booked a suite for my niece and a regular room for me.  The suite was nice and clean.  The girls went swimming at the pool and did a pizza party by the pool.  Josh held the ice cream we ordered for the party.  Everything we asked for, he made it happen.  The party was a great success.  I would absolutely recommend this hotel.</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r139209508-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>139209508</t>
+  </si>
+  <si>
+    <t>09/02/2012</t>
+  </si>
+  <si>
+    <t>Family Friendly</t>
+  </si>
+  <si>
+    <t>We only stayed here for one night. Next time we visit family in So Cal again, we will definitely come back to this hotel. The price ($129/night) was great for our family of 5.  Overall, the hotel was clean (room and lobby area). Staff was friendly and courteous. We liked their complementary wifi and breakfast. The kids liked the make-your-own-waffle station. You have to be patient though, cause everybody wants to eat a waffle and there is only one waffle maker. We had to wait in line (not a big deal since we weren't in a rush).  This hotel is also close by a lot of restaurants and close to IKEA and a mall. Also really close to freeway, but you can't hear the freeway noise.  I would definitely recommend this hotel. MoreShow less</t>
+  </si>
+  <si>
+    <t>We only stayed here for one night. Next time we visit family in So Cal again, we will definitely come back to this hotel. The price ($129/night) was great for our family of 5.  Overall, the hotel was clean (room and lobby area). Staff was friendly and courteous. We liked their complementary wifi and breakfast. The kids liked the make-your-own-waffle station. You have to be patient though, cause everybody wants to eat a waffle and there is only one waffle maker. We had to wait in line (not a big deal since we weren't in a rush).  This hotel is also close by a lot of restaurants and close to IKEA and a mall. Also really close to freeway, but you can't hear the freeway noise.  I would definitely recommend this hotel. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r138536071-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>138536071</t>
+  </si>
+  <si>
+    <t>08/27/2012</t>
+  </si>
+  <si>
+    <t>2nd visit as good as the first</t>
+  </si>
+  <si>
+    <t>This is a nice, affordable place for the LA area. Friendly attentive staff, good Internet, spotless rooms, close but not to close to the I-10.  We feel safe and secure here. I will certainly book again on my next trip.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r137117416-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>137117416</t>
+  </si>
+  <si>
+    <t>08/13/2012</t>
+  </si>
+  <si>
+    <t>Great hotel</t>
+  </si>
+  <si>
+    <t>Great hotel, vrey close to ikea. About 45 min to santa monica beach. Overall, very clean. The only downside was that i requested a room on a high foot away from the elevator and got one on the second floor right next to the elevator. However, that did not cause a problem since no noise could be heard. Check-in was easy and smooth. We checked in t about one pm but they were able to accomodate us right away. Very nice, new and clean hotel. Definetelly recommend it, even if its a bit far from everything in LA</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r136380642-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>136380642</t>
+  </si>
+  <si>
+    <t>08/06/2012</t>
+  </si>
+  <si>
+    <t>Clean affordable hotel</t>
+  </si>
+  <si>
+    <t>I was visiting my brother in the area and stayed here for 4 nights. It was a very clean, well kept hotel, seemingly remodeled recently. There was a continental breakfast with cereal, fruit, bagels, yogurt, coffee and tea. It was affordable for the Los Angeles area. There were several restaurants nearby and was not far from the highway.</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r135015299-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>135015299</t>
+  </si>
+  <si>
+    <t>07/21/2012</t>
+  </si>
+  <si>
+    <t>Nice hotel to stop by if you are in the neighbourhood</t>
+  </si>
+  <si>
+    <t>Stayed here one night while en-route to San Diego. Pretty nice hotel, built recently (2 years ago), clean, nice staff, affordable prices.The hotel design and set-up is a Fairfield Inn classic, the new bistro type setting, modern and uncluttered. Rooms are well appointed but a bit smaller than usual. Working desk, office chair, armchair and free Wi-Fi.Free parking and breakfast are included. Breakfast is generous and plenty of options. Coffee, tea and hot chocolate are available in the lobby 24/7.There is a small pool and a tub on the premises, did not use them. The exercise room is nice and with the regular exercise machines and weights.The personnel is very friendly and helpful, they are doing their best to make your stay exceptional. There are a few restaurants close by and also a small mall at 500 yards away if you want to go for a walk.I stayed here on Marriott points and the room was 7,500 which is a great deal for what you get in return. I'll return for shure if in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>Stayed here one night while en-route to San Diego. Pretty nice hotel, built recently (2 years ago), clean, nice staff, affordable prices.The hotel design and set-up is a Fairfield Inn classic, the new bistro type setting, modern and uncluttered. Rooms are well appointed but a bit smaller than usual. Working desk, office chair, armchair and free Wi-Fi.Free parking and breakfast are included. Breakfast is generous and plenty of options. Coffee, tea and hot chocolate are available in the lobby 24/7.There is a small pool and a tub on the premises, did not use them. The exercise room is nice and with the regular exercise machines and weights.The personnel is very friendly and helpful, they are doing their best to make your stay exceptional. There are a few restaurants close by and also a small mall at 500 yards away if you want to go for a walk.I stayed here on Marriott points and the room was 7,500 which is a great deal for what you get in return. I'll return for shure if in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r133561067-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>133561067</t>
+  </si>
+  <si>
+    <t>07/05/2012</t>
+  </si>
+  <si>
+    <t>Nice Hotel, Friendly Staff</t>
+  </si>
+  <si>
+    <t>Front dest staff was very friendly and welcoming especially Erik. (gorgeous eyes) He made us feel like we were visiting friends or relatives. They greeted us with there names and told us about the hotel and how much we would enjoy our stay. The hotel and the rooms were beautiful. All of the staff was friendly and smiled and spoke when we saw them in the hall. Breakfast was very nice. This is a great hotel and we rate it at the top of our list.</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r133060954-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>133060954</t>
+  </si>
+  <si>
+    <t>06/29/2012</t>
+  </si>
+  <si>
+    <t>Nice room and good location. Great Value</t>
+  </si>
+  <si>
+    <t>This is a good alternative location if you have business in LA. Dive into Downtown LA took about an hour at 9 AM. The room was good size and was the bathroom with lots of counter place. Free wifi and a nice breakfast. The location is good for business and family. Many restaurants (sit down and fast food) nearby and two movie theaters within easy driving distance. Great staff very helpful. I was even able to check in early at 11 AM when I arrived.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r132683515-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>132683515</t>
+  </si>
+  <si>
+    <t>06/24/2012</t>
+  </si>
+  <si>
+    <t>Immaculate and Comfortable property</t>
+  </si>
+  <si>
+    <t>Came out to greater LA for a one week pleasure trip and was looking for a quality Fairfield property in the eastern suburbs.  Made my decision based upon all of the prior reviews.  The room was very clean and the bed very comfortable.  Asked for a quiet room and was given #527 - in the far corner of the building - great.Yes, the building is new,  but where they stand out is their focus on your comfort.  The staff was very welcoming and hospitable.  I always noticed at least one staff member at work day and night mopping, sweeping, dusting, etc.  It was clear to me that everyone is invested in doing their jobs well...We were impressed enough that we chose to return for our last night a week later.The entrance off  I-10 is a little tricky the first time...But the bonus (If you are from "back East" as we are) is that there is an In 'n Out Burger just on the opposite side of I-10.MoreShow less</t>
+  </si>
+  <si>
+    <t>Came out to greater LA for a one week pleasure trip and was looking for a quality Fairfield property in the eastern suburbs.  Made my decision based upon all of the prior reviews.  The room was very clean and the bed very comfortable.  Asked for a quiet room and was given #527 - in the far corner of the building - great.Yes, the building is new,  but where they stand out is their focus on your comfort.  The staff was very welcoming and hospitable.  I always noticed at least one staff member at work day and night mopping, sweeping, dusting, etc.  It was clear to me that everyone is invested in doing their jobs well...We were impressed enough that we chose to return for our last night a week later.The entrance off  I-10 is a little tricky the first time...But the bonus (If you are from "back East" as we are) is that there is an In 'n Out Burger just on the opposite side of I-10.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r128137978-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>128137978</t>
+  </si>
+  <si>
+    <t>04/18/2012</t>
+  </si>
+  <si>
+    <t>Thanks for the Hospitality</t>
+  </si>
+  <si>
+    <t>Thank you Erik for making our stay wonderful during our March visit.  Being away from our own home never is easy but your polite helpfulness was refreshing and greatly appreciated.  We stayed her 3 different times in a 10 day period and had a different room each stay.  Each room was clean and fresh.  The only thing I would fix is the bathroom door configuration.  It needs to open into the bathroom.  The pool and jacuzzi were clean and working well.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r126875169-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>126875169</t>
+  </si>
+  <si>
+    <t>03/28/2012</t>
+  </si>
+  <si>
+    <t>Great Place to Stay!</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for 5 nights during our family vacation because it was the perfect location from everything we wanted to do.  Visit family, shop, eat good food, entertain, visit Universal Studios (only about 25 minutes away)...etc. The hotel is  a newer one, very nice, clean and up to date with style.  One thing I am always concerned about it the comfort of the bed and I would have to say, our bed was great!  They were able to accommodate us with an excellent rollaway bed too, not those uncomfortable fold up beds with a thin cheap mattress either, it was a real twin size comfortable mattress perfect for an my son or even an adult.  They had a very small outdoor pool, but it was good enough, can't complain.  We stayed on the fifth floor right next to the elevator but it was very quiet.  I liked the fact that the rooms have a private bathroom. They have a nice lobby to relax at with flat screen t.v.'s and a business center with two computers and printer for your convenience.  Breakfast was alright, nothing to brag about, could use more of a variety, usually hotels at the level have a more of a variety, such as hot foods (no bacon, eggs, sausage waffles)...that was a bit disappointing.  Another disappointment, (but not a real big deal) is that our king room didn't come standard with a mini fridge...We stayed at this hotel for 5 nights during our family vacation because it was the perfect location from everything we wanted to do.  Visit family, shop, eat good food, entertain, visit Universal Studios (only about 25 minutes away)...etc. The hotel is  a newer one, very nice, clean and up to date with style.  One thing I am always concerned about it the comfort of the bed and I would have to say, our bed was great!  They were able to accommodate us with an excellent rollaway bed too, not those uncomfortable fold up beds with a thin cheap mattress either, it was a real twin size comfortable mattress perfect for an my son or even an adult.  They had a very small outdoor pool, but it was good enough, can't complain.  We stayed on the fifth floor right next to the elevator but it was very quiet.  I liked the fact that the rooms have a private bathroom. They have a nice lobby to relax at with flat screen t.v.'s and a business center with two computers and printer for your convenience.  Breakfast was alright, nothing to brag about, could use more of a variety, usually hotels at the level have a more of a variety, such as hot foods (no bacon, eggs, sausage waffles)...that was a bit disappointing.  Another disappointment, (but not a real big deal) is that our king room didn't come standard with a mini fridge or microwave.  So we just bought an ice chest and used the lobby microwave.  I would definitely have to say that the staff was very courteous and accommodating.  The cleaning team did am excellent job with our room everyday. Thanks to Francine, Carlos and Marcos for their hospitality and eagerness to please us. They made our stay even more enjoyable.  We will definitely be staying there again on our next visit to California.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for 5 nights during our family vacation because it was the perfect location from everything we wanted to do.  Visit family, shop, eat good food, entertain, visit Universal Studios (only about 25 minutes away)...etc. The hotel is  a newer one, very nice, clean and up to date with style.  One thing I am always concerned about it the comfort of the bed and I would have to say, our bed was great!  They were able to accommodate us with an excellent rollaway bed too, not those uncomfortable fold up beds with a thin cheap mattress either, it was a real twin size comfortable mattress perfect for an my son or even an adult.  They had a very small outdoor pool, but it was good enough, can't complain.  We stayed on the fifth floor right next to the elevator but it was very quiet.  I liked the fact that the rooms have a private bathroom. They have a nice lobby to relax at with flat screen t.v.'s and a business center with two computers and printer for your convenience.  Breakfast was alright, nothing to brag about, could use more of a variety, usually hotels at the level have a more of a variety, such as hot foods (no bacon, eggs, sausage waffles)...that was a bit disappointing.  Another disappointment, (but not a real big deal) is that our king room didn't come standard with a mini fridge...We stayed at this hotel for 5 nights during our family vacation because it was the perfect location from everything we wanted to do.  Visit family, shop, eat good food, entertain, visit Universal Studios (only about 25 minutes away)...etc. The hotel is  a newer one, very nice, clean and up to date with style.  One thing I am always concerned about it the comfort of the bed and I would have to say, our bed was great!  They were able to accommodate us with an excellent rollaway bed too, not those uncomfortable fold up beds with a thin cheap mattress either, it was a real twin size comfortable mattress perfect for an my son or even an adult.  They had a very small outdoor pool, but it was good enough, can't complain.  We stayed on the fifth floor right next to the elevator but it was very quiet.  I liked the fact that the rooms have a private bathroom. They have a nice lobby to relax at with flat screen t.v.'s and a business center with two computers and printer for your convenience.  Breakfast was alright, nothing to brag about, could use more of a variety, usually hotels at the level have a more of a variety, such as hot foods (no bacon, eggs, sausage waffles)...that was a bit disappointing.  Another disappointment, (but not a real big deal) is that our king room didn't come standard with a mini fridge or microwave.  So we just bought an ice chest and used the lobby microwave.  I would definitely have to say that the staff was very courteous and accommodating.  The cleaning team did am excellent job with our room everyday. Thanks to Francine, Carlos and Marcos for their hospitality and eagerness to please us. They made our stay even more enjoyable.  We will definitely be staying there again on our next visit to California.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r126313632-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>126313632</t>
+  </si>
+  <si>
+    <t>03/19/2012</t>
+  </si>
+  <si>
+    <t>Excellent Hotel</t>
+  </si>
+  <si>
+    <t>Currently a guest at this wonderful, new and clean hotel. So happy that I could not wait to review. Room 426 at back and quiet. Staff are warm, welcoming and go above and beyond, specially Eric at the front desk. Very nice breakfast included with stay with hot sandwiches and numerous other items, fruit and yogurt. Lobby has vending machine with frozen food items and snacks. Small issue reported to housekeeping that came right away and did a fantastic job. Clean laundry room, small but clean gym and pool with hot tub. Only regret that there is no fridge in room, which would greatly add to guest comfort for storing items. Business center in lobby with 2 desktops and printer. 24 hour coffee, tea and hot chocolate in lobby. Convenient location within walking distance to Westfield Mall and I10 Freeway. Would highly recommend. The staff are what make this hotel, along with the amenities.MoreShow less</t>
+  </si>
+  <si>
+    <t>Currently a guest at this wonderful, new and clean hotel. So happy that I could not wait to review. Room 426 at back and quiet. Staff are warm, welcoming and go above and beyond, specially Eric at the front desk. Very nice breakfast included with stay with hot sandwiches and numerous other items, fruit and yogurt. Lobby has vending machine with frozen food items and snacks. Small issue reported to housekeeping that came right away and did a fantastic job. Clean laundry room, small but clean gym and pool with hot tub. Only regret that there is no fridge in room, which would greatly add to guest comfort for storing items. Business center in lobby with 2 desktops and printer. 24 hour coffee, tea and hot chocolate in lobby. Convenient location within walking distance to Westfield Mall and I10 Freeway. Would highly recommend. The staff are what make this hotel, along with the amenities.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r122405414-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>122405414</t>
+  </si>
+  <si>
+    <t>01/02/2012</t>
+  </si>
+  <si>
+    <t>Nice overnight stay</t>
+  </si>
+  <si>
+    <t>My family booked this hotel with rewards points. We were only staying one night. We booked two rooms together but for some reason the hotel could not accomadate this. They had one room on the 5th floor and one on the first floor. Aside from this the stay was fine. We enjoyed the decor and color scheme, 24 hour coffee and tea and the rooms were comfortable. Our favoriate part was the breakfast buffet. Fruit cups, bagels, breakfast sandwiches, waffels and cereal. the service was good at the front desk. REsturants next door are nice.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2011</t>
+  </si>
+  <si>
+    <t>FFIgmwestcovina, General Manager at Fairfield Inn &amp; Suites Los Angeles West Covina, responded to this reviewResponded January 16, 2012</t>
+  </si>
+  <si>
+    <t>Responded January 16, 2012</t>
+  </si>
+  <si>
+    <t>My family booked this hotel with rewards points. We were only staying one night. We booked two rooms together but for some reason the hotel could not accomadate this. They had one room on the 5th floor and one on the first floor. Aside from this the stay was fine. We enjoyed the decor and color scheme, 24 hour coffee and tea and the rooms were comfortable. Our favoriate part was the breakfast buffet. Fruit cups, bagels, breakfast sandwiches, waffels and cereal. the service was good at the front desk. REsturants next door are nice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r122148879-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>122148879</t>
+  </si>
+  <si>
+    <t>12/27/2011</t>
+  </si>
+  <si>
+    <t>Thanksgiving that won't be forgotten</t>
+  </si>
+  <si>
+    <t>I am a Marriott rewards member and stay at Fairfield properties across the country six to fifteen nights a year. This property is average in it's value and staff. What made our stay terrible was the fact that they charged my credit card for damage during our stay. My wife and I are over 65 and not party animals. We did no damage to the room or it's contents and have disputed the charges. My suggestion to anyone staying at this property is that they have the room checked and signed off as undamaged before they leave at checkout. We didn't and have come to regret it.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
+    <t>I am a Marriott rewards member and stay at Fairfield properties across the country six to fifteen nights a year. This property is average in it's value and staff. What made our stay terrible was the fact that they charged my credit card for damage during our stay. My wife and I are over 65 and not party animals. We did no damage to the room or it's contents and have disputed the charges. My suggestion to anyone staying at this property is that they have the room checked and signed off as undamaged before they leave at checkout. We didn't and have come to regret it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r122142874-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>122142874</t>
+  </si>
+  <si>
+    <t>New hotel, very very nice!</t>
+  </si>
+  <si>
+    <t>This is only the second Fairfield inn I have stayed in and both have proved excellent choices. This property really was awesome with the nicest bathroom I think I have ever seen! Very friendly and helpful staff. Good choice of restaurants nearby. If I'm in the area again, I know where I will be staying.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2011</t>
+  </si>
+  <si>
+    <t>This is only the second Fairfield inn I have stayed in and both have proved excellent choices. This property really was awesome with the nicest bathroom I think I have ever seen! Very friendly and helpful staff. Good choice of restaurants nearby. If I'm in the area again, I know where I will be staying.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r120394265-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>120394265</t>
+  </si>
+  <si>
+    <t>11/09/2011</t>
+  </si>
+  <si>
+    <t>Another great Fairfield</t>
+  </si>
+  <si>
+    <t>I continue to be impressed with the renovations Marriott has undertaken with their Fairfield Inns lately. While this is almost a cookie-cutter of the Fairfield Spokane in which I stayed recently, it's a nice cookie they've made. The only complaints I have with this property is the lack of lotion among the toiletries (what's the humidity in LA? Maybe 20%, max?) and their small size;  and it was $20 more per night than the Fairfield a few miles away in Ontario. Not really sure how that's justified.There are several nice chain restaurants situated right next door, so the usual lack of a restaurant is not an inconvenience at all. It's very convenient to Highway 10 yet not noisy, and I am a light sleeper.MoreShow less</t>
+  </si>
+  <si>
+    <t>I continue to be impressed with the renovations Marriott has undertaken with their Fairfield Inns lately. While this is almost a cookie-cutter of the Fairfield Spokane in which I stayed recently, it's a nice cookie they've made. The only complaints I have with this property is the lack of lotion among the toiletries (what's the humidity in LA? Maybe 20%, max?) and their small size;  and it was $20 more per night than the Fairfield a few miles away in Ontario. Not really sure how that's justified.There are several nice chain restaurants situated right next door, so the usual lack of a restaurant is not an inconvenience at all. It's very convenient to Highway 10 yet not noisy, and I am a light sleeper.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r120314832-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>120314832</t>
+  </si>
+  <si>
+    <t>11/07/2011</t>
+  </si>
+  <si>
+    <t>New hotel - everything is nice and fresh</t>
+  </si>
+  <si>
+    <t>This hotel is brand new.  It is within walking distance to many restaurants.  The staff was friendly.  Parking was a little tight.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r120050616-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>120050616</t>
+  </si>
+  <si>
+    <t>11/01/2011</t>
+  </si>
+  <si>
+    <t>“Nice hotel, will be back”</t>
+  </si>
+  <si>
+    <t>Stayed here for a business trip to City of Industry, the room was very clean and comfortable and the linens were clean and bed felt very comfortable on the back. The pool area and grounds were well kept and clean. Many restaurants around this hotel. The hotel doesn't have a bar yet.  The staff was friendly and I will stay here again on my next trip.</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r117251878-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>117251878</t>
+  </si>
+  <si>
+    <t>08/25/2011</t>
+  </si>
+  <si>
+    <t>A little oasis in LA</t>
+  </si>
+  <si>
+    <t>My kids want a pool -- CheckI want a decent hotel, with easy access to LA  -- CheckCourteous, knowledgable staff. Clean comfortable facilites. What more could you want from a "budget" brandMoreShow less</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t>FFIgmwestcovina, General Manager at Fairfield Inn &amp; Suites Los Angeles West Covina, responded to this reviewResponded September 21, 2011</t>
+  </si>
+  <si>
+    <t>Responded September 21, 2011</t>
+  </si>
+  <si>
+    <t>My kids want a pool -- CheckI want a decent hotel, with easy access to LA  -- CheckCourteous, knowledgable staff. Clean comfortable facilites. What more could you want from a "budget" brandMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r117205857-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>117205857</t>
+  </si>
+  <si>
+    <t>08/24/2011</t>
+  </si>
+  <si>
+    <t>Double beds instead of Queens? What a waste of space!</t>
+  </si>
+  <si>
+    <t>Beautiful, new property.  Gorgeous bathroom. Well-located off the freeway. Close to many restaurants. However, I cannot understand WHY they chose to use double/full size beds rather than queens. The rooms are spacious but there is 10 feet of wasted space at the end - no chair or table or any piece of furniture. I would not stay here again simply because a family of four cannot comfortably sleep in two full size beds. What a shame......MoreShow less</t>
+  </si>
+  <si>
+    <t>Beautiful, new property.  Gorgeous bathroom. Well-located off the freeway. Close to many restaurants. However, I cannot understand WHY they chose to use double/full size beds rather than queens. The rooms are spacious but there is 10 feet of wasted space at the end - no chair or table or any piece of furniture. I would not stay here again simply because a family of four cannot comfortably sleep in two full size beds. What a shame......More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r116265088-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>116265088</t>
+  </si>
+  <si>
+    <t>08/04/2011</t>
+  </si>
+  <si>
+    <t>Great new hotel</t>
+  </si>
+  <si>
+    <t>This hotel worked perfectly for our family trip! It is hard to find a nice room to accommodate five of us! My three kids, husband and I slept comfortably in the two beds plus pull out sofabed.  The hotel was conveniently located so that we were able to catch a Dodger game, visit Santa Monica and shop at the Grove. It of course was very clean. I would definitely recommend staying at this hotel! The only downfall was that I left a tip for housekeeping to leave us a few extra towels and even though the tip was taken, towels were not left. Although she did do a great job tidying up! We will visit this hotel again!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>This hotel worked perfectly for our family trip! It is hard to find a nice room to accommodate five of us! My three kids, husband and I slept comfortably in the two beds plus pull out sofabed.  The hotel was conveniently located so that we were able to catch a Dodger game, visit Santa Monica and shop at the Grove. It of course was very clean. I would definitely recommend staying at this hotel! The only downfall was that I left a tip for housekeeping to leave us a few extra towels and even though the tip was taken, towels were not left. Although she did do a great job tidying up! We will visit this hotel again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r115251104-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>115251104</t>
+  </si>
+  <si>
+    <t>07/11/2011</t>
+  </si>
+  <si>
+    <t>Felt like a VIP, I don’t think that I have stayed in a more accommodating or friendly hotel. The staff was outstanding!!</t>
+  </si>
+  <si>
+    <t>I was recently a guest at the Fairfield Inn &amp; Suites in West Covina from Thursday, June 30th until Thursday, July 7th. I am writing to complement the hotel on their excellent hotel facilities and staff. I was most impressed by my stay in West Covina, and even more impressed with the fact that your hotel is only a category 1, especially since the level of service that I received at your establishment has far surpassed service. I have received at some category 5 hotels. I ask that you also extend my gratitude to Erik (forgive me, but I do not have his last name) from guest services. His service was impeccable, and his suggestions most helpful while my colleagues and I were in West Covina. Often times when I travel to West Covina properties I am hard pressed to find reasonably priced, comfortable and clean attentive hotels. Erik was most helpful in making sure our stay was seamless. I must say the same for Francine as well, she helped us obtain binders and equipment we needed for our meeting. Some of our items were delayed with airlines. Thank you for getting us what we needed. Staff was understanding what we might be interested in, and executed impeccably. We had an excellent time in West Covina, and I do look forward to returning and spending time at your establishment once again with my company. Its about time West Covina had...I was recently a guest at the Fairfield Inn &amp; Suites in West Covina from Thursday, June 30th until Thursday, July 7th. I am writing to complement the hotel on their excellent hotel facilities and staff. I was most impressed by my stay in West Covina, and even more impressed with the fact that your hotel is only a category 1, especially since the level of service that I received at your establishment has far surpassed service. I have received at some category 5 hotels. I ask that you also extend my gratitude to Erik (forgive me, but I do not have his last name) from guest services. His service was impeccable, and his suggestions most helpful while my colleagues and I were in West Covina. Often times when I travel to West Covina properties I am hard pressed to find reasonably priced, comfortable and clean attentive hotels. Erik was most helpful in making sure our stay was seamless. I must say the same for Francine as well, she helped us obtain binders and equipment we needed for our meeting. Some of our items were delayed with airlines. Thank you for getting us what we needed. Staff was understanding what we might be interested in, and executed impeccably. We had an excellent time in West Covina, and I do look forward to returning and spending time at your establishment once again with my company. Its about time West Covina had a new hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
+    <t>I was recently a guest at the Fairfield Inn &amp; Suites in West Covina from Thursday, June 30th until Thursday, July 7th. I am writing to complement the hotel on their excellent hotel facilities and staff. I was most impressed by my stay in West Covina, and even more impressed with the fact that your hotel is only a category 1, especially since the level of service that I received at your establishment has far surpassed service. I have received at some category 5 hotels. I ask that you also extend my gratitude to Erik (forgive me, but I do not have his last name) from guest services. His service was impeccable, and his suggestions most helpful while my colleagues and I were in West Covina. Often times when I travel to West Covina properties I am hard pressed to find reasonably priced, comfortable and clean attentive hotels. Erik was most helpful in making sure our stay was seamless. I must say the same for Francine as well, she helped us obtain binders and equipment we needed for our meeting. Some of our items were delayed with airlines. Thank you for getting us what we needed. Staff was understanding what we might be interested in, and executed impeccably. We had an excellent time in West Covina, and I do look forward to returning and spending time at your establishment once again with my company. Its about time West Covina had...I was recently a guest at the Fairfield Inn &amp; Suites in West Covina from Thursday, June 30th until Thursday, July 7th. I am writing to complement the hotel on their excellent hotel facilities and staff. I was most impressed by my stay in West Covina, and even more impressed with the fact that your hotel is only a category 1, especially since the level of service that I received at your establishment has far surpassed service. I have received at some category 5 hotels. I ask that you also extend my gratitude to Erik (forgive me, but I do not have his last name) from guest services. His service was impeccable, and his suggestions most helpful while my colleagues and I were in West Covina. Often times when I travel to West Covina properties I am hard pressed to find reasonably priced, comfortable and clean attentive hotels. Erik was most helpful in making sure our stay was seamless. I must say the same for Francine as well, she helped us obtain binders and equipment we needed for our meeting. Some of our items were delayed with airlines. Thank you for getting us what we needed. Staff was understanding what we might be interested in, and executed impeccably. We had an excellent time in West Covina, and I do look forward to returning and spending time at your establishment once again with my company. Its about time West Covina had a new hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r107891454-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
+  </si>
+  <si>
+    <t>107891454</t>
+  </si>
+  <si>
+    <t>05/11/2011</t>
+  </si>
+  <si>
+    <t>great value for money, in a prime area</t>
+  </si>
+  <si>
+    <t>Relatively new place and hence is quite clean and prim. stayed for a night. basic fairfield budget brand with decent service and pleasant rooms. Thh continental breakfast (no hot food but things like fruits, cereal, bagel, pre packed breakfast sandwich etc) is good enough to start the day with. Is in a prime location in west covina/rancho cucamonga. overall great value of money.</t>
+  </si>
+  <si>
+    <t>May 2011</t>
   </si>
 </sst>
 </file>
@@ -648,6 +2992,7134 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>60013</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="n">
+        <v>5</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>60013</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>60013</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>67</v>
+      </c>
+      <c r="O4" t="s">
+        <v>60</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>60013</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" t="s">
+        <v>72</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>73</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>60013</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K6" t="s">
+        <v>78</v>
+      </c>
+      <c r="L6" t="s">
+        <v>79</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>73</v>
+      </c>
+      <c r="O6" t="s">
+        <v>60</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>80</v>
+      </c>
+      <c r="X6" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>60013</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L7" t="s">
+        <v>87</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>88</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>60013</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>90</v>
+      </c>
+      <c r="J8" t="s">
+        <v>91</v>
+      </c>
+      <c r="K8" t="s">
+        <v>92</v>
+      </c>
+      <c r="L8" t="s">
+        <v>93</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>94</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>4</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>60013</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>96</v>
+      </c>
+      <c r="J9" t="s">
+        <v>97</v>
+      </c>
+      <c r="K9" t="s">
+        <v>98</v>
+      </c>
+      <c r="L9" t="s">
+        <v>99</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s"/>
+      <c r="O9" t="s"/>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>60013</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>101</v>
+      </c>
+      <c r="J10" t="s">
+        <v>102</v>
+      </c>
+      <c r="K10" t="s">
+        <v>103</v>
+      </c>
+      <c r="L10" t="s">
+        <v>104</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>52</v>
+      </c>
+      <c r="O10" t="s">
+        <v>105</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>60013</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>107</v>
+      </c>
+      <c r="J11" t="s">
+        <v>108</v>
+      </c>
+      <c r="K11" t="s">
+        <v>109</v>
+      </c>
+      <c r="L11" t="s">
+        <v>110</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>111</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="n">
+        <v>4</v>
+      </c>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>4</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>60013</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>112</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>113</v>
+      </c>
+      <c r="J12" t="s">
+        <v>114</v>
+      </c>
+      <c r="K12" t="s">
+        <v>115</v>
+      </c>
+      <c r="L12" t="s">
+        <v>116</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>111</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>60013</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>118</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>119</v>
+      </c>
+      <c r="J13" t="s">
+        <v>120</v>
+      </c>
+      <c r="K13" t="s">
+        <v>121</v>
+      </c>
+      <c r="L13" t="s">
+        <v>122</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>111</v>
+      </c>
+      <c r="O13" t="s">
+        <v>123</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>60013</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>124</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>125</v>
+      </c>
+      <c r="J14" t="s">
+        <v>126</v>
+      </c>
+      <c r="K14" t="s">
+        <v>127</v>
+      </c>
+      <c r="L14" t="s">
+        <v>128</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>129</v>
+      </c>
+      <c r="O14" t="s">
+        <v>60</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>60013</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>130</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>131</v>
+      </c>
+      <c r="J15" t="s">
+        <v>126</v>
+      </c>
+      <c r="K15" t="s">
+        <v>132</v>
+      </c>
+      <c r="L15" t="s">
+        <v>133</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>129</v>
+      </c>
+      <c r="O15" t="s">
+        <v>105</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>4</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>60013</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>135</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>136</v>
+      </c>
+      <c r="J16" t="s">
+        <v>137</v>
+      </c>
+      <c r="K16" t="s">
+        <v>138</v>
+      </c>
+      <c r="L16" t="s">
+        <v>139</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>140</v>
+      </c>
+      <c r="O16" t="s">
+        <v>60</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>141</v>
+      </c>
+      <c r="X16" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>60013</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>144</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>145</v>
+      </c>
+      <c r="J17" t="s">
+        <v>146</v>
+      </c>
+      <c r="K17" t="s">
+        <v>147</v>
+      </c>
+      <c r="L17" t="s">
+        <v>148</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>149</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>60013</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>151</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>152</v>
+      </c>
+      <c r="J18" t="s">
+        <v>153</v>
+      </c>
+      <c r="K18" t="s">
+        <v>154</v>
+      </c>
+      <c r="L18" t="s">
+        <v>155</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>149</v>
+      </c>
+      <c r="O18" t="s">
+        <v>123</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>60013</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>157</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>158</v>
+      </c>
+      <c r="J19" t="s">
+        <v>159</v>
+      </c>
+      <c r="K19" t="s">
+        <v>160</v>
+      </c>
+      <c r="L19" t="s">
+        <v>161</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3</v>
+      </c>
+      <c r="N19" t="s">
+        <v>140</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>3</v>
+      </c>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>3</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>162</v>
+      </c>
+      <c r="X19" t="s">
+        <v>163</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>60013</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>165</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>166</v>
+      </c>
+      <c r="J20" t="s">
+        <v>167</v>
+      </c>
+      <c r="K20" t="s">
+        <v>168</v>
+      </c>
+      <c r="L20" t="s">
+        <v>169</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
+        <v>170</v>
+      </c>
+      <c r="O20" t="s">
+        <v>60</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>171</v>
+      </c>
+      <c r="X20" t="s">
+        <v>172</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>60013</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>174</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>175</v>
+      </c>
+      <c r="J21" t="s">
+        <v>176</v>
+      </c>
+      <c r="K21" t="s">
+        <v>177</v>
+      </c>
+      <c r="L21" t="s">
+        <v>178</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>170</v>
+      </c>
+      <c r="O21" t="s">
+        <v>53</v>
+      </c>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>60013</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>179</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>180</v>
+      </c>
+      <c r="J22" t="s">
+        <v>181</v>
+      </c>
+      <c r="K22" t="s">
+        <v>182</v>
+      </c>
+      <c r="L22" t="s">
+        <v>183</v>
+      </c>
+      <c r="M22" t="n">
+        <v>3</v>
+      </c>
+      <c r="N22" t="s">
+        <v>184</v>
+      </c>
+      <c r="O22" t="s">
+        <v>60</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>185</v>
+      </c>
+      <c r="X22" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>60013</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>188</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>189</v>
+      </c>
+      <c r="J23" t="s">
+        <v>190</v>
+      </c>
+      <c r="K23" t="s">
+        <v>191</v>
+      </c>
+      <c r="L23" t="s">
+        <v>192</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3</v>
+      </c>
+      <c r="N23" t="s">
+        <v>193</v>
+      </c>
+      <c r="O23" t="s">
+        <v>60</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>194</v>
+      </c>
+      <c r="X23" t="s">
+        <v>195</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>60013</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>197</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>198</v>
+      </c>
+      <c r="J24" t="s">
+        <v>199</v>
+      </c>
+      <c r="K24" t="s">
+        <v>200</v>
+      </c>
+      <c r="L24" t="s">
+        <v>201</v>
+      </c>
+      <c r="M24" t="n">
+        <v>3</v>
+      </c>
+      <c r="N24" t="s">
+        <v>193</v>
+      </c>
+      <c r="O24" t="s">
+        <v>60</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>60013</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>202</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>203</v>
+      </c>
+      <c r="J25" t="s">
+        <v>204</v>
+      </c>
+      <c r="K25" t="s">
+        <v>205</v>
+      </c>
+      <c r="L25" t="s">
+        <v>206</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>207</v>
+      </c>
+      <c r="O25" t="s">
+        <v>208</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>60013</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>209</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>210</v>
+      </c>
+      <c r="J26" t="s">
+        <v>211</v>
+      </c>
+      <c r="K26" t="s">
+        <v>212</v>
+      </c>
+      <c r="L26" t="s">
+        <v>213</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>214</v>
+      </c>
+      <c r="O26" t="s">
+        <v>105</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="s"/>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>60013</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>215</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>216</v>
+      </c>
+      <c r="J27" t="s">
+        <v>217</v>
+      </c>
+      <c r="K27" t="s">
+        <v>218</v>
+      </c>
+      <c r="L27" t="s">
+        <v>219</v>
+      </c>
+      <c r="M27" t="n">
+        <v>3</v>
+      </c>
+      <c r="N27" t="s">
+        <v>220</v>
+      </c>
+      <c r="O27" t="s">
+        <v>60</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>221</v>
+      </c>
+      <c r="X27" t="s">
+        <v>222</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>60013</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>224</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>225</v>
+      </c>
+      <c r="J28" t="s">
+        <v>226</v>
+      </c>
+      <c r="K28" t="s">
+        <v>227</v>
+      </c>
+      <c r="L28" t="s">
+        <v>228</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>220</v>
+      </c>
+      <c r="O28" t="s">
+        <v>105</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="n">
+        <v>4</v>
+      </c>
+      <c r="S28" t="n">
+        <v>4</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>4</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>60013</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>229</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>230</v>
+      </c>
+      <c r="J29" t="s">
+        <v>231</v>
+      </c>
+      <c r="K29" t="s">
+        <v>232</v>
+      </c>
+      <c r="L29" t="s">
+        <v>233</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>234</v>
+      </c>
+      <c r="O29" t="s">
+        <v>123</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>235</v>
+      </c>
+      <c r="X29" t="s">
+        <v>236</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>60013</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>238</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>239</v>
+      </c>
+      <c r="J30" t="s">
+        <v>240</v>
+      </c>
+      <c r="K30" t="s">
+        <v>241</v>
+      </c>
+      <c r="L30" t="s">
+        <v>242</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>234</v>
+      </c>
+      <c r="O30" t="s">
+        <v>208</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="s"/>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>235</v>
+      </c>
+      <c r="X30" t="s">
+        <v>236</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>60013</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>244</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>245</v>
+      </c>
+      <c r="J31" t="s">
+        <v>246</v>
+      </c>
+      <c r="K31" t="s">
+        <v>247</v>
+      </c>
+      <c r="L31" t="s">
+        <v>248</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>234</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>249</v>
+      </c>
+      <c r="X31" t="s">
+        <v>250</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>60013</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>252</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>253</v>
+      </c>
+      <c r="J32" t="s">
+        <v>254</v>
+      </c>
+      <c r="K32" t="s">
+        <v>255</v>
+      </c>
+      <c r="L32" t="s">
+        <v>256</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>257</v>
+      </c>
+      <c r="O32" t="s">
+        <v>123</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>258</v>
+      </c>
+      <c r="X32" t="s">
+        <v>259</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>60013</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>261</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>262</v>
+      </c>
+      <c r="J33" t="s">
+        <v>263</v>
+      </c>
+      <c r="K33" t="s">
+        <v>264</v>
+      </c>
+      <c r="L33" t="s">
+        <v>265</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>257</v>
+      </c>
+      <c r="O33" t="s">
+        <v>60</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>60013</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>267</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>268</v>
+      </c>
+      <c r="J34" t="s">
+        <v>269</v>
+      </c>
+      <c r="K34" t="s">
+        <v>270</v>
+      </c>
+      <c r="L34" t="s">
+        <v>271</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>272</v>
+      </c>
+      <c r="O34" t="s">
+        <v>60</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>273</v>
+      </c>
+      <c r="X34" t="s">
+        <v>274</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>60013</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>276</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>277</v>
+      </c>
+      <c r="J35" t="s">
+        <v>278</v>
+      </c>
+      <c r="K35" t="s">
+        <v>279</v>
+      </c>
+      <c r="L35" t="s">
+        <v>280</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>281</v>
+      </c>
+      <c r="O35" t="s">
+        <v>208</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>282</v>
+      </c>
+      <c r="X35" t="s">
+        <v>283</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>60013</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>285</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>286</v>
+      </c>
+      <c r="J36" t="s">
+        <v>287</v>
+      </c>
+      <c r="K36" t="s">
+        <v>288</v>
+      </c>
+      <c r="L36" t="s">
+        <v>289</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>281</v>
+      </c>
+      <c r="O36" t="s">
+        <v>123</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>282</v>
+      </c>
+      <c r="X36" t="s">
+        <v>283</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>60013</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>291</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>292</v>
+      </c>
+      <c r="J37" t="s">
+        <v>293</v>
+      </c>
+      <c r="K37" t="s">
+        <v>294</v>
+      </c>
+      <c r="L37" t="s">
+        <v>295</v>
+      </c>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>296</v>
+      </c>
+      <c r="O37" t="s">
+        <v>105</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="n">
+        <v>4</v>
+      </c>
+      <c r="R37" t="s"/>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>4</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>297</v>
+      </c>
+      <c r="X37" t="s">
+        <v>298</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>60013</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>300</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>301</v>
+      </c>
+      <c r="J38" t="s">
+        <v>302</v>
+      </c>
+      <c r="K38" t="s">
+        <v>303</v>
+      </c>
+      <c r="L38" t="s">
+        <v>304</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>305</v>
+      </c>
+      <c r="O38" t="s">
+        <v>60</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="n">
+        <v>4</v>
+      </c>
+      <c r="S38" t="n">
+        <v>4</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>306</v>
+      </c>
+      <c r="X38" t="s">
+        <v>307</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>60013</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>309</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>310</v>
+      </c>
+      <c r="J39" t="s">
+        <v>311</v>
+      </c>
+      <c r="K39" t="s">
+        <v>312</v>
+      </c>
+      <c r="L39" t="s">
+        <v>313</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>305</v>
+      </c>
+      <c r="O39" t="s">
+        <v>53</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="n">
+        <v>4</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>4</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>314</v>
+      </c>
+      <c r="X39" t="s">
+        <v>315</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>60013</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>317</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>318</v>
+      </c>
+      <c r="J40" t="s">
+        <v>319</v>
+      </c>
+      <c r="K40" t="s">
+        <v>320</v>
+      </c>
+      <c r="L40" t="s">
+        <v>321</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>322</v>
+      </c>
+      <c r="O40" t="s">
+        <v>123</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="s"/>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>323</v>
+      </c>
+      <c r="X40" t="s">
+        <v>324</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>60013</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>326</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>327</v>
+      </c>
+      <c r="J41" t="s">
+        <v>328</v>
+      </c>
+      <c r="K41" t="s">
+        <v>329</v>
+      </c>
+      <c r="L41" t="s">
+        <v>330</v>
+      </c>
+      <c r="M41" t="n">
+        <v>3</v>
+      </c>
+      <c r="N41" t="s">
+        <v>331</v>
+      </c>
+      <c r="O41" t="s">
+        <v>53</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="n">
+        <v>4</v>
+      </c>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>4</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>332</v>
+      </c>
+      <c r="X41" t="s">
+        <v>333</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>60013</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>335</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>336</v>
+      </c>
+      <c r="J42" t="s">
+        <v>337</v>
+      </c>
+      <c r="K42" t="s">
+        <v>338</v>
+      </c>
+      <c r="L42" t="s">
+        <v>339</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>340</v>
+      </c>
+      <c r="O42" t="s">
+        <v>60</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="s"/>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>341</v>
+      </c>
+      <c r="X42" t="s">
+        <v>342</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>60013</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>344</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>345</v>
+      </c>
+      <c r="J43" t="s">
+        <v>346</v>
+      </c>
+      <c r="K43" t="s">
+        <v>347</v>
+      </c>
+      <c r="L43" t="s">
+        <v>348</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
+        <v>340</v>
+      </c>
+      <c r="O43" t="s">
+        <v>53</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="s"/>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>341</v>
+      </c>
+      <c r="X43" t="s">
+        <v>342</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>60013</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>350</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>351</v>
+      </c>
+      <c r="J44" t="s">
+        <v>352</v>
+      </c>
+      <c r="K44" t="s">
+        <v>353</v>
+      </c>
+      <c r="L44" t="s">
+        <v>354</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>331</v>
+      </c>
+      <c r="O44" t="s">
+        <v>53</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="s"/>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>341</v>
+      </c>
+      <c r="X44" t="s">
+        <v>342</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>60013</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>356</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>357</v>
+      </c>
+      <c r="J45" t="s">
+        <v>358</v>
+      </c>
+      <c r="K45" t="s">
+        <v>359</v>
+      </c>
+      <c r="L45" t="s">
+        <v>360</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>361</v>
+      </c>
+      <c r="O45" t="s">
+        <v>123</v>
+      </c>
+      <c r="P45" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>362</v>
+      </c>
+      <c r="X45" t="s">
+        <v>363</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>60013</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>365</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>366</v>
+      </c>
+      <c r="J46" t="s">
+        <v>367</v>
+      </c>
+      <c r="K46" t="s">
+        <v>368</v>
+      </c>
+      <c r="L46" t="s">
+        <v>369</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>361</v>
+      </c>
+      <c r="O46" t="s">
+        <v>123</v>
+      </c>
+      <c r="P46" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>4</v>
+      </c>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>370</v>
+      </c>
+      <c r="X46" t="s">
+        <v>371</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>60013</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>373</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>374</v>
+      </c>
+      <c r="J47" t="s">
+        <v>375</v>
+      </c>
+      <c r="K47" t="s">
+        <v>376</v>
+      </c>
+      <c r="L47" t="s">
+        <v>377</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1</v>
+      </c>
+      <c r="N47" t="s">
+        <v>378</v>
+      </c>
+      <c r="O47" t="s">
+        <v>60</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="n">
+        <v>3</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>4</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>379</v>
+      </c>
+      <c r="X47" t="s">
+        <v>380</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>60013</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>382</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>383</v>
+      </c>
+      <c r="J48" t="s">
+        <v>384</v>
+      </c>
+      <c r="K48" t="s">
+        <v>385</v>
+      </c>
+      <c r="L48" t="s">
+        <v>386</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>378</v>
+      </c>
+      <c r="O48" t="s">
+        <v>105</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="s"/>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>379</v>
+      </c>
+      <c r="X48" t="s">
+        <v>380</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>60013</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>388</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>389</v>
+      </c>
+      <c r="J49" t="s">
+        <v>390</v>
+      </c>
+      <c r="K49" t="s">
+        <v>303</v>
+      </c>
+      <c r="L49" t="s">
+        <v>391</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>378</v>
+      </c>
+      <c r="O49" t="s">
+        <v>123</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="n">
+        <v>4</v>
+      </c>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>392</v>
+      </c>
+      <c r="X49" t="s">
+        <v>393</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>60013</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>395</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>396</v>
+      </c>
+      <c r="J50" t="s">
+        <v>397</v>
+      </c>
+      <c r="K50" t="s">
+        <v>398</v>
+      </c>
+      <c r="L50" t="s">
+        <v>399</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>400</v>
+      </c>
+      <c r="O50" t="s">
+        <v>60</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>401</v>
+      </c>
+      <c r="X50" t="s">
+        <v>402</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>60013</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>404</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>405</v>
+      </c>
+      <c r="J51" t="s">
+        <v>406</v>
+      </c>
+      <c r="K51" t="s">
+        <v>407</v>
+      </c>
+      <c r="L51" t="s">
+        <v>408</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>409</v>
+      </c>
+      <c r="O51" t="s">
+        <v>53</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="n">
+        <v>4</v>
+      </c>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>410</v>
+      </c>
+      <c r="X51" t="s">
+        <v>411</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>60013</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>413</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>414</v>
+      </c>
+      <c r="J52" t="s">
+        <v>415</v>
+      </c>
+      <c r="K52" t="s">
+        <v>416</v>
+      </c>
+      <c r="L52" t="s">
+        <v>417</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>418</v>
+      </c>
+      <c r="O52" t="s">
+        <v>60</v>
+      </c>
+      <c r="P52" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="n">
+        <v>4</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>4</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>419</v>
+      </c>
+      <c r="X52" t="s">
+        <v>420</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>60013</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>422</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>423</v>
+      </c>
+      <c r="J53" t="s">
+        <v>424</v>
+      </c>
+      <c r="K53" t="s">
+        <v>425</v>
+      </c>
+      <c r="L53" t="s">
+        <v>426</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>409</v>
+      </c>
+      <c r="O53" t="s">
+        <v>60</v>
+      </c>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="s"/>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>427</v>
+      </c>
+      <c r="X53" t="s">
+        <v>428</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>60013</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>430</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>431</v>
+      </c>
+      <c r="J54" t="s">
+        <v>432</v>
+      </c>
+      <c r="K54" t="s">
+        <v>433</v>
+      </c>
+      <c r="L54" t="s">
+        <v>434</v>
+      </c>
+      <c r="M54" t="n">
+        <v>1</v>
+      </c>
+      <c r="N54" t="s">
+        <v>409</v>
+      </c>
+      <c r="O54" t="s">
+        <v>105</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="n">
+        <v>3</v>
+      </c>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>3</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>435</v>
+      </c>
+      <c r="X54" t="s">
+        <v>436</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>60013</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>438</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>439</v>
+      </c>
+      <c r="J55" t="s">
+        <v>440</v>
+      </c>
+      <c r="K55" t="s">
+        <v>441</v>
+      </c>
+      <c r="L55" t="s">
+        <v>442</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>443</v>
+      </c>
+      <c r="O55" t="s">
+        <v>208</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="s"/>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>444</v>
+      </c>
+      <c r="X55" t="s">
+        <v>445</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>60013</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>447</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>448</v>
+      </c>
+      <c r="J56" t="s">
+        <v>449</v>
+      </c>
+      <c r="K56" t="s">
+        <v>450</v>
+      </c>
+      <c r="L56" t="s">
+        <v>451</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>452</v>
+      </c>
+      <c r="O56" t="s">
+        <v>60</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>453</v>
+      </c>
+      <c r="X56" t="s">
+        <v>454</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>60013</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>456</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>457</v>
+      </c>
+      <c r="J57" t="s">
+        <v>458</v>
+      </c>
+      <c r="K57" t="s">
+        <v>459</v>
+      </c>
+      <c r="L57" t="s">
+        <v>460</v>
+      </c>
+      <c r="M57" t="n">
+        <v>4</v>
+      </c>
+      <c r="N57" t="s">
+        <v>452</v>
+      </c>
+      <c r="O57" t="s">
+        <v>60</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="s"/>
+      <c r="S57" t="s"/>
+      <c r="T57" t="s"/>
+      <c r="U57" t="s"/>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>461</v>
+      </c>
+      <c r="X57" t="s">
+        <v>462</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>60013</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>464</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>465</v>
+      </c>
+      <c r="J58" t="s">
+        <v>466</v>
+      </c>
+      <c r="K58" t="s">
+        <v>467</v>
+      </c>
+      <c r="L58" t="s">
+        <v>468</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s"/>
+      <c r="O58" t="s"/>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>4</v>
+      </c>
+      <c r="R58" t="n">
+        <v>4</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>3</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>469</v>
+      </c>
+      <c r="X58" t="s">
+        <v>470</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>60013</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>472</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>473</v>
+      </c>
+      <c r="J59" t="s">
+        <v>474</v>
+      </c>
+      <c r="K59" t="s">
+        <v>475</v>
+      </c>
+      <c r="L59" t="s">
+        <v>476</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>452</v>
+      </c>
+      <c r="O59" t="s">
+        <v>60</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="s"/>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>477</v>
+      </c>
+      <c r="X59" t="s">
+        <v>478</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>60013</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>480</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>481</v>
+      </c>
+      <c r="J60" t="s">
+        <v>474</v>
+      </c>
+      <c r="K60" t="s">
+        <v>482</v>
+      </c>
+      <c r="L60" t="s">
+        <v>483</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s"/>
+      <c r="O60" t="s"/>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="s"/>
+      <c r="S60" t="s"/>
+      <c r="T60" t="s"/>
+      <c r="U60" t="s"/>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>477</v>
+      </c>
+      <c r="X60" t="s">
+        <v>478</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60013</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>485</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>486</v>
+      </c>
+      <c r="J61" t="s">
+        <v>487</v>
+      </c>
+      <c r="K61" t="s">
+        <v>488</v>
+      </c>
+      <c r="L61" t="s">
+        <v>489</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>490</v>
+      </c>
+      <c r="O61" t="s">
+        <v>60</v>
+      </c>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="s"/>
+      <c r="S61" t="s"/>
+      <c r="T61" t="s"/>
+      <c r="U61" t="s"/>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>491</v>
+      </c>
+      <c r="X61" t="s">
+        <v>492</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>60013</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>494</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>495</v>
+      </c>
+      <c r="J62" t="s">
+        <v>496</v>
+      </c>
+      <c r="K62" t="s">
+        <v>497</v>
+      </c>
+      <c r="L62" t="s">
+        <v>498</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>499</v>
+      </c>
+      <c r="O62" t="s">
+        <v>208</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>500</v>
+      </c>
+      <c r="X62" t="s">
+        <v>501</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>60013</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>503</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>504</v>
+      </c>
+      <c r="J63" t="s">
+        <v>505</v>
+      </c>
+      <c r="K63" t="s">
+        <v>506</v>
+      </c>
+      <c r="L63" t="s">
+        <v>507</v>
+      </c>
+      <c r="M63" t="n">
+        <v>4</v>
+      </c>
+      <c r="N63" t="s"/>
+      <c r="O63" t="s"/>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>4</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>500</v>
+      </c>
+      <c r="X63" t="s">
+        <v>501</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>60013</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>509</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>510</v>
+      </c>
+      <c r="J64" t="s">
+        <v>511</v>
+      </c>
+      <c r="K64" t="s">
+        <v>512</v>
+      </c>
+      <c r="L64" t="s">
+        <v>513</v>
+      </c>
+      <c r="M64" t="n">
+        <v>4</v>
+      </c>
+      <c r="N64" t="s">
+        <v>499</v>
+      </c>
+      <c r="O64" t="s">
+        <v>123</v>
+      </c>
+      <c r="P64" t="s"/>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="s"/>
+      <c r="S64" t="s"/>
+      <c r="T64" t="s"/>
+      <c r="U64" t="s"/>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>514</v>
+      </c>
+      <c r="X64" t="s">
+        <v>515</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>60013</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>517</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>518</v>
+      </c>
+      <c r="J65" t="s">
+        <v>519</v>
+      </c>
+      <c r="K65" t="s">
+        <v>520</v>
+      </c>
+      <c r="L65" t="s">
+        <v>521</v>
+      </c>
+      <c r="M65" t="n">
+        <v>2</v>
+      </c>
+      <c r="N65" t="s">
+        <v>499</v>
+      </c>
+      <c r="O65" t="s">
+        <v>60</v>
+      </c>
+      <c r="P65" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>3</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>3</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>1</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>522</v>
+      </c>
+      <c r="X65" t="s">
+        <v>523</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>60013</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>525</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>526</v>
+      </c>
+      <c r="J66" t="s">
+        <v>527</v>
+      </c>
+      <c r="K66" t="s">
+        <v>528</v>
+      </c>
+      <c r="L66" t="s">
+        <v>529</v>
+      </c>
+      <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="s">
+        <v>499</v>
+      </c>
+      <c r="O66" t="s">
+        <v>53</v>
+      </c>
+      <c r="P66" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>3</v>
+      </c>
+      <c r="S66" t="n">
+        <v>4</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>530</v>
+      </c>
+      <c r="X66" t="s">
+        <v>531</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>60013</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>533</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>534</v>
+      </c>
+      <c r="J67" t="s">
+        <v>535</v>
+      </c>
+      <c r="K67" t="s">
+        <v>536</v>
+      </c>
+      <c r="L67" t="s">
+        <v>537</v>
+      </c>
+      <c r="M67" t="n">
+        <v>2</v>
+      </c>
+      <c r="N67" t="s">
+        <v>538</v>
+      </c>
+      <c r="O67" t="s">
+        <v>53</v>
+      </c>
+      <c r="P67" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>4</v>
+      </c>
+      <c r="R67" t="n">
+        <v>4</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>1</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>539</v>
+      </c>
+      <c r="X67" t="s">
+        <v>540</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>60013</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>542</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>543</v>
+      </c>
+      <c r="J68" t="s">
+        <v>544</v>
+      </c>
+      <c r="K68" t="s">
+        <v>545</v>
+      </c>
+      <c r="L68" t="s">
+        <v>546</v>
+      </c>
+      <c r="M68" t="n">
+        <v>4</v>
+      </c>
+      <c r="N68" t="s">
+        <v>547</v>
+      </c>
+      <c r="O68" t="s">
+        <v>123</v>
+      </c>
+      <c r="P68" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>4</v>
+      </c>
+      <c r="R68" t="n">
+        <v>4</v>
+      </c>
+      <c r="S68" t="n">
+        <v>4</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>4</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>548</v>
+      </c>
+      <c r="X68" t="s">
+        <v>549</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>60013</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>551</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>552</v>
+      </c>
+      <c r="J69" t="s">
+        <v>553</v>
+      </c>
+      <c r="K69" t="s">
+        <v>554</v>
+      </c>
+      <c r="L69" t="s">
+        <v>555</v>
+      </c>
+      <c r="M69" t="n">
+        <v>4</v>
+      </c>
+      <c r="N69" t="s">
+        <v>556</v>
+      </c>
+      <c r="O69" t="s">
+        <v>60</v>
+      </c>
+      <c r="P69" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>3</v>
+      </c>
+      <c r="R69" t="n">
+        <v>4</v>
+      </c>
+      <c r="S69" t="n">
+        <v>4</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>548</v>
+      </c>
+      <c r="X69" t="s">
+        <v>549</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>60013</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>558</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>559</v>
+      </c>
+      <c r="J70" t="s">
+        <v>560</v>
+      </c>
+      <c r="K70" t="s">
+        <v>561</v>
+      </c>
+      <c r="L70" t="s">
+        <v>562</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>563</v>
+      </c>
+      <c r="O70" t="s">
+        <v>123</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>4</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>548</v>
+      </c>
+      <c r="X70" t="s">
+        <v>549</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>60013</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>565</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>566</v>
+      </c>
+      <c r="J71" t="s">
+        <v>567</v>
+      </c>
+      <c r="K71" t="s">
+        <v>353</v>
+      </c>
+      <c r="L71" t="s">
+        <v>568</v>
+      </c>
+      <c r="M71" t="n">
+        <v>4</v>
+      </c>
+      <c r="N71" t="s">
+        <v>563</v>
+      </c>
+      <c r="O71" t="s">
+        <v>105</v>
+      </c>
+      <c r="P71" t="s"/>
+      <c r="Q71" t="s"/>
+      <c r="R71" t="s"/>
+      <c r="S71" t="s"/>
+      <c r="T71" t="s"/>
+      <c r="U71" t="s"/>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>548</v>
+      </c>
+      <c r="X71" t="s">
+        <v>549</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>60013</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>570</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>571</v>
+      </c>
+      <c r="J72" t="s">
+        <v>572</v>
+      </c>
+      <c r="K72" t="s">
+        <v>573</v>
+      </c>
+      <c r="L72" t="s">
+        <v>574</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>556</v>
+      </c>
+      <c r="O72" t="s">
+        <v>60</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>548</v>
+      </c>
+      <c r="X72" t="s">
+        <v>549</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>60013</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>576</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>577</v>
+      </c>
+      <c r="J73" t="s">
+        <v>578</v>
+      </c>
+      <c r="K73" t="s">
+        <v>579</v>
+      </c>
+      <c r="L73" t="s">
+        <v>580</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>556</v>
+      </c>
+      <c r="O73" t="s">
+        <v>208</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>4</v>
+      </c>
+      <c r="R73" t="n">
+        <v>4</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>548</v>
+      </c>
+      <c r="X73" t="s">
+        <v>549</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>60013</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>582</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>583</v>
+      </c>
+      <c r="J74" t="s">
+        <v>584</v>
+      </c>
+      <c r="K74" t="s">
+        <v>585</v>
+      </c>
+      <c r="L74" t="s">
+        <v>586</v>
+      </c>
+      <c r="M74" t="n">
+        <v>4</v>
+      </c>
+      <c r="N74" t="s">
+        <v>587</v>
+      </c>
+      <c r="O74" t="s">
+        <v>208</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>4</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>4</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>588</v>
+      </c>
+      <c r="X74" t="s">
+        <v>589</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>60013</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>591</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>592</v>
+      </c>
+      <c r="J75" t="s">
+        <v>593</v>
+      </c>
+      <c r="K75" t="s">
+        <v>594</v>
+      </c>
+      <c r="L75" t="s">
+        <v>595</v>
+      </c>
+      <c r="M75" t="n">
+        <v>4</v>
+      </c>
+      <c r="N75" t="s">
+        <v>587</v>
+      </c>
+      <c r="O75" t="s">
+        <v>53</v>
+      </c>
+      <c r="P75" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>3</v>
+      </c>
+      <c r="R75" t="n">
+        <v>3</v>
+      </c>
+      <c r="S75" t="n">
+        <v>3</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>3</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>60013</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>596</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>597</v>
+      </c>
+      <c r="J76" t="s">
+        <v>598</v>
+      </c>
+      <c r="K76" t="s">
+        <v>599</v>
+      </c>
+      <c r="L76" t="s">
+        <v>600</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>601</v>
+      </c>
+      <c r="O76" t="s">
+        <v>123</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>602</v>
+      </c>
+      <c r="X76" t="s">
+        <v>603</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>60013</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>605</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>606</v>
+      </c>
+      <c r="J77" t="s">
+        <v>607</v>
+      </c>
+      <c r="K77" t="s">
+        <v>608</v>
+      </c>
+      <c r="L77" t="s">
+        <v>609</v>
+      </c>
+      <c r="M77" t="n">
+        <v>3</v>
+      </c>
+      <c r="N77" t="s">
+        <v>610</v>
+      </c>
+      <c r="O77" t="s">
+        <v>123</v>
+      </c>
+      <c r="P77" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>3</v>
+      </c>
+      <c r="R77" t="n">
+        <v>3</v>
+      </c>
+      <c r="S77" t="n">
+        <v>3</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>3</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>548</v>
+      </c>
+      <c r="X77" t="s">
+        <v>549</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>60013</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>612</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>613</v>
+      </c>
+      <c r="J78" t="s">
+        <v>614</v>
+      </c>
+      <c r="K78" t="s">
+        <v>615</v>
+      </c>
+      <c r="L78" t="s">
+        <v>616</v>
+      </c>
+      <c r="M78" t="n">
+        <v>4</v>
+      </c>
+      <c r="N78" t="s">
+        <v>587</v>
+      </c>
+      <c r="O78" t="s">
+        <v>105</v>
+      </c>
+      <c r="P78" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>5</v>
+      </c>
+      <c r="R78" t="n">
+        <v>5</v>
+      </c>
+      <c r="S78" t="n">
+        <v>4</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>3</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>60013</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>618</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>619</v>
+      </c>
+      <c r="J79" t="s">
+        <v>620</v>
+      </c>
+      <c r="K79" t="s">
+        <v>621</v>
+      </c>
+      <c r="L79" t="s">
+        <v>622</v>
+      </c>
+      <c r="M79" t="n">
+        <v>3</v>
+      </c>
+      <c r="N79" t="s">
+        <v>610</v>
+      </c>
+      <c r="O79" t="s">
+        <v>60</v>
+      </c>
+      <c r="P79" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>4</v>
+      </c>
+      <c r="R79" t="n">
+        <v>3</v>
+      </c>
+      <c r="S79" t="n">
+        <v>4</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>3</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>548</v>
+      </c>
+      <c r="X79" t="s">
+        <v>549</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>60013</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>624</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>625</v>
+      </c>
+      <c r="J80" t="s">
+        <v>626</v>
+      </c>
+      <c r="K80" t="s">
+        <v>627</v>
+      </c>
+      <c r="L80" t="s">
+        <v>628</v>
+      </c>
+      <c r="M80" t="n">
+        <v>4</v>
+      </c>
+      <c r="N80" t="s">
+        <v>629</v>
+      </c>
+      <c r="O80" t="s">
+        <v>208</v>
+      </c>
+      <c r="P80" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>5</v>
+      </c>
+      <c r="R80" t="n">
+        <v>5</v>
+      </c>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>60013</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>630</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>631</v>
+      </c>
+      <c r="J81" t="s">
+        <v>632</v>
+      </c>
+      <c r="K81" t="s">
+        <v>633</v>
+      </c>
+      <c r="L81" t="s">
+        <v>634</v>
+      </c>
+      <c r="M81" t="n">
+        <v>4</v>
+      </c>
+      <c r="N81" t="s">
+        <v>629</v>
+      </c>
+      <c r="O81" t="s">
+        <v>60</v>
+      </c>
+      <c r="P81" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>5</v>
+      </c>
+      <c r="R81" t="n">
+        <v>5</v>
+      </c>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>60013</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>636</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>637</v>
+      </c>
+      <c r="J82" t="s">
+        <v>638</v>
+      </c>
+      <c r="K82" t="s">
+        <v>639</v>
+      </c>
+      <c r="L82" t="s">
+        <v>640</v>
+      </c>
+      <c r="M82" t="n">
+        <v>4</v>
+      </c>
+      <c r="N82" t="s">
+        <v>641</v>
+      </c>
+      <c r="O82" t="s">
+        <v>53</v>
+      </c>
+      <c r="P82" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>4</v>
+      </c>
+      <c r="R82" t="n">
+        <v>4</v>
+      </c>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>60013</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>642</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>643</v>
+      </c>
+      <c r="J83" t="s">
+        <v>644</v>
+      </c>
+      <c r="K83" t="s">
+        <v>645</v>
+      </c>
+      <c r="L83" t="s">
+        <v>646</v>
+      </c>
+      <c r="M83" t="n">
+        <v>2</v>
+      </c>
+      <c r="N83" t="s">
+        <v>647</v>
+      </c>
+      <c r="O83" t="s">
+        <v>60</v>
+      </c>
+      <c r="P83" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>1</v>
+      </c>
+      <c r="R83" t="n">
+        <v>4</v>
+      </c>
+      <c r="S83" t="n">
+        <v>4</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>3</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>548</v>
+      </c>
+      <c r="X83" t="s">
+        <v>549</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>60013</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>649</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>650</v>
+      </c>
+      <c r="J84" t="s">
+        <v>651</v>
+      </c>
+      <c r="K84" t="s">
+        <v>652</v>
+      </c>
+      <c r="L84" t="s">
+        <v>653</v>
+      </c>
+      <c r="M84" t="n">
+        <v>5</v>
+      </c>
+      <c r="N84" t="s">
+        <v>647</v>
+      </c>
+      <c r="O84" t="s">
+        <v>60</v>
+      </c>
+      <c r="P84" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>5</v>
+      </c>
+      <c r="R84" t="n">
+        <v>5</v>
+      </c>
+      <c r="S84" t="n">
+        <v>5</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>60013</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>655</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>656</v>
+      </c>
+      <c r="J85" t="s">
+        <v>657</v>
+      </c>
+      <c r="K85" t="s">
+        <v>658</v>
+      </c>
+      <c r="L85" t="s">
+        <v>659</v>
+      </c>
+      <c r="M85" t="n">
+        <v>5</v>
+      </c>
+      <c r="N85" t="s"/>
+      <c r="O85" t="s"/>
+      <c r="P85" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>5</v>
+      </c>
+      <c r="R85" t="n">
+        <v>4</v>
+      </c>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s">
+        <v>588</v>
+      </c>
+      <c r="X85" t="s">
+        <v>589</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>60013</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>661</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>662</v>
+      </c>
+      <c r="J86" t="s">
+        <v>663</v>
+      </c>
+      <c r="K86" t="s">
+        <v>664</v>
+      </c>
+      <c r="L86" t="s">
+        <v>665</v>
+      </c>
+      <c r="M86" t="n">
+        <v>5</v>
+      </c>
+      <c r="N86" t="s">
+        <v>666</v>
+      </c>
+      <c r="O86" t="s">
+        <v>60</v>
+      </c>
+      <c r="P86" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>5</v>
+      </c>
+      <c r="R86" t="n">
+        <v>5</v>
+      </c>
+      <c r="S86" t="n">
+        <v>5</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>60013</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>668</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>669</v>
+      </c>
+      <c r="J87" t="s">
+        <v>670</v>
+      </c>
+      <c r="K87" t="s">
+        <v>671</v>
+      </c>
+      <c r="L87" t="s">
+        <v>672</v>
+      </c>
+      <c r="M87" t="n">
+        <v>5</v>
+      </c>
+      <c r="N87" t="s">
+        <v>666</v>
+      </c>
+      <c r="O87" t="s">
+        <v>60</v>
+      </c>
+      <c r="P87" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>5</v>
+      </c>
+      <c r="R87" t="n">
+        <v>5</v>
+      </c>
+      <c r="S87" t="n">
+        <v>5</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>5</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>60013</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>673</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>674</v>
+      </c>
+      <c r="J88" t="s">
+        <v>675</v>
+      </c>
+      <c r="K88" t="s">
+        <v>676</v>
+      </c>
+      <c r="L88" t="s">
+        <v>677</v>
+      </c>
+      <c r="M88" t="n">
+        <v>4</v>
+      </c>
+      <c r="N88" t="s">
+        <v>678</v>
+      </c>
+      <c r="O88" t="s">
+        <v>105</v>
+      </c>
+      <c r="P88" t="s"/>
+      <c r="Q88" t="n">
+        <v>5</v>
+      </c>
+      <c r="R88" t="n">
+        <v>5</v>
+      </c>
+      <c r="S88" t="n">
+        <v>5</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>4</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>60013</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>679</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>680</v>
+      </c>
+      <c r="J89" t="s">
+        <v>681</v>
+      </c>
+      <c r="K89" t="s">
+        <v>682</v>
+      </c>
+      <c r="L89" t="s">
+        <v>683</v>
+      </c>
+      <c r="M89" t="n">
+        <v>5</v>
+      </c>
+      <c r="N89" t="s">
+        <v>684</v>
+      </c>
+      <c r="O89" t="s">
+        <v>60</v>
+      </c>
+      <c r="P89" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>5</v>
+      </c>
+      <c r="R89" t="n">
+        <v>5</v>
+      </c>
+      <c r="S89" t="n">
+        <v>5</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>5</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>60013</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>685</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>686</v>
+      </c>
+      <c r="J90" t="s">
+        <v>687</v>
+      </c>
+      <c r="K90" t="s">
+        <v>688</v>
+      </c>
+      <c r="L90" t="s">
+        <v>689</v>
+      </c>
+      <c r="M90" t="n">
+        <v>5</v>
+      </c>
+      <c r="N90" t="s"/>
+      <c r="O90" t="s"/>
+      <c r="P90" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>5</v>
+      </c>
+      <c r="R90" t="n">
+        <v>5</v>
+      </c>
+      <c r="S90" t="n">
+        <v>5</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>3</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>60013</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>691</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>692</v>
+      </c>
+      <c r="J91" t="s">
+        <v>693</v>
+      </c>
+      <c r="K91" t="s">
+        <v>694</v>
+      </c>
+      <c r="L91" t="s">
+        <v>695</v>
+      </c>
+      <c r="M91" t="n">
+        <v>5</v>
+      </c>
+      <c r="N91" t="s">
+        <v>678</v>
+      </c>
+      <c r="O91" t="s">
+        <v>60</v>
+      </c>
+      <c r="P91" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>5</v>
+      </c>
+      <c r="R91" t="n">
+        <v>5</v>
+      </c>
+      <c r="S91" t="n">
+        <v>5</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>5</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>60013</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>696</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>697</v>
+      </c>
+      <c r="J92" t="s">
+        <v>698</v>
+      </c>
+      <c r="K92" t="s">
+        <v>699</v>
+      </c>
+      <c r="L92" t="s">
+        <v>700</v>
+      </c>
+      <c r="M92" t="n">
+        <v>3</v>
+      </c>
+      <c r="N92" t="s"/>
+      <c r="O92" t="s"/>
+      <c r="P92" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>5</v>
+      </c>
+      <c r="R92" t="n">
+        <v>3</v>
+      </c>
+      <c r="S92" t="n">
+        <v>5</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>5</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>60013</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>701</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>702</v>
+      </c>
+      <c r="J93" t="s">
+        <v>703</v>
+      </c>
+      <c r="K93" t="s">
+        <v>704</v>
+      </c>
+      <c r="L93" t="s">
+        <v>705</v>
+      </c>
+      <c r="M93" t="n">
+        <v>4</v>
+      </c>
+      <c r="N93" t="s">
+        <v>706</v>
+      </c>
+      <c r="O93" t="s">
+        <v>123</v>
+      </c>
+      <c r="P93" t="s"/>
+      <c r="Q93" t="s"/>
+      <c r="R93" t="s"/>
+      <c r="S93" t="s"/>
+      <c r="T93" t="s"/>
+      <c r="U93" t="s"/>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>60013</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>707</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>708</v>
+      </c>
+      <c r="J94" t="s">
+        <v>709</v>
+      </c>
+      <c r="K94" t="s">
+        <v>710</v>
+      </c>
+      <c r="L94" t="s">
+        <v>711</v>
+      </c>
+      <c r="M94" t="n">
+        <v>4</v>
+      </c>
+      <c r="N94" t="s">
+        <v>712</v>
+      </c>
+      <c r="O94" t="s">
+        <v>123</v>
+      </c>
+      <c r="P94" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>4</v>
+      </c>
+      <c r="R94" t="n">
+        <v>3</v>
+      </c>
+      <c r="S94" t="n">
+        <v>4</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>4</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>60013</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>714</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>715</v>
+      </c>
+      <c r="J95" t="s">
+        <v>716</v>
+      </c>
+      <c r="K95" t="s">
+        <v>717</v>
+      </c>
+      <c r="L95" t="s">
+        <v>718</v>
+      </c>
+      <c r="M95" t="n">
+        <v>5</v>
+      </c>
+      <c r="N95" t="s">
+        <v>719</v>
+      </c>
+      <c r="O95" t="s">
+        <v>208</v>
+      </c>
+      <c r="P95" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>4</v>
+      </c>
+      <c r="R95" t="n">
+        <v>5</v>
+      </c>
+      <c r="S95" t="n">
+        <v>5</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>5</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s"/>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>60013</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>720</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>721</v>
+      </c>
+      <c r="J96" t="s">
+        <v>722</v>
+      </c>
+      <c r="K96" t="s">
+        <v>723</v>
+      </c>
+      <c r="L96" t="s">
+        <v>724</v>
+      </c>
+      <c r="M96" t="n">
+        <v>5</v>
+      </c>
+      <c r="N96" t="s">
+        <v>719</v>
+      </c>
+      <c r="O96" t="s">
+        <v>53</v>
+      </c>
+      <c r="P96" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>5</v>
+      </c>
+      <c r="R96" t="n">
+        <v>4</v>
+      </c>
+      <c r="S96" t="n">
+        <v>5</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>5</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s"/>
+      <c r="X96" t="s"/>
+      <c r="Y96" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>60013</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>725</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>726</v>
+      </c>
+      <c r="J97" t="s">
+        <v>727</v>
+      </c>
+      <c r="K97" t="s">
+        <v>728</v>
+      </c>
+      <c r="L97" t="s">
+        <v>729</v>
+      </c>
+      <c r="M97" t="n">
+        <v>5</v>
+      </c>
+      <c r="N97" t="s">
+        <v>719</v>
+      </c>
+      <c r="O97" t="s">
+        <v>123</v>
+      </c>
+      <c r="P97" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>5</v>
+      </c>
+      <c r="R97" t="n">
+        <v>4</v>
+      </c>
+      <c r="S97" t="n">
+        <v>5</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>5</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s"/>
+      <c r="X97" t="s"/>
+      <c r="Y97" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>60013</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>731</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>732</v>
+      </c>
+      <c r="J98" t="s">
+        <v>733</v>
+      </c>
+      <c r="K98" t="s">
+        <v>734</v>
+      </c>
+      <c r="L98" t="s">
+        <v>735</v>
+      </c>
+      <c r="M98" t="n">
+        <v>4</v>
+      </c>
+      <c r="N98" t="s">
+        <v>706</v>
+      </c>
+      <c r="O98" t="s">
+        <v>123</v>
+      </c>
+      <c r="P98" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>4</v>
+      </c>
+      <c r="R98" t="n">
+        <v>4</v>
+      </c>
+      <c r="S98" t="n">
+        <v>5</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>5</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s"/>
+      <c r="X98" t="s"/>
+      <c r="Y98" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>60013</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>736</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>737</v>
+      </c>
+      <c r="J99" t="s">
+        <v>738</v>
+      </c>
+      <c r="K99" t="s">
+        <v>739</v>
+      </c>
+      <c r="L99" t="s">
+        <v>740</v>
+      </c>
+      <c r="M99" t="n">
+        <v>4</v>
+      </c>
+      <c r="N99" t="s">
+        <v>706</v>
+      </c>
+      <c r="O99" t="s">
+        <v>60</v>
+      </c>
+      <c r="P99" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>4</v>
+      </c>
+      <c r="R99" t="n">
+        <v>5</v>
+      </c>
+      <c r="S99" t="n">
+        <v>5</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>5</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s"/>
+      <c r="X99" t="s"/>
+      <c r="Y99" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>60013</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>742</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>743</v>
+      </c>
+      <c r="J100" t="s">
+        <v>744</v>
+      </c>
+      <c r="K100" t="s">
+        <v>745</v>
+      </c>
+      <c r="L100" t="s">
+        <v>746</v>
+      </c>
+      <c r="M100" t="n">
+        <v>5</v>
+      </c>
+      <c r="N100" t="s">
+        <v>706</v>
+      </c>
+      <c r="O100" t="s">
+        <v>60</v>
+      </c>
+      <c r="P100" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>5</v>
+      </c>
+      <c r="R100" t="n">
+        <v>5</v>
+      </c>
+      <c r="S100" t="n">
+        <v>5</v>
+      </c>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>5</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s"/>
+      <c r="X100" t="s"/>
+      <c r="Y100" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>60013</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>44</v>
+      </c>
+      <c r="F101" t="s">
+        <v>748</v>
+      </c>
+      <c r="G101" t="s">
+        <v>46</v>
+      </c>
+      <c r="H101" t="s">
+        <v>47</v>
+      </c>
+      <c r="I101" t="s">
+        <v>749</v>
+      </c>
+      <c r="J101" t="s">
+        <v>750</v>
+      </c>
+      <c r="K101" t="s">
+        <v>751</v>
+      </c>
+      <c r="L101" t="s">
+        <v>752</v>
+      </c>
+      <c r="M101" t="n">
+        <v>4</v>
+      </c>
+      <c r="N101" t="s">
+        <v>753</v>
+      </c>
+      <c r="O101" t="s">
+        <v>60</v>
+      </c>
+      <c r="P101" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>4</v>
+      </c>
+      <c r="R101" t="n">
+        <v>3</v>
+      </c>
+      <c r="S101" t="n">
+        <v>5</v>
+      </c>
+      <c r="T101" t="s"/>
+      <c r="U101" t="n">
+        <v>3</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s">
+        <v>754</v>
+      </c>
+      <c r="X101" t="s">
+        <v>755</v>
+      </c>
+      <c r="Y101" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>60013</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>44</v>
+      </c>
+      <c r="F102" t="s">
+        <v>757</v>
+      </c>
+      <c r="G102" t="s">
+        <v>46</v>
+      </c>
+      <c r="H102" t="s">
+        <v>47</v>
+      </c>
+      <c r="I102" t="s">
+        <v>758</v>
+      </c>
+      <c r="J102" t="s">
+        <v>759</v>
+      </c>
+      <c r="K102" t="s">
+        <v>760</v>
+      </c>
+      <c r="L102" t="s">
+        <v>761</v>
+      </c>
+      <c r="M102" t="n">
+        <v>1</v>
+      </c>
+      <c r="N102" t="s">
+        <v>762</v>
+      </c>
+      <c r="O102" t="s">
+        <v>123</v>
+      </c>
+      <c r="P102" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>3</v>
+      </c>
+      <c r="R102" t="n">
+        <v>3</v>
+      </c>
+      <c r="S102" t="n">
+        <v>3</v>
+      </c>
+      <c r="T102" t="s"/>
+      <c r="U102" t="n">
+        <v>3</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s">
+        <v>754</v>
+      </c>
+      <c r="X102" t="s">
+        <v>755</v>
+      </c>
+      <c r="Y102" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>60013</v>
+      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
+      <c r="D103" t="n">
+        <v>102</v>
+      </c>
+      <c r="E103" t="s">
+        <v>44</v>
+      </c>
+      <c r="F103" t="s">
+        <v>764</v>
+      </c>
+      <c r="G103" t="s">
+        <v>46</v>
+      </c>
+      <c r="H103" t="s">
+        <v>47</v>
+      </c>
+      <c r="I103" t="s">
+        <v>765</v>
+      </c>
+      <c r="J103" t="s">
+        <v>759</v>
+      </c>
+      <c r="K103" t="s">
+        <v>766</v>
+      </c>
+      <c r="L103" t="s">
+        <v>767</v>
+      </c>
+      <c r="M103" t="n">
+        <v>5</v>
+      </c>
+      <c r="N103" t="s">
+        <v>768</v>
+      </c>
+      <c r="O103" t="s">
+        <v>105</v>
+      </c>
+      <c r="P103" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>5</v>
+      </c>
+      <c r="R103" t="n">
+        <v>4</v>
+      </c>
+      <c r="S103" t="n">
+        <v>5</v>
+      </c>
+      <c r="T103" t="s"/>
+      <c r="U103" t="n">
+        <v>5</v>
+      </c>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="s">
+        <v>754</v>
+      </c>
+      <c r="X103" t="s">
+        <v>755</v>
+      </c>
+      <c r="Y103" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>60013</v>
+      </c>
+      <c r="B104" t="s"/>
+      <c r="C104" t="s"/>
+      <c r="D104" t="n">
+        <v>103</v>
+      </c>
+      <c r="E104" t="s">
+        <v>44</v>
+      </c>
+      <c r="F104" t="s">
+        <v>770</v>
+      </c>
+      <c r="G104" t="s">
+        <v>46</v>
+      </c>
+      <c r="H104" t="s">
+        <v>47</v>
+      </c>
+      <c r="I104" t="s">
+        <v>771</v>
+      </c>
+      <c r="J104" t="s">
+        <v>772</v>
+      </c>
+      <c r="K104" t="s">
+        <v>773</v>
+      </c>
+      <c r="L104" t="s">
+        <v>774</v>
+      </c>
+      <c r="M104" t="n">
+        <v>4</v>
+      </c>
+      <c r="N104" t="s">
+        <v>762</v>
+      </c>
+      <c r="O104" t="s">
+        <v>60</v>
+      </c>
+      <c r="P104" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>4</v>
+      </c>
+      <c r="R104" t="n">
+        <v>4</v>
+      </c>
+      <c r="S104" t="n">
+        <v>5</v>
+      </c>
+      <c r="T104" t="s"/>
+      <c r="U104" t="n">
+        <v>5</v>
+      </c>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" t="s"/>
+      <c r="X104" t="s"/>
+      <c r="Y104" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>60013</v>
+      </c>
+      <c r="B105" t="s"/>
+      <c r="C105" t="s"/>
+      <c r="D105" t="n">
+        <v>104</v>
+      </c>
+      <c r="E105" t="s">
+        <v>44</v>
+      </c>
+      <c r="F105" t="s">
+        <v>776</v>
+      </c>
+      <c r="G105" t="s">
+        <v>46</v>
+      </c>
+      <c r="H105" t="s">
+        <v>47</v>
+      </c>
+      <c r="I105" t="s">
+        <v>777</v>
+      </c>
+      <c r="J105" t="s">
+        <v>778</v>
+      </c>
+      <c r="K105" t="s">
+        <v>779</v>
+      </c>
+      <c r="L105" t="s">
+        <v>780</v>
+      </c>
+      <c r="M105" t="n">
+        <v>4</v>
+      </c>
+      <c r="N105" t="s">
+        <v>762</v>
+      </c>
+      <c r="O105" t="s">
+        <v>53</v>
+      </c>
+      <c r="P105" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>5</v>
+      </c>
+      <c r="R105" t="n">
+        <v>5</v>
+      </c>
+      <c r="S105" t="n">
+        <v>5</v>
+      </c>
+      <c r="T105" t="s"/>
+      <c r="U105" t="n">
+        <v>5</v>
+      </c>
+      <c r="V105" t="n">
+        <v>0</v>
+      </c>
+      <c r="W105" t="s"/>
+      <c r="X105" t="s"/>
+      <c r="Y105" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>60013</v>
+      </c>
+      <c r="B106" t="s"/>
+      <c r="C106" t="s"/>
+      <c r="D106" t="n">
+        <v>105</v>
+      </c>
+      <c r="E106" t="s">
+        <v>44</v>
+      </c>
+      <c r="F106" t="s">
+        <v>781</v>
+      </c>
+      <c r="G106" t="s">
+        <v>46</v>
+      </c>
+      <c r="H106" t="s">
+        <v>47</v>
+      </c>
+      <c r="I106" t="s">
+        <v>782</v>
+      </c>
+      <c r="J106" t="s">
+        <v>783</v>
+      </c>
+      <c r="K106" t="s">
+        <v>784</v>
+      </c>
+      <c r="L106" t="s">
+        <v>785</v>
+      </c>
+      <c r="M106" t="n">
+        <v>4</v>
+      </c>
+      <c r="N106" t="s">
+        <v>786</v>
+      </c>
+      <c r="O106" t="s">
+        <v>53</v>
+      </c>
+      <c r="P106" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>4</v>
+      </c>
+      <c r="R106" t="n">
+        <v>4</v>
+      </c>
+      <c r="S106" t="n">
+        <v>5</v>
+      </c>
+      <c r="T106" t="s"/>
+      <c r="U106" t="n">
+        <v>4</v>
+      </c>
+      <c r="V106" t="n">
+        <v>0</v>
+      </c>
+      <c r="W106" t="s"/>
+      <c r="X106" t="s"/>
+      <c r="Y106" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>60013</v>
+      </c>
+      <c r="B107" t="s"/>
+      <c r="C107" t="s"/>
+      <c r="D107" t="n">
+        <v>106</v>
+      </c>
+      <c r="E107" t="s">
+        <v>44</v>
+      </c>
+      <c r="F107" t="s">
+        <v>787</v>
+      </c>
+      <c r="G107" t="s">
+        <v>46</v>
+      </c>
+      <c r="H107" t="s">
+        <v>47</v>
+      </c>
+      <c r="I107" t="s">
+        <v>788</v>
+      </c>
+      <c r="J107" t="s">
+        <v>789</v>
+      </c>
+      <c r="K107" t="s">
+        <v>790</v>
+      </c>
+      <c r="L107" t="s">
+        <v>791</v>
+      </c>
+      <c r="M107" t="n">
+        <v>5</v>
+      </c>
+      <c r="N107" t="s">
+        <v>792</v>
+      </c>
+      <c r="O107" t="s">
+        <v>60</v>
+      </c>
+      <c r="P107" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q107" t="s"/>
+      <c r="R107" t="s"/>
+      <c r="S107" t="n">
+        <v>5</v>
+      </c>
+      <c r="T107" t="s"/>
+      <c r="U107" t="n">
+        <v>5</v>
+      </c>
+      <c r="V107" t="n">
+        <v>0</v>
+      </c>
+      <c r="W107" t="s">
+        <v>793</v>
+      </c>
+      <c r="X107" t="s">
+        <v>794</v>
+      </c>
+      <c r="Y107" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>60013</v>
+      </c>
+      <c r="B108" t="s"/>
+      <c r="C108" t="s"/>
+      <c r="D108" t="n">
+        <v>107</v>
+      </c>
+      <c r="E108" t="s">
+        <v>44</v>
+      </c>
+      <c r="F108" t="s">
+        <v>796</v>
+      </c>
+      <c r="G108" t="s">
+        <v>46</v>
+      </c>
+      <c r="H108" t="s">
+        <v>47</v>
+      </c>
+      <c r="I108" t="s">
+        <v>797</v>
+      </c>
+      <c r="J108" t="s">
+        <v>798</v>
+      </c>
+      <c r="K108" t="s">
+        <v>799</v>
+      </c>
+      <c r="L108" t="s">
+        <v>800</v>
+      </c>
+      <c r="M108" t="n">
+        <v>3</v>
+      </c>
+      <c r="N108" t="s">
+        <v>792</v>
+      </c>
+      <c r="O108" t="s">
+        <v>60</v>
+      </c>
+      <c r="P108" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q108" t="s"/>
+      <c r="R108" t="s"/>
+      <c r="S108" t="n">
+        <v>5</v>
+      </c>
+      <c r="T108" t="s"/>
+      <c r="U108" t="n">
+        <v>3</v>
+      </c>
+      <c r="V108" t="n">
+        <v>0</v>
+      </c>
+      <c r="W108" t="s">
+        <v>793</v>
+      </c>
+      <c r="X108" t="s">
+        <v>794</v>
+      </c>
+      <c r="Y108" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>60013</v>
+      </c>
+      <c r="B109" t="s"/>
+      <c r="C109" t="s"/>
+      <c r="D109" t="n">
+        <v>108</v>
+      </c>
+      <c r="E109" t="s">
+        <v>44</v>
+      </c>
+      <c r="F109" t="s">
+        <v>802</v>
+      </c>
+      <c r="G109" t="s">
+        <v>46</v>
+      </c>
+      <c r="H109" t="s">
+        <v>47</v>
+      </c>
+      <c r="I109" t="s">
+        <v>803</v>
+      </c>
+      <c r="J109" t="s">
+        <v>804</v>
+      </c>
+      <c r="K109" t="s">
+        <v>805</v>
+      </c>
+      <c r="L109" t="s">
+        <v>806</v>
+      </c>
+      <c r="M109" t="n">
+        <v>5</v>
+      </c>
+      <c r="N109" t="s">
+        <v>807</v>
+      </c>
+      <c r="O109" t="s">
+        <v>60</v>
+      </c>
+      <c r="P109" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q109" t="s"/>
+      <c r="R109" t="s"/>
+      <c r="S109" t="n">
+        <v>5</v>
+      </c>
+      <c r="T109" t="s"/>
+      <c r="U109" t="n">
+        <v>4</v>
+      </c>
+      <c r="V109" t="n">
+        <v>0</v>
+      </c>
+      <c r="W109" t="s">
+        <v>793</v>
+      </c>
+      <c r="X109" t="s">
+        <v>794</v>
+      </c>
+      <c r="Y109" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>60013</v>
+      </c>
+      <c r="B110" t="s"/>
+      <c r="C110" t="s"/>
+      <c r="D110" t="n">
+        <v>109</v>
+      </c>
+      <c r="E110" t="s">
+        <v>44</v>
+      </c>
+      <c r="F110" t="s">
+        <v>809</v>
+      </c>
+      <c r="G110" t="s">
+        <v>46</v>
+      </c>
+      <c r="H110" t="s">
+        <v>47</v>
+      </c>
+      <c r="I110" t="s">
+        <v>810</v>
+      </c>
+      <c r="J110" t="s">
+        <v>811</v>
+      </c>
+      <c r="K110" t="s">
+        <v>812</v>
+      </c>
+      <c r="L110" t="s">
+        <v>813</v>
+      </c>
+      <c r="M110" t="n">
+        <v>5</v>
+      </c>
+      <c r="N110" t="s">
+        <v>814</v>
+      </c>
+      <c r="O110" t="s">
+        <v>53</v>
+      </c>
+      <c r="P110" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q110" t="s"/>
+      <c r="R110" t="s"/>
+      <c r="S110" t="n">
+        <v>5</v>
+      </c>
+      <c r="T110" t="s"/>
+      <c r="U110" t="n">
+        <v>5</v>
+      </c>
+      <c r="V110" t="n">
+        <v>0</v>
+      </c>
+      <c r="W110" t="s"/>
+      <c r="X110" t="s"/>
+      <c r="Y110" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>60013</v>
+      </c>
+      <c r="B111" t="s"/>
+      <c r="C111" t="s"/>
+      <c r="D111" t="n">
+        <v>110</v>
+      </c>
+      <c r="E111" t="s">
+        <v>44</v>
+      </c>
+      <c r="F111" t="s">
+        <v>816</v>
+      </c>
+      <c r="G111" t="s">
+        <v>46</v>
+      </c>
+      <c r="H111" t="s">
+        <v>47</v>
+      </c>
+      <c r="I111" t="s">
+        <v>817</v>
+      </c>
+      <c r="J111" t="s">
+        <v>818</v>
+      </c>
+      <c r="K111" t="s">
+        <v>819</v>
+      </c>
+      <c r="L111" t="s">
+        <v>820</v>
+      </c>
+      <c r="M111" t="n">
+        <v>4</v>
+      </c>
+      <c r="N111" t="s">
+        <v>821</v>
+      </c>
+      <c r="O111" t="s">
+        <v>123</v>
+      </c>
+      <c r="P111" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>3</v>
+      </c>
+      <c r="R111" t="n">
+        <v>5</v>
+      </c>
+      <c r="S111" t="n">
+        <v>4</v>
+      </c>
+      <c r="T111" t="s"/>
+      <c r="U111" t="n">
+        <v>3</v>
+      </c>
+      <c r="V111" t="n">
+        <v>0</v>
+      </c>
+      <c r="W111" t="s"/>
+      <c r="X111" t="s"/>
+      <c r="Y111" t="s">
+        <v>820</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_281.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_281.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="822">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="930">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>jimmy_walker17</t>
+  </si>
+  <si>
     <t>07/01/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>Teresa E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r562405367-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -204,6 +210,9 @@
     <t xml:space="preserve"> had a reservation at the Hampton Inn next door.  I reserved a wheelchair accessible room.  Unfortunately for us, Hampton gave away our room and tried to put us in a non accessible room. (my son  is in a wheelchair). Since the Hampton solution wasn't going to work for us,  Hampton called the Fairfield hotel and worked with K. at the front desk.  K. was able to get us into a very nice room, fully accessible for my son. When we arrived at the front desk, K was truly welcoming and made us feel like valued customers.  Very refreshing after our rough start to our weekend!! This hotel is very nice, updated, and clean. The room is very nicely setup and enough room for the wheelchair. We will stay here again!! More</t>
   </si>
   <si>
+    <t>starrzz77</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r554005167-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -222,6 +231,9 @@
     <t>January 2018</t>
   </si>
   <si>
+    <t>Joe H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r536977392-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -243,6 +255,9 @@
     <t>I was here for a week on a business trip. This hotel was farther out then the place I was recommended to stay. Glad I chose what I did. Lot's of places to eat close by without hitting all the traffic. Couple of places we just walked to that were not fast food which was extra nice. The staff is very friendly. Front desk always polite and quick to answer all questions and address any concerns. The hotel is very clean. I have stayed in many hotels and the small things I see at other hotels that are not addressed are taken care of here. The elevators are cleaned so no fingerprints all over the doors inside, hallway floors vacuumed every day. Just things I have noticed at other places that are neglected are taken care of here. Congrats to the staff for stepping it up. One other thing is no matter who I passed from cleaning, maintenance, front desk, literally every staff member would stop to take the time to say hello and ask how my stay was or if I needed anything. I hope the management will recognize and congratulate the staff on a job very well done. The breakfast is as good as any I have had and much better than most. They do not let the food run out and usually have a member of the staff that stays out just to monitor everything at breakfast....I was here for a week on a business trip. This hotel was farther out then the place I was recommended to stay. Glad I chose what I did. Lot's of places to eat close by without hitting all the traffic. Couple of places we just walked to that were not fast food which was extra nice. The staff is very friendly. Front desk always polite and quick to answer all questions and address any concerns. The hotel is very clean. I have stayed in many hotels and the small things I see at other hotels that are not addressed are taken care of here. The elevators are cleaned so no fingerprints all over the doors inside, hallway floors vacuumed every day. Just things I have noticed at other places that are neglected are taken care of here. Congrats to the staff for stepping it up. One other thing is no matter who I passed from cleaning, maintenance, front desk, literally every staff member would stop to take the time to say hello and ask how my stay was or if I needed anything. I hope the management will recognize and congratulate the staff on a job very well done. The breakfast is as good as any I have had and much better than most. They do not let the food run out and usually have a member of the staff that stays out just to monitor everything at breakfast. The room was very nice. Bed is comfortable, good sheets and blankets, A/C worked well, good selection of pillows and T.V worked great. Also the mini fridge was actually a fridge and not just a cooler that kept drinks cool and not cold. Microwave and coffee pot were good. Everything in my room was very clean. Carpets clean, behind the toilet was clean and there was not that mysterious ball of hair in the shower.....It may be a while before I have to head back to L.A but when I do I will be sure to stay at this hotel. I hope the head guys at Marriot take notes from this location. Your staff is doing a great job and your customers notice.I was travelling with another employee of my company and he agreed about the staff and hotel. Thank you for a very pleasant stay.More</t>
   </si>
   <si>
+    <t>atlantaaunt</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r530789302-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -267,6 +282,9 @@
     <t>I had read previous reviews and was prepared noise...but you should believe what everyone is saying about the noise.  In hindsight, I should have asked for a room on the top floor ( I was on the 4th).  I left the air conditioner on "fan" all night to help drown out noise from other rooms but you could still hear doors closing and footsteps all night long.  However, the beds were very comfortable, the front desk staff were noticeably jovial and helpful ( I appreciated the kind demeanor after a long flight and 2 hour car ride), the hotel was conveniently located near the highway and a mall, and we were a short drive to Pomona college where we were during a college tour.More</t>
   </si>
   <si>
+    <t>Ralph S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r529194578-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -285,6 +303,9 @@
     <t>September 2017</t>
   </si>
   <si>
+    <t>olollyberry</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r505866872-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -303,6 +324,9 @@
     <t>July 2017</t>
   </si>
   <si>
+    <t>CaboPete</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r500475355-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -318,6 +342,9 @@
     <t>The family and I stayed 2 nights in a king suite, Bed was very soft and comfortable for us. Even know you are right by the freeway we heard very little traffic noise.Maid did a nice job of cleaning up without moving personal items that where left in the room. All in all when would book here again for sure.</t>
   </si>
   <si>
+    <t>caltravelgal</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r499186127-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -336,6 +363,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>Gregpirch</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r471528847-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -354,6 +384,9 @@
     <t>March 2017</t>
   </si>
   <si>
+    <t>Sharkgrl86</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r467575705-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -372,6 +405,9 @@
     <t>My boyfriend stays at this Fairfield Inn &amp; Suites usually 2-3 times a month for business trips. I decided to tag along since I had a day off unexpectedly. Hotel staff were very nice and professional. They knew my boyfriend from his monthly visits and made me feel as though they knew me just as well. The rooms were very clean and the beds were absolutely heavenly. I'm the type of person who likes an extra firm mattress but these were the right mix of soft and firm. Amenities at the hotel were clearly listed and pretty standard. If I had to find one thing about the hotel I didn't like it would have to be the towels. One was very soft and comfy the the rest were rather scruffy. Besides the towels I understand why my boyfriend likes this hotel so much. I'll definitely be back to stay here if I'm in the area again. More</t>
   </si>
   <si>
+    <t>r k</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r466626040-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -390,6 +426,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>Joyce K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r454369740-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -408,6 +447,9 @@
     <t>January 2017</t>
   </si>
   <si>
+    <t>Chad S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r454331772-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -423,6 +465,9 @@
     <t>Another Fairfield by Marriott.  Convenient location right off of the freeway.  Plenty of restaurants and activities close by to choose from as well. Easy to find, easy to access. Plenty of parking. Standard breakfast.  If you are not familiar with the Marriott breakfast...you get scrambled eggs (from bulk), sausage or bacon, assorted breakfast fruits like bananas, cantaloupe, pineapple, and apples. They have various breakfast muffins, pastries, and breads. OJ, milk, and cold cereals. Some have a waffle maker, bagels, and toaster as well.  Hard boiled eggs, yogurts. More than a continental, but not your gourmet breakfast by any means. As you can see from my reviews, I try to stay at the Marriott hotels. Reasonably priced compared to others, and a great place to spend a night or two on the road.More</t>
   </si>
   <si>
+    <t>AP Z</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r452206871-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -450,6 +495,9 @@
     <t>This hotel is right off the freeway, very close to a ton of shopping areas and eateries. The staff were very friendly, from the front desk folks checking us in to the ladies assisting during the breakfast. Speaking of breakfast, probably one of the more decent breakfast we have had in one of the smaller Marriott brand hotels. Usually you get what you pay for, or in this case, not pay for since it's free breakfast but this place had much better breakfast than most.The room was a nice size, a lot of space and had a refrigerator and microwave, which we were very happy about. Allowed us to bring some food back to the hotel, store what we did not eat and warm it next day in the microwave.It is located close to the freeway, close to restaurants and shopping area. There is an IKEA around the corner. It is about 30 minutes to Disneyland with no traffic, although in LA there is traffic most of the time. It is also an hour drive or so to downtown Los Angeles. If you are looking for an hotel that is inexpensive, clean and decent service, this is a good one.More</t>
   </si>
   <si>
+    <t>Lisa G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r446316684-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -471,6 +519,9 @@
     <t>I stayed here for business for 9 nights.  Nearly everything about this place is very good.  So I'll start first with the 2 areas that could be better to get that out of the way.  Another reviewer said the rooms are small. She was right.  I stayed in a regular room the first night but it wasn't much bigger than the bed.  For the price I would have expected more space.  I moved to a suite.  Nice but again, small compared to other suites I've been in with the same property, or Towneplace Suites, or Best Western.  The fitness room - be aware there are TVs on the 2 treadmills but they don't work. The TV up on the wall is hard to see as it is blocked partially by the treadmills.  So that could be better. Otherwise it is a really nice property.  Very clean and nicely decorated. Super comfortable beds and pillows. Lots of parking.  Many places to eat within walking distance.  Very quiet even though right off I 10.  Good breakfast (scrambled eggs as well as omelet, lots of fruit, breads, etc).  Very nice staff.  Overall it will be by # 2 go to place while in the area just because you can get bigger rooms for the same or less elsewhere.  But, those I have tried were not as new or nicely decorated as this one. So it is overall quite goodMore</t>
   </si>
   <si>
+    <t>DDDFJD</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r443882394-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -489,6 +540,9 @@
     <t>Had made a reservation on line months ago.  Last minute added another night to the front end of our trip which was accommodated without a problem - I was grateful.  Finding the location was easy as it sits right off the freeway where everything is under construction.  Our check-in was quick &amp; our request for a room on a high floor on an end was honored.  We were even offered chocolate chip cookies upon arrival &amp; given a bottle of water for each of us, both of which were very nice.  Kelly, our check-in hostess was very nice &amp; fast.  In no time we were in our room.  It was very nice having a small frig &amp; microwave available right in the room.  The bed was EXTREMELY comfortable.  There was a small desk &amp; lamp, perfect for setting up electronics.  The lights next to the bed were perfect.  The room is a tight fit with a side chair crammed into a very small space between the TV &amp; the desk.  The bathroom is decorated in black &amp; white, looking retro but didn't match the rest of the room.  The bathroom is large &amp; had everything we needed.  A couple of the tiles on the bathroom floor are cracked &amp; the bathroom door would not stay open.  The staff was very nice &amp; although we were not able to take advantage of the included breakfast, we were able to enjoy coffee...Had made a reservation on line months ago.  Last minute added another night to the front end of our trip which was accommodated without a problem - I was grateful.  Finding the location was easy as it sits right off the freeway where everything is under construction.  Our check-in was quick &amp; our request for a room on a high floor on an end was honored.  We were even offered chocolate chip cookies upon arrival &amp; given a bottle of water for each of us, both of which were very nice.  Kelly, our check-in hostess was very nice &amp; fast.  In no time we were in our room.  It was very nice having a small frig &amp; microwave available right in the room.  The bed was EXTREMELY comfortable.  There was a small desk &amp; lamp, perfect for setting up electronics.  The lights next to the bed were perfect.  The room is a tight fit with a side chair crammed into a very small space between the TV &amp; the desk.  The bathroom is decorated in black &amp; white, looking retro but didn't match the rest of the room.  The bathroom is large &amp; had everything we needed.  A couple of the tiles on the bathroom floor are cracked &amp; the bathroom door would not stay open.  The staff was very nice &amp; although we were not able to take advantage of the included breakfast, we were able to enjoy coffee &amp; hot chocolate even after breakfast hours are over.  We were always able to find a parking spot but the lot seems a bit small if the hotel ever has a sell-out.  The rates were reasonable &amp; no extra charge for parking.More</t>
   </si>
   <si>
+    <t>carefree85377</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r438640077-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -513,6 +567,9 @@
     <t>I don't really understand why this is called LA - when you put in West Covina and fill out all the info for a new site, it comes back with this motel and calls it LA/West Covina.Makes no sense to me!  Anyway we stayed here on our way back to Phoenix and even tho we requested and were assigned what is probably the least noisy room (103) I was still awakened by 5:00am due to the noise of the highway 10.  It's a fine motel but the noise would keep me from stopping here again.More</t>
   </si>
   <si>
+    <t>Vanessaridout11</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r424815903-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -540,6 +597,9 @@
     <t>Stayed at this hotel in September for three nights at the start of our holiday to the USA. Check in was straightforward but didn't feel very welcoming by the reception staff. Rooms were good, clean and had the facilities required. Breakfast was included and was the usual buffet style which suited our needs. What was disappointing was that the hotel used paper plates and plastic cutlery. We felt this let the hotel down. Overall an average hotel, More</t>
   </si>
   <si>
+    <t>Stewiemom</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r414109611-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -555,6 +615,9 @@
     <t>Staff were all very friendly and accommodating both in person and on the phone. My king suite was directly across from the elevator so I was concerned about noise but the layout of the room has the bed away from it so didn't have any issues. Clean and updated. The only problem was wifi didn't work.</t>
   </si>
   <si>
+    <t>Scott F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r411648569-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -582,6 +645,9 @@
     <t>Hotel is very conveniently located right off the 10. Offers a full complementary breakfast which is great. I found the service and staff to be very helpful.We had a king suite which we didn't realize only included one long room split by a partial wall. Having small kids we booked a suite so that we could have separate rooms. This might have been my oversight but I feel like calling something a suite implies multiple rooms with doors. As a result it was a nightmare getting our kids to sleep. This was the biggest issue. The pool is also very small which is hard to tell in the pictures.More</t>
   </si>
   <si>
+    <t>A TripAdvisor Member</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r397213072-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -609,6 +675,9 @@
     <t>Rooms were extremely small and the curtains looked very tacky, no modern air conditioning system just one of those huge a.c's. Friendly staff at breakfast not at the front desk though they couldn't care less about their customers. Anyways if you have to its not a bad place to stop by. Cleanliness: 7Value for money: 6Breakfast:6More</t>
   </si>
   <si>
+    <t>kulsoom123</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r396458311-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -624,6 +693,9 @@
     <t>The hotel room was small but it was nice and clean and it had a fridge, microwave and coffee machine and tv. The bad thing was they didn't allow an extra bed and the coffee machine was dirty inside so I went downstairs to get hot water (they had coffee downstairs for free). It was a nice hotel overall.</t>
   </si>
   <si>
+    <t>LANDY31</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r391982257-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -645,6 +717,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>Sharnjit_Sondh</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r369747618-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -663,6 +738,9 @@
     <t>June 2015</t>
   </si>
   <si>
+    <t>csse</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r362696952-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -690,6 +768,9 @@
     <t>With its convenient location near many shops and restaurants, this midrange Marriott property attracts many travelers. However, the front desk staff seemed indifferent, even to its gold elite members. The staff at the free breakfast, on the other hand, was extremely helpful.The equipment in the fitness room seems worn out. For example, the treadmill felt bumpy under your feet. The room itself is clean but quite basic. The shower in the bathroom still has plastic curtains, unlike the more sanitary glass door that other hotels start to install.More</t>
   </si>
   <si>
+    <t>Adam M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r361924526-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -705,6 +786,9 @@
     <t>this location is solid, right on 10 and near 57, proximate to various restaurants and stores within a few blocks.continental breakfast is very solid, and the space is nice.small pool that is in the shade until afternoon. smaller parking lot. my king room was very small (likely unique, as a utility closet took up the typical space of a hotel bathroom, pushing everything back toward the window). bring earplugs if you like it quiet- interstate traffic is audible in rooms.recommended, with a few caveats.</t>
   </si>
   <si>
+    <t>dsg560</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r350327449-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -732,6 +816,9 @@
     <t>Front Desk was very friendly. Our room was wonderful. We had a small suite and it was immaculate. We loved the location as it was easy to get around. The hotel was very comfortable. We would definitely stay here again!More</t>
   </si>
   <si>
+    <t>Chamberchief</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r349830601-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -750,6 +837,9 @@
     <t>Arrived a little before check-in time but the young man at the desk did everything in his power to ask housekeeping to move to our room(s) next. Within 30 minutes they were ready upgraded to a beautiful suite and  named the VIP of the day. Box of goodies came with that. Very clean and quiet and even the breakfast area was busy due to group of girls softball players, there was plenty of food with a nice variety. This will be my hotel when in this area again.More</t>
   </si>
   <si>
+    <t>HLG53</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r348672846-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -774,6 +864,9 @@
     <t>We stayed at the property as an overflow location for an event at Cal Poly.  We were pleasantly surprised by the efficient check-in process; great hot breakfast the following morning included in the price.  The lobby was clean and rooms were in great condition. Although it says Los Angeles if that is your destination this is not that close.  Ontario is a more convenient airport to this property.More</t>
   </si>
   <si>
+    <t>jdwiser</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r338328494-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -801,6 +894,9 @@
     <t>My wife and I stayed at Fairfield for 4 nights. From the booking of the room, appearance of the hotel, staff friendliness, quality breakfast buffet, and hot coffee availability, Fairfield was exceptional in every category. The building appears to be fairly new with updated furnishings. The room and bathroom was very clean. We highly recommend Fairfield in West Covina!  More</t>
   </si>
   <si>
+    <t>maps2soto</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r335579239-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -819,6 +915,9 @@
     <t>We used this hotel when we visited my SoCal family mid-December. We've stayed here before in Sept 2012, but didn't write a review back then. We had a pleasant stay then, that's why we stayed here again. It is very convenient and within walking distance of a lot of shops and eateries and close to freeway (I-10). This hotel can accommodate my family of five (2 adults and 3 kids). My kids love the make-your-own waffles for breakfast. It's free parking, free wifi, free breakfast. There's a microwave and mini fridge in the rooms. The beds and rooms are clean and the pillows are super comfortable. I love that there are 2 TVs (one for kids and one for adults.)  The only downside to this hotel was the pull out sofa bed. My daughter and son played rock-paper-scissors to see who would get stuck with the sofa bed. My daughter lost and she said the sofa bed was uncomfortable. She said she tossed and turned all night cause of it. She could feel the bed springs.Since I don't have to sleep on the sofa bed, I still would stay at this hotel in the future. More</t>
   </si>
   <si>
+    <t>LVnana16</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r328770718-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -846,6 +945,9 @@
     <t>Even though I make a little fun of some of their decor  this is really a great place to stay.  We have been here a couple of times along with a travel softball team, and we could not have had better service.  This seems to be a favorite place to stay for many different youth sports teams, but the noise level is never elevated, and guests are always well behaved. The staff is unfailingly helpful, welcoming, and friendly. The rooms are always clean, comfortable, and the room arrangement is very useful for the size. The breakfast buffet is very well done, with a good selection, and everything prepared very nicely. You could not ask for a better place to stay that is very convenient and always presents the same high standards. More</t>
   </si>
   <si>
+    <t>NDonna14</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r311611273-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -873,6 +975,9 @@
     <t>Great hotel and staff! Everytime my family and I come to California this is our go to! Clean lobby, good coffee and tea, comfy beds, rooms are nice and spacious, staff are very friendly with great customer service! Only down fall is the pool area is so small.More</t>
   </si>
   <si>
+    <t>Panqu W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r311419413-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -891,6 +996,9 @@
     <t>A very convenient hotel- right across I-10, but very quiet- cannot hear highway noise at all. Stayed for one night during roadtrip from Bay Area to San Diego, arrived at 9pm or so, check-in smooth and efficient, room clean, bed comfortable, breakfast pretty good- an excellent Marriott (fairfield) standard hotel!More</t>
   </si>
   <si>
+    <t>LHelker</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r305526290-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -918,6 +1026,9 @@
     <t>I came to W Covina for a high school reunion. My flight was very early on Friday, and the staff let me check in early, which was great. The bed was really great, the amenities were nice. Breakfast was very good. The hotel is on the same block as a Marie Callenders and a Tostitos. One block away is a Starbucks and a few more restaurants at the Eastland Center. A couple blocks away is an In n Out Burger for the true SoCal experience. And it's just behind an IKEA.Only downside was that once in the hotel, my Sprint-based phone did not work. They were willing to take my one long-distance phone call off my bill.More</t>
   </si>
   <si>
+    <t>Enjoyingmytravels</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r291941620-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -945,6 +1056,9 @@
     <t>We arrived at this hotel at 1:00pm.  The staff had our room ready for an early check in.  We were offer free bottles of water, a gesture that is well appreciated.  We had a room on a high floor that was clean and quiet. It included a small refrigerator that we reserved ahead of time.The Plaza West Covina Mall is 10 to 15 minutes away.  We had dinner at the HK2 Plaza, which is 15 minutes away.This hotel had a nice breakfast area, which is kept very clean. Check out was a breeze. We will stay in this hotel again whenever we are in the area.More</t>
   </si>
   <si>
+    <t>Rocknjo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r286483386-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -969,6 +1083,9 @@
     <t>Clean hotel although needs an upgrade.  I've been here twice on business and it is very satisfactory.  Amazing amount of television channels but I had to turn on the sleep timer on the TV as their remotes give no access to this.  Great location as there are many restaurants and shopping areas nearby.  Beds were soft, too soft for me so I woke in pain.  But that is my issue.  The breakfast was only ok.  The same items every day, powdered eggs and sausage and waffles. Plus the usual breads and two kinds of muffins.  There is also a small sampling of fresh fruit and yogurt.  Not the nicest but it is suitable.  I would return here if business requires.  I flew into John Wayne Airport.More</t>
   </si>
   <si>
+    <t>Supertier</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r274213324-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -996,6 +1113,9 @@
     <t>Smoothest Check In Process.. the  front desk was very helpful with tips for Dinner.  Easy and Free Parking, Wifi and a very decent breakfast.  Comfy Bed.. the only thing was the toilet is close to the toilet paper holder... they might consider moving it a bit..More</t>
   </si>
   <si>
+    <t>ocsuzee</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r264118205-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -1023,6 +1143,9 @@
     <t>I travel every week and was so disappointed in the quality of the bed !!!!  This hotel was clean, convenient and had great front desk staff. The downside is that the bed was hideously soft with no support and was very noisy with the fact it sat next to the I-10.  I wouldn't choose to stay here again for these reasons.More</t>
   </si>
   <si>
+    <t>ekhrsl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r263501377-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -1050,6 +1173,9 @@
     <t>We have stayed here multiple times when visiting our daughter at APU. Very friendly staff, clean rooms, breakfast included,  comfortable beds, very reasonable rates-all the reasons  we continue to return. A small issue with the drier when we did laundry on one visit. Our money was quickly returned and maintenance was repairing it within minutes. We will continue to return as long as the quality and value remain.More</t>
   </si>
   <si>
+    <t>rparmig</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r263311011-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -1068,6 +1194,9 @@
     <t>Nice hotel.  I stayed at others in the area and this was the best.  Good breakfast, clean and good internet.  Rooms look like they were just redone and breakfast was pretty good for this type of property.More</t>
   </si>
   <si>
+    <t>Anne B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r260051159-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -1086,6 +1215,9 @@
     <t>Stayed here for a two night business trip. The location is very convenient to the 10. There are several restaurants within walking distance. Their free breakfast was adequate. The fitness center was nice with two treadmills, an elliptical, and some weights. The outdoor pool was small but clean. Would stay here again.More</t>
   </si>
   <si>
+    <t>LYNDA G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r252821167-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -1113,6 +1245,9 @@
     <t>We stayed at this Fairfield Inn tipo take advantage of the good shopping opportunities aka IKEA !  Besides being walking distance to Ikea ther was also a huge mall a short drive away with multiple dining and shopping options.  The hotel was very clean and the personnel were great!  The free breakfast was very good and there was a pretty good selection of items.  The pool area was very nice and also very clean.  My only complaint is that the room had a little bit of a musty smell but it was not that bad.  All in all a great place to stay and so convenient to the freeway.More</t>
   </si>
   <si>
+    <t>fracz</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r250340793-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -1137,6 +1272,9 @@
     <t>This is a very nice hotel.  It is probably suited for a nice businessman's hotel or an efficient traveler's hotel.  The Marriott standards are very clearly enforced.The manager reached out to me, before my stay, by email, to welcome me to the hotel.  Very nice.Hot breakfast was very good.  Linens and carpets very clean.  TV was an HD flat screen.It is in a nice, blue collar part of town,.  The hotel itself is in and near malls and shopping.  It is right off the I-10.It took a half hour to drive to the ocean or Hollywood so these areas were accessible without the premium prices.More</t>
   </si>
   <si>
+    <t>bubba3122</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r246537636-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -1164,6 +1302,9 @@
     <t>I was not impressed at all.  The room was as small as many european hotels (Inn and Suites???) and I could hear the traffic from the highway all night long.  I've stayed at airport hotels that have better soundproofing than this one.  First and last time I will ever stay here!!More</t>
   </si>
   <si>
+    <t>EamonWilson</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r246248683-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -1182,6 +1323,9 @@
     <t>Great hotel, not bad location, shuttle bus to train station, gym, pool, clothes washing and drying facilities, excellent staff very helpful and polite. Fabulous room, air con, breakfast ok self service as much as you want and a good variety More</t>
   </si>
   <si>
+    <t>Alexis S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r245649470-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -1203,6 +1347,9 @@
     <t>I enjoyed my stay at this property. Jasmine M. checked me in and she was very friendly and informative. The bathrooms were cool and modern. Breakfast was very nice. I loved the fresh cut fruit salad. I will definitely stay here again.More</t>
   </si>
   <si>
+    <t>lecsm</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r241182068-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -1230,6 +1377,9 @@
     <t>Spent just one night here, but the entire experience was excellent. Public spaces, pool area, and room were all immaculate.  We were greeted by a friendly, helpful staff. The breakfast was fresh and plentiful.  We will stay here again.More</t>
   </si>
   <si>
+    <t>Aleah L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r239111989-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -1257,6 +1407,9 @@
     <t>Kudos! A few of my colleagues were requested to attend an almost month long assignment in the area, and this hotel was suggested. Everyone reported they enjoyed their room and facility. The front desk staff as well as the Asst. Manager went above and beyond assisting me with extending reservations, retrieving weekly folios, and making sure my colleagues felt welcomed. Thank you again.More</t>
   </si>
   <si>
+    <t>mojang</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r237855767-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -1284,6 +1437,9 @@
     <t>We stayed here for 3 nights and found the rooms clean and updated.  The front desk was very friendly and helpful as I had some packages delivered and they had them on the counter even before I asked for them.  I found the ceilings unusually high which made the room and washroom feel more spacious.  The hotel serves a nice hot breakfast that was replenished often.  There was always yogurt and fruit, fresh made waffles, muffins, juice, coffee, and eggs (sometimes scrambled or boiled or both) and sausages or bacon. We found the elevators a bit slow (especially when there was a large school group checked in) but used the stairs since we were only on the 2nd floor.  Wifi is complementary and the room had lots of channels on the TV.  Parking is plentiful and we never had an issue finding a spot even coming back late at night.  I only have two gripes: the lack of outlets for charging our devices and the loud air conditioner unit.  I prefer to have outlets closer to the nightstands and the air conditioner was loud and tended to knock around the curtain poles.  All in all a great stay but located a bit far from central LA.  If this location works for you, then I would definitely choose this hotel over others.More</t>
   </si>
   <si>
+    <t>Steve F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r228910517-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -1306,6 +1462,9 @@
   </si>
   <si>
     <t>We stayed at this location with my Son's high school club baseball team from Colorado.  The hotel staff were A+ from the front desk to the breakfast crew and the house cleaners. The rooms were clean as any one could ask for.  The beds were good.  Top of the line TV's.  The small gym was very good, and equipment worked.  The pool and hot tube clean.  It was 103 degrees while we were there.  The rooms were nice and cool.  Coming back to the rooms after all day baseball, the swimming pool was chilled and a delight after brutal day long heat.  Refreshing.   The morning breakfast was really good.  Eggs, bacon, bagels, cereal, fresh fruit, ripe bananas.  Lots of food.Coffee was good.The area is very central.  Marie Calendars two doors down, the pie is good.  Hooters three doors down.  LA fitness between hooters and Marie calendars run or work off, pie and hooters wings.Starbucks half a mile away, In and Out burger within a mile.Target store, 1.5 mile away.Our playing fields were all close.We flew in to Orange County John Wayne airport.  27 from our hotel.More</t>
+  </si>
+  <si>
+    <t>Lepha</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r227813216-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
@@ -1338,6 +1497,9 @@
 There are other hotels within walking distance of the Fairfield (I think they are the Hampton Inn, Holiday Inn Express, and a Best Western).  If you have chemical sensitivities like I do, I recommend you...IF YOU ARE AT ALL SENSITIVE TO CHEMICALS, PLEASE READ!I've stayed at this property about a half dozen times and have had good experiences.  When I entered the hotel last week, I was immediately hit with a strong, overwhelming odor of pineapple and coconut.  I mentioned it to the front desk gal, and she happily said it was "pina colada."  I should have turned around and gone to a neighboring hotel, but I didn't.  : (  I was at this property for 2 nights; the odor was overwhelmingly strong in the common areas (lobby, halls, etc.).  I skipped breakfast both mornings.  The odor couldn't be detected in my room, but I put a water-soaked towel in the door crack.I sent a note to Marriott and shared my concerns, and indicated that people with chemical sensitivities will struggle.  Someone replied immediately.  She indicated "Our scent has been turned down to be less fragrant, however we choose our scents thru brand specifications."  Huh?  I've written back and asked what this meant -- if all Fairfields will now have some type of intentional odor, but haven't heard back yet.  (The woman has been very responsive -- I just wrote the last note a few hours ago.)  There are other hotels within walking distance of the Fairfield (I think they are the Hampton Inn, Holiday Inn Express, and a Best Western).  If you have chemical sensitivities like I do, I recommend you choose another hotel.  We stay in Marriott properties at least 30 days a year -- but this specific property is now off our list.More</t>
   </si>
   <si>
+    <t>Denise C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r226161332-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -1365,6 +1527,9 @@
     <t>Great experience.  Everyone from the front desk staff  to house keeping were polite and professional.  Rooms are very clean. Kenny was great with accommodating our needs. Prices were a little higher than neighboring hotels but it was well worth it!More</t>
   </si>
   <si>
+    <t>Sundance1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r221470030-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -1392,6 +1557,9 @@
     <t>This hotel does not seem like your average Fairfield. It's on the same level as most Courtyards. I actually looked at the literature in the room to verify it was a Fairfield. Very clean, fairly new. Very comfortable. We stayed here for a night during a baseball tourney at Azusa Pacific and Citrus College. Wish we would have known about this hotel earlier in the week. We stayed in Anahiem, which made for a 1 hour drive thru traffic. This was very close to Azusa. Not many hotels close to Azusa. This hotel is within walking distance to a few restaurants. If you are a long stay, get a first floor room. We were in 101 close to laundry, ice and breakfast. Perfect if you don't want to run back and forth to check on laundry.More</t>
   </si>
   <si>
+    <t>Lexie N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r219291520-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -1416,6 +1584,9 @@
     <t>Just came back from a week stay here and my family and I were very pleased. It is nice and clean and centrally located with a very attentive staff. No complaints at all. Very appreciative of everything. Thank you!More</t>
   </si>
   <si>
+    <t>Joe E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r215832039-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -1440,6 +1611,9 @@
     <t>Front desk staff was very friendly and so was staff. Rooms were clean and the hotel was excellent overall. Only issue was with breakfast. They said they served until 9 am and 3 of the mornings we were there, they ran out of food, milk and yogurt by 8:30 am and did not refill them. More</t>
   </si>
   <si>
+    <t>michellez007</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r214192922-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -1464,6 +1638,9 @@
     <t>We stayed in West Covina for 5 days.  We had two connecting rooms and were able to spread out nicely. The hotel was clean and comfortable.  The staff was so amazing! The front desk was so helpful always! The cleaning crew did an amazing job cleaning my room everyday.  We had a blow up mattress and she even made that bed just like the others.  Truly a fantastic stay! OH and the breakfast was great. Eggs, bacon or sausage and waffles daily. My kids were in heaven and talked about breakfast all day long. At dinner they would say, "I cant wait until breakfast tomorrow."More</t>
   </si>
   <si>
+    <t>Francisco C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r214164778-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -1479,6 +1656,9 @@
     <t>After a horrible experience at a hotel nearby decided to give this place a chance. Absolutely amazing. This hotel was clean, the staff was super professional. Free breakfast. Great coffee. Lots of restaurants and shops close by. Highly recommend .More</t>
   </si>
   <si>
+    <t>Scott D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r211485936-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -1506,6 +1686,9 @@
     <t>Stayed for 3 nights.  Room was very quiet despite being above the pool and near elevator.  Room very well insulated.  Friendly staff, no complaints.  Free Breakfast was nice for this class of hotel (self-serve, not made to order).  More</t>
   </si>
   <si>
+    <t>kit9172</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r208266837-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -1533,6 +1716,9 @@
     <t>I am on oxygen 24/7 and try to stay at Marriott hotels because of their service and comfortable beds. This Fairfield Inn has the best customer service of any Marriott I have ever stayed, we are talking for at least 20 years. When I could not go out because the weather was so hot one of their employees went and picked me up lunch at the Mexican restaurant next door. They also took me to a Fed Ex store to mail some of my things back home. I can't say enough about them, from their manager to various employees on the desk to housekeeping. Above and beyond they went to make my vacation better. Thank you all. Catherine CostellaMore</t>
   </si>
   <si>
+    <t>RoderickandAdrianne</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r208110606-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -1551,6 +1737,9 @@
     <t>My daughter goes to Cal Poly University. For orientation we stayed at the hotel on campus. It was okay, but nothing around. The next time we stayed at what we were told were the closes. I had to cut my stay short. For my last few stays I have stayed here and it has been wonderful. The staff is great and the hotel is clean with everything close. The price is perfect. More</t>
   </si>
   <si>
+    <t>Megan C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r207398380-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -1575,6 +1764,9 @@
     <t>We needed a place to stay that was between the two LA baseball teams... And it was a good one. It was right off the highway, which at night you could hear the large trucks go by but when the AC was on no problems! Restaurants were close and breakfast was a nice hotel hot breakfast. Our suite was perfect and we had a great stay.More</t>
   </si>
   <si>
+    <t>Podperf</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r205976590-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -1599,6 +1791,9 @@
     <t>From the get-go, this was rough. I should have recognized the red flags of poor customer service. They put me on hold for over 10 minutes… I proceeded to hang up and call back only to be answered promptly. Indicates they forgot about a customer. That's not good. I asked for a fridge, they said there were none. I asked for a crib, they delivered it without sheets. The next day when our party came to join us, they got a fridge no problem (sharing with us of course, but they should have made a note and given it to us as we were staying for 3 nights - they offered us the fridge in the front for any perishables we might have brought (nice thought but a little odd). The next day, our keys magically expired at checkout, even though we stayed for 3 nights in the same room. The breakfast was fine, rooms were decent. Requested an adjoined room and was not guaranteed it because apparently it is against Marriott's policy to secure connecting rooms (?) and although it was annoying to be denied the guarantee several times (as both parties called to put a request) it was given to us. BUT, at check in I had to be moved from another room because they overlooked my request. Customer service was super poor. And that's really sad for a marriott.More</t>
   </si>
   <si>
+    <t>R. G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r205133789-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -1623,6 +1818,9 @@
     <t>The staff is friendly and helpful. The facility is kept up and clean. The breakfast was very convenient with the wide range of hot breakfast items. Parking is included and well situated. If I have any complaints, there were only two. The exhaust fan in my bathroom was very weak which allowed for no ventilation of shower steam at all. My bed headboard was adjacent to the next unit's wall where their TV was situated, and of course, was on all night by that guest. This is poor furniture setup design. The rooms should have staggered bed to tv room positoning.   More</t>
   </si>
   <si>
+    <t>1sttimeincancun</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r203526509-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -1650,6 +1848,9 @@
     <t>Checked in on Saturday night and the front desk girl was really friendly. I told her I had sleep issues so I prefer a quiet room, I've got Rm. 113 (the end of hallway) and it's not facing freeway. My room was quiet until 6am on Saturday, I woke up by the loud knocking noises, I asked the slender gentleman with the glasses at frontdesk, he said he will ask someone to check, but he never did, he seems to be aware of the problem and said it could be water heater, He said "sorry about that, our rooms are all earthquake proof...etc", but I'm very disappointed because he didn't care how I feel and didn't offer any solution at all. After a long road trip from San Jose, I only got 4 hours sleep here. If you are a night owl like me who don't like to wake up at 6am, please stay away from the end unit, the noise is worse than freeway.More</t>
   </si>
   <si>
+    <t>Christine S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r195555270-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -1677,6 +1878,9 @@
     <t>A bright, modern hotel which is very attractive, clean and has easy parking.  There was no problem with an early check in, the staff were very helpful and gave us a bottle of water each.  Coffee is available all day in the lobby and there is comfortable seating, tv and a business centre.  The room was spacious, comfortable and had coffee making facilities.  There was a pool and a hot tub which would have been useful in warmer weather.  Breakfast was more than adequate with plenty of choice and hot and cold drinks.  The location was good for the local shopping mall and bars/restaurants.  We had no problem driving from West Covina to Hollywood, Burbank and Brea.  We enjoyed our stay.More</t>
   </si>
   <si>
+    <t>Mark M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r195333452-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -1698,6 +1902,9 @@
     <t>We stayed at this hotel as we traveled to see my son's Marching Band march in the Rose Parade.  Arrived late on New Years eve, check in was great, host even gave us inside information for trip to Pasadena the next morning &amp; avoiding traffic.  Only in room for a few hours. Room was well appointed, bathroom nice but small.  Hotel even put together breakfast bags for those that were leaving the hotel early for the parade!!  Great access to the freeway and easy drive to the parade.More</t>
   </si>
   <si>
+    <t>marigold60763</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r194072155-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -1719,6 +1926,9 @@
     <t>This Fairfield Inn is relatively new and is quite comfortable with every needed convenience.  It is a very good value and quite convenient for a stay in the West Covina area.  Overall, it is very similar in quality to the Hampton Inn next door.More</t>
   </si>
   <si>
+    <t>AndyR2</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r190962542-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -1734,6 +1944,9 @@
     <t>Everything you'd expect from a Fairfield Marriott. Clean, decent breakfast, comfortable bed. There are restaurants close by, wall-mart, target, ikea, gyms all within 1mile. Great access to highway. Location is nice. Would stay here again. Talk to front desk they can give recommendations for restaurants some of which offer discounts if you show your room key.More</t>
   </si>
   <si>
+    <t>Britishcats</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r188904826-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -1750,6 +1963,9 @@
   </si>
   <si>
     <t>We stayed one night in the Fairfield Inn West Covina, California in mid-December 2013. This is a well maintained property and our stay was enjoyable. The rooms are small. But everything was extremely clean and the bathroom was spacious. Beds and pillows were comfortable and the hotel was very quiet. Breakfast is adequate---no better or worse than other chains. And rates were reasonable especially for Southern California. Would recommend this hotel.More</t>
+  </si>
+  <si>
+    <t>Tracy Z</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r188332145-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
@@ -1774,6 +1990,9 @@
 The king room I originally booked a bit small for my tastes,  but if you are looking for a comfy clean place to lay your head, not spending hours in the room...you will not find this ethereal of a sleep in any room as reasonable as here.  I chose to upgrade to the suite...I could definitely be quite comfortable living in this space..give me an oven..we are good to go!  The suite also comes with a microwave and mini fridge.  The regular room does not. BUT... Kimberly at...I'm always surprised  and get very tired with reviews that seem to think that every hotel should be the Ritz when they are paying 100 bucks a night in Southern California....not gonna happen...  but if there was a Ritz of Fairfields,  this one would qualify.  I am judging this Fairfield against other Fairfield properties and it is superlative.  (Anaheim Hills another Fairfield in the superlative category)  As you may read in other reviews,  yes,  the beds are magical.  I was working on my laptop around 11pm,  wasn't sleepy at all, and poof..I woke up at 5 am ...laptop next to me,  little bit of drool and and my face with a tattoo of the bedspread that was wrinkled underneath me... And felt so amazingly refreshed.  And it was the same the second night ...except I consciously went to sleep and woke up..only 6 hours..feeling amazing.....I was pouting when I was checking out. The king room I originally booked a bit small for my tastes,  but if you are looking for a comfy clean place to lay your head, not spending hours in the room...you will not find this ethereal of a sleep in any room as reasonable as here.  I chose to upgrade to the suite...I could definitely be quite comfortable living in this space..give me an oven..we are good to go!  The suite also comes with a microwave and mini fridge.  The regular room does not. BUT... Kimberly at the front desk was very patient and awesome offering right away to bring a mini fridge up to that room in case I didn't want to upgrade.  As I ended up in the hotel room more than expected,  I am glad I went for the bigger space.  Love the suite open layout! Staff was exceptional, Front desk, Guest services, and housekeeping... you are awesome!   Very quick with responding to my several requests, which after my initial changing of rooms I felt like I was being a high maintenance guest which they never ever acted as if I was.  I wouldn't have blamed them at all...and they were genuinely happy to help.  Breakfast very good,  waffles, eggs, sausage, bacon ..they did run out of bacon though...happens at most comped breakfasts so not holding it against them.  But note to hotels..EVERYTHING is better with bacon...most of us can live without the sausage...bring on more BACON!  :)   Power outlets were a plenty and readily accessible,  everything was clean and in working order,  really good water pressure ...and I will stay here again....sooner than later...  There is an Ikea within a two minute walk!  And a shopping center at the closest major intersection... Yay!   Many restaurant choices very close..My only complaint...which is a small one...kill the vacuuming in the halls until noon checkout... :)More</t>
   </si>
   <si>
+    <t>gappie</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r180262479-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -1801,6 +2020,9 @@
     <t>We stayed in one of their suites, which has two queen beds and a sofa bed.  There is no door that separates the two queen bed and sofa bed, and it could get pretty tight in spacing when the sofa bed is in use.  Besides the standard Fairfield inn amenities, there is also a fridge and microwave in the suite; which could be useful for some people.  The location is great, with freeway ramps close by, few restaurants, and a Walmart and Target.More</t>
   </si>
   <si>
+    <t>mmrr4</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r179479088-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -1816,6 +2038,9 @@
     <t>Stayed one evening on business. Place was clean, updated and close to the highway. Plenty of parking. Service was fine--no issues or problems. No issues with internet in room. Overall, recommended property.</t>
   </si>
   <si>
+    <t>Bruce L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r177815241-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -1843,6 +2068,9 @@
     <t>Great addition to hotels along I-10 in West Covina. Essential hotel requirements exceptionally well done. A well maintained and smart looking modern facilities. Lots of pride, helpfulness and friendliness demonstrated by all members of the staff. We were treated to a comfortable and functional room with a compact and efficient layout. The non-smoking facility was big plus. Small workout room, pool and whirlpool among list of facility features. On-site free parking is also included. Free daily breakfast is provided. An especially nice feature is complimentary wireless internet is part of the package. Location is a short distance via I-10 from the Los Angeles County Fairplex and Cal Poly Pomona. The Fairfield Inn is a gem!More</t>
   </si>
   <si>
+    <t>Cinammon_Hearts</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r171973193-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -1864,6 +2092,9 @@
     <t>Last year we stayed at Fairfield Inn West Covina LAX. The hotel room was nice as well as the staff. We came back because we like it.July this year we stayed there again and it was a total nightmare. We booked for a king side bed and they checked us in a room for two double sized bed! My husband and I can't fit in one bed. I didn't get to sleep well the whole time we stayed there.The hotel served free breakfast.The hotel has a fitness center and a swimming pool.The staffs aren't that bad.More</t>
   </si>
   <si>
+    <t>Tori C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r171275750-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -1882,6 +2113,9 @@
     <t>I stayed here for a reunion that I recently had In Diamond Bar. All other hotels were taken or going for an absurd price and we were lucky enough to find this hotel. On arrival, I was a little stressed and was able to get checked in quickly. I enjoyed their hot chocolate machine in the lobby and was amazed at the selection and variety of foods during breakfast. The service was pretty good as well. Lastly, I loved being close to the freeway so that I could get around easily. I would definitely stay at this hotel again. The rooms were comfy and pretty and the bathrooms were beautifully decorated. I loved it!More</t>
   </si>
   <si>
+    <t>72GG_travels</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r170446985-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -1900,6 +2134,9 @@
     <t>On a quick overnight trip to the area for a family gathering, we decided to try a different place than where we usually stay when visiting family. Having grown up in the area we were familiar with the location. This area is slowly being revamped. Facility is clean, staff was friendly.  Nothing was outstanding and nothing was terrible.More</t>
   </si>
   <si>
+    <t>Almange</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r164850246-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -1918,6 +2155,9 @@
     <t>June 2013</t>
   </si>
   <si>
+    <t>Julie N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r164513424-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -1936,6 +2176,9 @@
     <t>In town for 3 nights and stayed at Fairfield Inn &amp; Suites.  Super location to I-10 for ease of travel and lots of food choices near by.     2 boys ball teams were staying in hotel at the same time and they got VERY loud at the pool w/ no supervision, and when one Dad did come out beer was in hand (room was pool siide)  but once they finally went inside it got relatively quiet other than I-10 rumble and helicopters off and on most of the night.   We ran the fan on low and that pretty much cancelled out that issue.    With family of 5, breakfast included makes this a great choice to stay.   With both ball teams in food area, we had to find a tight corner and eat off our laps by the front doors, but it worked.    We ate at Marie Callenders a few doors down, costly for a fam of 5 ($70) but oh was food good.   Used the laundry room and glad no one else had that in mind as there was only 1 washer and 1 dryer.  Overall, A comfortable 3- nights stay in a very clean room.    On our 13-day trip, was only Mariott property that we stayed out that would not give us a AAA rate.More</t>
   </si>
   <si>
+    <t>RSC81400</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r161282020-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -1954,6 +2197,9 @@
     <t>May 2013</t>
   </si>
   <si>
+    <t>ANDY1888</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r156241587-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -1975,6 +2221,9 @@
     <t>We had a hard time sleeping as there was a noise every 10-15 minutes. They gave us a room next to the elevator on the second floor even though I had asked for a room on a high floor. I am not sure if the noise is from the ice machine or from the elevator. The breakfast was average as there were a bunch of people eating Jimmy Dean breakfast sandwich but by the time we got there at 8am, it was already all gone and the kitchen staff did not place any more out for us to have some.More</t>
   </si>
   <si>
+    <t>Godzilladude</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r155894025-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -1993,6 +2242,9 @@
     <t>We needed a hotel out in the northern burbs of LA, close to Ontario airport, and this place worked well. Just off I-10, but far enough removed that highway noise was pretty minimal. Everything was in good shape. Breakfast was good. It was the PEOPLE that made this place really good. When I arrived at 1AM, the person at the counter asked if I wanted a bottle of water and some snacks, which I gladly took. My family and I stayed for four nights, and several times I would come down to ask questions or directions for things I could not readily determine. I never could stump them, always had a good answer. Internet worked well. Just an absolutely trouble free and enjoyable stay.More</t>
   </si>
   <si>
+    <t>SJSharkFan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r155382893-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -2011,6 +2263,9 @@
     <t>Looks and feels brand new.  Pleasant welcoming staff, modern clean rooms. Great value as it is a level one on points but shows like a level 4.  Awesome, love this place as my base anytime I'm in LA.  Free WiFi and breakfast. Thanks Marriott!!  Your management at this place are doing a great job More</t>
   </si>
   <si>
+    <t>MOButterfly</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r150770685-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -2032,6 +2287,9 @@
     <t>We had reservations for 4 rooms, 12 of us spending the night to attend the Rose Bowl Parade the next day.  I had made the reservations almost a year in advance.  All of us were very pleased with the rooms, they were clean and beds were comfortable.  It was also a very quiet place even though the freeway was so nearby.  The staff was very friendly and helpful from the beginning phone calls to our actual stay.  They printed us maps &amp; gave directions which was a big help.  Having several nice restaurants so close was great, we walked to one for dinner that night.  We were in a rush to leave the next morning so didn't take time for the breakfast.  I would definitely recommend this hotel.  Sue L.More</t>
   </si>
   <si>
+    <t>ShariH394</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r148633017-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -2047,6 +2305,9 @@
     <t>We stayed for 3 nights for the Rose Bowl Parade. The hotel is very clean, breakfast is great and the front desk super helpful. They helped us find places to eat for a large party of 9 and called around to assist us finding a table with no wait. Concierge service!  Also, great directions and advice. Our room was lovely as well! I heard no freeway noise and had no complaints. Great price and great hotel!</t>
   </si>
   <si>
+    <t>bpdogs</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r147582082-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -2065,6 +2326,9 @@
     <t>August 2012</t>
   </si>
   <si>
+    <t>Janny V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r139603392-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -2101,6 +2365,9 @@
     <t>We only stayed here for one night. Next time we visit family in So Cal again, we will definitely come back to this hotel. The price ($129/night) was great for our family of 5.  Overall, the hotel was clean (room and lobby area). Staff was friendly and courteous. We liked their complementary wifi and breakfast. The kids liked the make-your-own-waffle station. You have to be patient though, cause everybody wants to eat a waffle and there is only one waffle maker. We had to wait in line (not a big deal since we weren't in a rush).  This hotel is also close by a lot of restaurants and close to IKEA and a mall. Also really close to freeway, but you can't hear the freeway noise.  I would definitely recommend this hotel. More</t>
   </si>
   <si>
+    <t>jmlalley3</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r138536071-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -2116,6 +2383,9 @@
     <t>This is a nice, affordable place for the LA area. Friendly attentive staff, good Internet, spotless rooms, close but not to close to the I-10.  We feel safe and secure here. I will certainly book again on my next trip.</t>
   </si>
   <si>
+    <t>AnnaMaria123</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r137117416-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -2131,6 +2401,9 @@
     <t>Great hotel, vrey close to ikea. About 45 min to santa monica beach. Overall, very clean. The only downside was that i requested a room on a high foot away from the elevator and got one on the second floor right next to the elevator. However, that did not cause a problem since no noise could be heard. Check-in was easy and smooth. We checked in t about one pm but they were able to accomodate us right away. Very nice, new and clean hotel. Definetelly recommend it, even if its a bit far from everything in LA</t>
   </si>
   <si>
+    <t>mysteryflowers</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r136380642-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -2149,6 +2422,9 @@
     <t>March 2012</t>
   </si>
   <si>
+    <t>Rasvan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r135015299-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -2170,6 +2446,9 @@
     <t>Stayed here one night while en-route to San Diego. Pretty nice hotel, built recently (2 years ago), clean, nice staff, affordable prices.The hotel design and set-up is a Fairfield Inn classic, the new bistro type setting, modern and uncluttered. Rooms are well appointed but a bit smaller than usual. Working desk, office chair, armchair and free Wi-Fi.Free parking and breakfast are included. Breakfast is generous and plenty of options. Coffee, tea and hot chocolate are available in the lobby 24/7.There is a small pool and a tub on the premises, did not use them. The exercise room is nice and with the regular exercise machines and weights.The personnel is very friendly and helpful, they are doing their best to make your stay exceptional. There are a few restaurants close by and also a small mall at 500 yards away if you want to go for a walk.I stayed here on Marriott points and the room was 7,500 which is a great deal for what you get in return. I'll return for shure if in the area.More</t>
   </si>
   <si>
+    <t>Ashley W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r133561067-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -2188,6 +2467,9 @@
     <t>June 2012</t>
   </si>
   <si>
+    <t>Roy N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r133060954-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -2203,6 +2485,9 @@
     <t>This is a good alternative location if you have business in LA. Dive into Downtown LA took about an hour at 9 AM. The room was good size and was the bathroom with lots of counter place. Free wifi and a nice breakfast. The location is good for business and family. Many restaurants (sit down and fast food) nearby and two movie theaters within easy driving distance. Great staff very helpful. I was even able to check in early at 11 AM when I arrived.</t>
   </si>
   <si>
+    <t>HikerDave</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r132683515-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -2221,6 +2506,9 @@
     <t>Came out to greater LA for a one week pleasure trip and was looking for a quality Fairfield property in the eastern suburbs.  Made my decision based upon all of the prior reviews.  The room was very clean and the bed very comfortable.  Asked for a quiet room and was given #527 - in the far corner of the building - great.Yes, the building is new,  but where they stand out is their focus on your comfort.  The staff was very welcoming and hospitable.  I always noticed at least one staff member at work day and night mopping, sweeping, dusting, etc.  It was clear to me that everyone is invested in doing their jobs well...We were impressed enough that we chose to return for our last night a week later.The entrance off  I-10 is a little tricky the first time...But the bonus (If you are from "back East" as we are) is that there is an In 'n Out Burger just on the opposite side of I-10.More</t>
   </si>
   <si>
+    <t>vjv2007</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r128137978-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -2236,6 +2524,9 @@
     <t>Thank you Erik for making our stay wonderful during our March visit.  Being away from our own home never is easy but your polite helpfulness was refreshing and greatly appreciated.  We stayed her 3 different times in a 10 day period and had a different room each stay.  Each room was clean and fresh.  The only thing I would fix is the bathroom door configuration.  It needs to open into the bathroom.  The pool and jacuzzi were clean and working well.</t>
   </si>
   <si>
+    <t>Imserious</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r126875169-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -2254,6 +2545,9 @@
     <t>We stayed at this hotel for 5 nights during our family vacation because it was the perfect location from everything we wanted to do.  Visit family, shop, eat good food, entertain, visit Universal Studios (only about 25 minutes away)...etc. The hotel is  a newer one, very nice, clean and up to date with style.  One thing I am always concerned about it the comfort of the bed and I would have to say, our bed was great!  They were able to accommodate us with an excellent rollaway bed too, not those uncomfortable fold up beds with a thin cheap mattress either, it was a real twin size comfortable mattress perfect for an my son or even an adult.  They had a very small outdoor pool, but it was good enough, can't complain.  We stayed on the fifth floor right next to the elevator but it was very quiet.  I liked the fact that the rooms have a private bathroom. They have a nice lobby to relax at with flat screen t.v.'s and a business center with two computers and printer for your convenience.  Breakfast was alright, nothing to brag about, could use more of a variety, usually hotels at the level have a more of a variety, such as hot foods (no bacon, eggs, sausage waffles)...that was a bit disappointing.  Another disappointment, (but not a real big deal) is that our king room didn't come standard with a mini fridge...We stayed at this hotel for 5 nights during our family vacation because it was the perfect location from everything we wanted to do.  Visit family, shop, eat good food, entertain, visit Universal Studios (only about 25 minutes away)...etc. The hotel is  a newer one, very nice, clean and up to date with style.  One thing I am always concerned about it the comfort of the bed and I would have to say, our bed was great!  They were able to accommodate us with an excellent rollaway bed too, not those uncomfortable fold up beds with a thin cheap mattress either, it was a real twin size comfortable mattress perfect for an my son or even an adult.  They had a very small outdoor pool, but it was good enough, can't complain.  We stayed on the fifth floor right next to the elevator but it was very quiet.  I liked the fact that the rooms have a private bathroom. They have a nice lobby to relax at with flat screen t.v.'s and a business center with two computers and printer for your convenience.  Breakfast was alright, nothing to brag about, could use more of a variety, usually hotels at the level have a more of a variety, such as hot foods (no bacon, eggs, sausage waffles)...that was a bit disappointing.  Another disappointment, (but not a real big deal) is that our king room didn't come standard with a mini fridge or microwave.  So we just bought an ice chest and used the lobby microwave.  I would definitely have to say that the staff was very courteous and accommodating.  The cleaning team did am excellent job with our room everyday. Thanks to Francine, Carlos and Marcos for their hospitality and eagerness to please us. They made our stay even more enjoyable.  We will definitely be staying there again on our next visit to California.More</t>
   </si>
   <si>
+    <t>nmtr</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r126313632-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -2272,6 +2566,9 @@
     <t>Currently a guest at this wonderful, new and clean hotel. So happy that I could not wait to review. Room 426 at back and quiet. Staff are warm, welcoming and go above and beyond, specially Eric at the front desk. Very nice breakfast included with stay with hot sandwiches and numerous other items, fruit and yogurt. Lobby has vending machine with frozen food items and snacks. Small issue reported to housekeeping that came right away and did a fantastic job. Clean laundry room, small but clean gym and pool with hot tub. Only regret that there is no fridge in room, which would greatly add to guest comfort for storing items. Business center in lobby with 2 desktops and printer. 24 hour coffee, tea and hot chocolate in lobby. Convenient location within walking distance to Westfield Mall and I10 Freeway. Would highly recommend. The staff are what make this hotel, along with the amenities.More</t>
   </si>
   <si>
+    <t>juljayw</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r122405414-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -2299,6 +2596,9 @@
     <t>My family booked this hotel with rewards points. We were only staying one night. We booked two rooms together but for some reason the hotel could not accomadate this. They had one room on the 5th floor and one on the first floor. Aside from this the stay was fine. We enjoyed the decor and color scheme, 24 hour coffee and tea and the rooms were comfortable. Our favoriate part was the breakfast buffet. Fruit cups, bagels, breakfast sandwiches, waffels and cereal. the service was good at the front desk. REsturants next door are nice.More</t>
   </si>
   <si>
+    <t>David S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r122148879-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -2320,6 +2620,9 @@
     <t>I am a Marriott rewards member and stay at Fairfield properties across the country six to fifteen nights a year. This property is average in it's value and staff. What made our stay terrible was the fact that they charged my credit card for damage during our stay. My wife and I are over 65 and not party animals. We did no damage to the room or it's contents and have disputed the charges. My suggestion to anyone staying at this property is that they have the room checked and signed off as undamaged before they leave at checkout. We didn't and have come to regret it.More</t>
   </si>
   <si>
+    <t>delone70</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r122142874-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -2338,6 +2641,9 @@
     <t>This is only the second Fairfield inn I have stayed in and both have proved excellent choices. This property really was awesome with the nicest bathroom I think I have ever seen! Very friendly and helpful staff. Good choice of restaurants nearby. If I'm in the area again, I know where I will be staying.More</t>
   </si>
   <si>
+    <t>travelD3</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r120394265-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -2371,6 +2677,9 @@
     <t>This hotel is brand new.  It is within walking distance to many restaurants.  The staff was friendly.  Parking was a little tight.</t>
   </si>
   <si>
+    <t>Owen J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r120050616-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -2389,6 +2698,9 @@
     <t>October 2011</t>
   </si>
   <si>
+    <t>UkSimjon</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r117251878-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -2416,6 +2728,9 @@
     <t>My kids want a pool -- CheckI want a decent hotel, with easy access to LA  -- CheckCourteous, knowledgable staff. Clean comfortable facilites. What more could you want from a "budget" brandMore</t>
   </si>
   <si>
+    <t>TDR2011</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r117205857-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -2434,6 +2749,9 @@
     <t>Beautiful, new property.  Gorgeous bathroom. Well-located off the freeway. Close to many restaurants. However, I cannot understand WHY they chose to use double/full size beds rather than queens. The rooms are spacious but there is 10 feet of wasted space at the end - no chair or table or any piece of furniture. I would not stay here again simply because a family of four cannot comfortably sleep in two full size beds. What a shame......More</t>
   </si>
   <si>
+    <t>radoki</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r116265088-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -2455,6 +2773,9 @@
     <t>This hotel worked perfectly for our family trip! It is hard to find a nice room to accommodate five of us! My three kids, husband and I slept comfortably in the two beds plus pull out sofabed.  The hotel was conveniently located so that we were able to catch a Dodger game, visit Santa Monica and shop at the Grove. It of course was very clean. I would definitely recommend staying at this hotel! The only downfall was that I left a tip for housekeeping to leave us a few extra towels and even though the tip was taken, towels were not left. Although she did do a great job tidying up! We will visit this hotel again!More</t>
   </si>
   <si>
+    <t>BMGlobal</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r115251104-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
   </si>
   <si>
@@ -2474,6 +2795,9 @@
   </si>
   <si>
     <t>I was recently a guest at the Fairfield Inn &amp; Suites in West Covina from Thursday, June 30th until Thursday, July 7th. I am writing to complement the hotel on their excellent hotel facilities and staff. I was most impressed by my stay in West Covina, and even more impressed with the fact that your hotel is only a category 1, especially since the level of service that I received at your establishment has far surpassed service. I have received at some category 5 hotels. I ask that you also extend my gratitude to Erik (forgive me, but I do not have his last name) from guest services. His service was impeccable, and his suggestions most helpful while my colleagues and I were in West Covina. Often times when I travel to West Covina properties I am hard pressed to find reasonably priced, comfortable and clean attentive hotels. Erik was most helpful in making sure our stay was seamless. I must say the same for Francine as well, she helped us obtain binders and equipment we needed for our meeting. Some of our items were delayed with airlines. Thank you for getting us what we needed. Staff was understanding what we might be interested in, and executed impeccably. We had an excellent time in West Covina, and I do look forward to returning and spending time at your establishment once again with my company. Its about time West Covina had...I was recently a guest at the Fairfield Inn &amp; Suites in West Covina from Thursday, June 30th until Thursday, July 7th. I am writing to complement the hotel on their excellent hotel facilities and staff. I was most impressed by my stay in West Covina, and even more impressed with the fact that your hotel is only a category 1, especially since the level of service that I received at your establishment has far surpassed service. I have received at some category 5 hotels. I ask that you also extend my gratitude to Erik (forgive me, but I do not have his last name) from guest services. His service was impeccable, and his suggestions most helpful while my colleagues and I were in West Covina. Often times when I travel to West Covina properties I am hard pressed to find reasonably priced, comfortable and clean attentive hotels. Erik was most helpful in making sure our stay was seamless. I must say the same for Francine as well, she helped us obtain binders and equipment we needed for our meeting. Some of our items were delayed with airlines. Thank you for getting us what we needed. Staff was understanding what we might be interested in, and executed impeccably. We had an excellent time in West Covina, and I do look forward to returning and spending time at your establishment once again with my company. Its about time West Covina had a new hotel.More</t>
+  </si>
+  <si>
+    <t>alina4u</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g33250-d1950010-r107891454-Fairfield_Inn_Suites_Los_Angeles_West_Covina-West_Covina_California.html</t>
@@ -2996,43 +3320,47 @@
       <c r="A2" t="n">
         <v>60013</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>146893</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="n">
         <v>5</v>
@@ -3052,50 +3380,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>60013</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>115454</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -3109,50 +3441,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>60013</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>146894</v>
+      </c>
+      <c r="C4" t="s">
+        <v>64</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" t="s">
+        <v>48</v>
+      </c>
+      <c r="I4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>70</v>
+      </c>
+      <c r="O4" t="s">
         <v>62</v>
-      </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
-        <v>63</v>
-      </c>
-      <c r="J4" t="s">
-        <v>64</v>
-      </c>
-      <c r="K4" t="s">
-        <v>65</v>
-      </c>
-      <c r="L4" t="s">
-        <v>66</v>
-      </c>
-      <c r="M4" t="n">
-        <v>5</v>
-      </c>
-      <c r="N4" t="s">
-        <v>67</v>
-      </c>
-      <c r="O4" t="s">
-        <v>60</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -3166,50 +3502,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>60013</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>67131</v>
+      </c>
+      <c r="C5" t="s">
+        <v>71</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="J5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="K5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="L5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -3227,50 +3567,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>60013</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>146895</v>
+      </c>
+      <c r="C6" t="s">
+        <v>79</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="J6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="L6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="M6" t="n">
         <v>3</v>
       </c>
       <c r="N6" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="O6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -3282,56 +3626,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="X6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="Y6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>60013</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>34173</v>
+      </c>
+      <c r="C7" t="s">
+        <v>88</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="J7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="K7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="L7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -3349,50 +3697,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>60013</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>146896</v>
+      </c>
+      <c r="C8" t="s">
+        <v>95</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="J8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="K8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="L8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="O8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P8" t="n">
         <v>5</v>
@@ -3412,41 +3764,45 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>60013</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>146897</v>
+      </c>
+      <c r="C9" t="s">
+        <v>102</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="J9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="K9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="L9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
@@ -3465,50 +3821,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>60013</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>146898</v>
+      </c>
+      <c r="C10" t="s">
+        <v>108</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="J10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="K10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="L10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="P10" t="n">
         <v>5</v>
@@ -3528,50 +3888,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>60013</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>146899</v>
+      </c>
+      <c r="C11" t="s">
+        <v>115</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="J11" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="K11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="L11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="M11" t="n">
         <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P11" t="n">
         <v>4</v>
@@ -3591,50 +3955,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>60013</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>146900</v>
+      </c>
+      <c r="C12" t="s">
+        <v>122</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="J12" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="K12" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="L12" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -3648,50 +4016,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>60013</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>10821</v>
+      </c>
+      <c r="C13" t="s">
+        <v>129</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="J13" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="K13" t="s">
+        <v>133</v>
+      </c>
+      <c r="L13" t="s">
+        <v>134</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
         <v>121</v>
       </c>
-      <c r="L13" t="s">
-        <v>122</v>
-      </c>
-      <c r="M13" t="n">
-        <v>5</v>
-      </c>
-      <c r="N13" t="s">
-        <v>111</v>
-      </c>
       <c r="O13" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="P13" t="n">
         <v>5</v>
@@ -3709,50 +4081,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>60013</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>33595</v>
+      </c>
+      <c r="C14" t="s">
+        <v>136</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="J14" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="K14" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="L14" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="M14" t="n">
         <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="O14" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -3770,50 +4146,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>60013</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>10172</v>
+      </c>
+      <c r="C15" t="s">
+        <v>143</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="J15" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="K15" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="L15" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="O15" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="n">
@@ -3831,50 +4211,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>60013</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>146901</v>
+      </c>
+      <c r="C16" t="s">
+        <v>149</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="J16" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="K16" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="L16" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="O16" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -3886,56 +4270,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="X16" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="Y16" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>60013</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>5462</v>
+      </c>
+      <c r="C17" t="s">
+        <v>159</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="J17" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="K17" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="L17" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="M17" t="n">
         <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="n">
@@ -3955,50 +4343,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>60013</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>146902</v>
+      </c>
+      <c r="C18" t="s">
+        <v>167</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="J18" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="K18" t="s">
-        <v>154</v>
+        <v>171</v>
       </c>
       <c r="L18" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="M18" t="n">
         <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="O18" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -4016,50 +4408,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>60013</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>146903</v>
+      </c>
+      <c r="C19" t="s">
+        <v>174</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="J19" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="K19" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="L19" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="M19" t="n">
         <v>3</v>
       </c>
       <c r="N19" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="O19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P19" t="n">
         <v>3</v>
@@ -4077,56 +4473,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="X19" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="Y19" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>60013</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>146904</v>
+      </c>
+      <c r="C20" t="s">
+        <v>183</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="J20" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="K20" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="L20" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="M20" t="n">
         <v>3</v>
       </c>
       <c r="N20" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="O20" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -4138,56 +4538,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="X20" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="Y20" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>60013</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>146905</v>
+      </c>
+      <c r="C21" t="s">
+        <v>193</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="J21" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="K21" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="L21" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="O21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P21" t="n">
         <v>5</v>
@@ -4207,50 +4611,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>60013</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>15976</v>
+      </c>
+      <c r="C22" t="s">
+        <v>199</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="J22" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c r="K22" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="L22" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="M22" t="n">
         <v>3</v>
       </c>
       <c r="N22" t="s">
-        <v>184</v>
+        <v>205</v>
       </c>
       <c r="O22" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -4262,56 +4670,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="X22" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="Y22" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>60013</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>7</v>
+      </c>
+      <c r="C23" t="s">
+        <v>209</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="J23" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="K23" t="s">
-        <v>191</v>
+        <v>213</v>
       </c>
       <c r="L23" t="s">
-        <v>192</v>
+        <v>214</v>
       </c>
       <c r="M23" t="n">
         <v>3</v>
       </c>
       <c r="N23" t="s">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="O23" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -4323,56 +4735,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="X23" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="Y23" t="s">
-        <v>196</v>
+        <v>218</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>60013</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>146906</v>
+      </c>
+      <c r="C24" t="s">
+        <v>219</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>197</v>
+        <v>220</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>198</v>
+        <v>221</v>
       </c>
       <c r="J24" t="s">
-        <v>199</v>
+        <v>222</v>
       </c>
       <c r="K24" t="s">
-        <v>200</v>
+        <v>223</v>
       </c>
       <c r="L24" t="s">
-        <v>201</v>
+        <v>224</v>
       </c>
       <c r="M24" t="n">
         <v>3</v>
       </c>
       <c r="N24" t="s">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="O24" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -4386,50 +4802,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>201</v>
+        <v>224</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>60013</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>146907</v>
+      </c>
+      <c r="C25" t="s">
+        <v>225</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>203</v>
+        <v>227</v>
       </c>
       <c r="J25" t="s">
-        <v>204</v>
+        <v>228</v>
       </c>
       <c r="K25" t="s">
-        <v>205</v>
+        <v>229</v>
       </c>
       <c r="L25" t="s">
-        <v>206</v>
+        <v>230</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>207</v>
+        <v>231</v>
       </c>
       <c r="O25" t="s">
-        <v>208</v>
+        <v>232</v>
       </c>
       <c r="P25" t="n">
         <v>5</v>
@@ -4447,50 +4867,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>206</v>
+        <v>230</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>60013</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>146908</v>
+      </c>
+      <c r="C26" t="s">
+        <v>233</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="J26" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="K26" t="s">
-        <v>212</v>
+        <v>237</v>
       </c>
       <c r="L26" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="M26" t="n">
         <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="O26" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="n">
@@ -4510,50 +4934,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>60013</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>146909</v>
+      </c>
+      <c r="C27" t="s">
+        <v>240</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>215</v>
+        <v>241</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>216</v>
+        <v>242</v>
       </c>
       <c r="J27" t="s">
-        <v>217</v>
+        <v>243</v>
       </c>
       <c r="K27" t="s">
-        <v>218</v>
+        <v>244</v>
       </c>
       <c r="L27" t="s">
-        <v>219</v>
+        <v>245</v>
       </c>
       <c r="M27" t="n">
         <v>3</v>
       </c>
       <c r="N27" t="s">
-        <v>220</v>
+        <v>246</v>
       </c>
       <c r="O27" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -4565,56 +4993,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>221</v>
+        <v>247</v>
       </c>
       <c r="X27" t="s">
-        <v>222</v>
+        <v>248</v>
       </c>
       <c r="Y27" t="s">
-        <v>223</v>
+        <v>249</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>60013</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>21074</v>
+      </c>
+      <c r="C28" t="s">
+        <v>250</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>224</v>
+        <v>251</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>225</v>
+        <v>252</v>
       </c>
       <c r="J28" t="s">
-        <v>226</v>
+        <v>253</v>
       </c>
       <c r="K28" t="s">
-        <v>227</v>
+        <v>254</v>
       </c>
       <c r="L28" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
       <c r="M28" t="n">
         <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>220</v>
+        <v>246</v>
       </c>
       <c r="O28" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -4634,50 +5066,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>60013</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>82321</v>
+      </c>
+      <c r="C29" t="s">
+        <v>256</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>229</v>
+        <v>257</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>230</v>
+        <v>258</v>
       </c>
       <c r="J29" t="s">
-        <v>231</v>
+        <v>259</v>
       </c>
       <c r="K29" t="s">
-        <v>232</v>
+        <v>260</v>
       </c>
       <c r="L29" t="s">
-        <v>233</v>
+        <v>261</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>234</v>
+        <v>262</v>
       </c>
       <c r="O29" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -4693,56 +5129,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>235</v>
+        <v>263</v>
       </c>
       <c r="X29" t="s">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="Y29" t="s">
-        <v>237</v>
+        <v>265</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>60013</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>146910</v>
+      </c>
+      <c r="C30" t="s">
+        <v>266</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>238</v>
+        <v>267</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>239</v>
+        <v>268</v>
       </c>
       <c r="J30" t="s">
-        <v>240</v>
+        <v>269</v>
       </c>
       <c r="K30" t="s">
-        <v>241</v>
+        <v>270</v>
       </c>
       <c r="L30" t="s">
-        <v>242</v>
+        <v>271</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>234</v>
+        <v>262</v>
       </c>
       <c r="O30" t="s">
-        <v>208</v>
+        <v>232</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="n">
@@ -4760,56 +5200,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>235</v>
+        <v>263</v>
       </c>
       <c r="X30" t="s">
-        <v>236</v>
+        <v>264</v>
       </c>
       <c r="Y30" t="s">
-        <v>243</v>
+        <v>272</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>60013</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>146911</v>
+      </c>
+      <c r="C31" t="s">
+        <v>273</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>244</v>
+        <v>274</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>245</v>
+        <v>275</v>
       </c>
       <c r="J31" t="s">
-        <v>246</v>
+        <v>276</v>
       </c>
       <c r="K31" t="s">
-        <v>247</v>
+        <v>277</v>
       </c>
       <c r="L31" t="s">
-        <v>248</v>
+        <v>278</v>
       </c>
       <c r="M31" t="n">
         <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>234</v>
+        <v>262</v>
       </c>
       <c r="O31" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -4825,56 +5269,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>249</v>
+        <v>279</v>
       </c>
       <c r="X31" t="s">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="Y31" t="s">
-        <v>251</v>
+        <v>281</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>60013</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>146912</v>
+      </c>
+      <c r="C32" t="s">
+        <v>282</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>252</v>
+        <v>283</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>253</v>
+        <v>284</v>
       </c>
       <c r="J32" t="s">
-        <v>254</v>
+        <v>285</v>
       </c>
       <c r="K32" t="s">
-        <v>255</v>
+        <v>286</v>
       </c>
       <c r="L32" t="s">
-        <v>256</v>
+        <v>287</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>257</v>
+        <v>288</v>
       </c>
       <c r="O32" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -4886,56 +5334,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>258</v>
+        <v>289</v>
       </c>
       <c r="X32" t="s">
-        <v>259</v>
+        <v>290</v>
       </c>
       <c r="Y32" t="s">
-        <v>260</v>
+        <v>291</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>60013</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>146913</v>
+      </c>
+      <c r="C33" t="s">
+        <v>292</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>261</v>
+        <v>293</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>262</v>
+        <v>294</v>
       </c>
       <c r="J33" t="s">
-        <v>263</v>
+        <v>295</v>
       </c>
       <c r="K33" t="s">
-        <v>264</v>
+        <v>296</v>
       </c>
       <c r="L33" t="s">
-        <v>265</v>
+        <v>297</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>257</v>
+        <v>288</v>
       </c>
       <c r="O33" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -4949,50 +5401,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>266</v>
+        <v>298</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>60013</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>146914</v>
+      </c>
+      <c r="C34" t="s">
+        <v>299</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>267</v>
+        <v>300</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>268</v>
+        <v>301</v>
       </c>
       <c r="J34" t="s">
-        <v>269</v>
+        <v>302</v>
       </c>
       <c r="K34" t="s">
-        <v>270</v>
+        <v>303</v>
       </c>
       <c r="L34" t="s">
-        <v>271</v>
+        <v>304</v>
       </c>
       <c r="M34" t="n">
         <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>272</v>
+        <v>305</v>
       </c>
       <c r="O34" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -5004,56 +5460,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>273</v>
+        <v>306</v>
       </c>
       <c r="X34" t="s">
-        <v>274</v>
+        <v>307</v>
       </c>
       <c r="Y34" t="s">
-        <v>275</v>
+        <v>308</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>60013</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>146915</v>
+      </c>
+      <c r="C35" t="s">
+        <v>309</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>276</v>
+        <v>310</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>277</v>
+        <v>311</v>
       </c>
       <c r="J35" t="s">
-        <v>278</v>
+        <v>312</v>
       </c>
       <c r="K35" t="s">
-        <v>279</v>
+        <v>313</v>
       </c>
       <c r="L35" t="s">
-        <v>280</v>
+        <v>314</v>
       </c>
       <c r="M35" t="n">
         <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>281</v>
+        <v>315</v>
       </c>
       <c r="O35" t="s">
-        <v>208</v>
+        <v>232</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
@@ -5065,56 +5525,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>282</v>
+        <v>316</v>
       </c>
       <c r="X35" t="s">
-        <v>283</v>
+        <v>317</v>
       </c>
       <c r="Y35" t="s">
-        <v>284</v>
+        <v>318</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>60013</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>146916</v>
+      </c>
+      <c r="C36" t="s">
+        <v>319</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>285</v>
+        <v>320</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>286</v>
+        <v>321</v>
       </c>
       <c r="J36" t="s">
-        <v>287</v>
+        <v>322</v>
       </c>
       <c r="K36" t="s">
-        <v>288</v>
+        <v>323</v>
       </c>
       <c r="L36" t="s">
-        <v>289</v>
+        <v>324</v>
       </c>
       <c r="M36" t="n">
         <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>281</v>
+        <v>315</v>
       </c>
       <c r="O36" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="n">
@@ -5130,56 +5594,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>282</v>
+        <v>316</v>
       </c>
       <c r="X36" t="s">
-        <v>283</v>
+        <v>317</v>
       </c>
       <c r="Y36" t="s">
-        <v>290</v>
+        <v>325</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>60013</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>146917</v>
+      </c>
+      <c r="C37" t="s">
+        <v>326</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>291</v>
+        <v>327</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>292</v>
+        <v>328</v>
       </c>
       <c r="J37" t="s">
-        <v>293</v>
+        <v>329</v>
       </c>
       <c r="K37" t="s">
-        <v>294</v>
+        <v>330</v>
       </c>
       <c r="L37" t="s">
-        <v>295</v>
+        <v>331</v>
       </c>
       <c r="M37" t="n">
         <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>296</v>
+        <v>332</v>
       </c>
       <c r="O37" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="n">
@@ -5197,56 +5665,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>297</v>
+        <v>333</v>
       </c>
       <c r="X37" t="s">
-        <v>298</v>
+        <v>334</v>
       </c>
       <c r="Y37" t="s">
-        <v>299</v>
+        <v>335</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>60013</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>146918</v>
+      </c>
+      <c r="C38" t="s">
+        <v>336</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>300</v>
+        <v>337</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>301</v>
+        <v>338</v>
       </c>
       <c r="J38" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
       <c r="K38" t="s">
-        <v>303</v>
+        <v>340</v>
       </c>
       <c r="L38" t="s">
-        <v>304</v>
+        <v>341</v>
       </c>
       <c r="M38" t="n">
         <v>4</v>
       </c>
       <c r="N38" t="s">
-        <v>305</v>
+        <v>342</v>
       </c>
       <c r="O38" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
@@ -5264,56 +5736,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>306</v>
+        <v>343</v>
       </c>
       <c r="X38" t="s">
-        <v>307</v>
+        <v>344</v>
       </c>
       <c r="Y38" t="s">
-        <v>308</v>
+        <v>345</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>60013</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>146919</v>
+      </c>
+      <c r="C39" t="s">
+        <v>346</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>309</v>
+        <v>347</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>310</v>
+        <v>348</v>
       </c>
       <c r="J39" t="s">
-        <v>311</v>
+        <v>349</v>
       </c>
       <c r="K39" t="s">
-        <v>312</v>
+        <v>350</v>
       </c>
       <c r="L39" t="s">
-        <v>313</v>
+        <v>351</v>
       </c>
       <c r="M39" t="n">
         <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>305</v>
+        <v>342</v>
       </c>
       <c r="O39" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="n">
@@ -5331,56 +5807,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>314</v>
+        <v>352</v>
       </c>
       <c r="X39" t="s">
-        <v>315</v>
+        <v>353</v>
       </c>
       <c r="Y39" t="s">
-        <v>316</v>
+        <v>354</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>60013</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>108731</v>
+      </c>
+      <c r="C40" t="s">
+        <v>355</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>317</v>
+        <v>356</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>318</v>
+        <v>357</v>
       </c>
       <c r="J40" t="s">
-        <v>319</v>
+        <v>358</v>
       </c>
       <c r="K40" t="s">
-        <v>320</v>
+        <v>359</v>
       </c>
       <c r="L40" t="s">
-        <v>321</v>
+        <v>360</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>322</v>
+        <v>361</v>
       </c>
       <c r="O40" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="s"/>
@@ -5392,56 +5872,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>323</v>
+        <v>362</v>
       </c>
       <c r="X40" t="s">
-        <v>324</v>
+        <v>363</v>
       </c>
       <c r="Y40" t="s">
-        <v>325</v>
+        <v>364</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>60013</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>146920</v>
+      </c>
+      <c r="C41" t="s">
+        <v>365</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>326</v>
+        <v>366</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>327</v>
+        <v>367</v>
       </c>
       <c r="J41" t="s">
-        <v>328</v>
+        <v>368</v>
       </c>
       <c r="K41" t="s">
-        <v>329</v>
+        <v>369</v>
       </c>
       <c r="L41" t="s">
-        <v>330</v>
+        <v>370</v>
       </c>
       <c r="M41" t="n">
         <v>3</v>
       </c>
       <c r="N41" t="s">
-        <v>331</v>
+        <v>371</v>
       </c>
       <c r="O41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="n">
@@ -5457,56 +5941,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>332</v>
+        <v>372</v>
       </c>
       <c r="X41" t="s">
-        <v>333</v>
+        <v>373</v>
       </c>
       <c r="Y41" t="s">
-        <v>334</v>
+        <v>374</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>60013</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>146921</v>
+      </c>
+      <c r="C42" t="s">
+        <v>375</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>335</v>
+        <v>376</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>336</v>
+        <v>377</v>
       </c>
       <c r="J42" t="s">
-        <v>337</v>
+        <v>378</v>
       </c>
       <c r="K42" t="s">
-        <v>338</v>
+        <v>379</v>
       </c>
       <c r="L42" t="s">
-        <v>339</v>
+        <v>380</v>
       </c>
       <c r="M42" t="n">
         <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>340</v>
+        <v>381</v>
       </c>
       <c r="O42" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
@@ -5518,56 +6006,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>341</v>
+        <v>382</v>
       </c>
       <c r="X42" t="s">
-        <v>342</v>
+        <v>383</v>
       </c>
       <c r="Y42" t="s">
-        <v>343</v>
+        <v>384</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>60013</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>146922</v>
+      </c>
+      <c r="C43" t="s">
+        <v>385</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>344</v>
+        <v>386</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>345</v>
+        <v>387</v>
       </c>
       <c r="J43" t="s">
-        <v>346</v>
+        <v>388</v>
       </c>
       <c r="K43" t="s">
-        <v>347</v>
+        <v>389</v>
       </c>
       <c r="L43" t="s">
-        <v>348</v>
+        <v>390</v>
       </c>
       <c r="M43" t="n">
         <v>4</v>
       </c>
       <c r="N43" t="s">
-        <v>340</v>
+        <v>381</v>
       </c>
       <c r="O43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="s"/>
@@ -5579,56 +6071,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>341</v>
+        <v>382</v>
       </c>
       <c r="X43" t="s">
-        <v>342</v>
+        <v>383</v>
       </c>
       <c r="Y43" t="s">
-        <v>349</v>
+        <v>391</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>60013</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>8290</v>
+      </c>
+      <c r="C44" t="s">
+        <v>392</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>350</v>
+        <v>393</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>351</v>
+        <v>394</v>
       </c>
       <c r="J44" t="s">
-        <v>352</v>
+        <v>395</v>
       </c>
       <c r="K44" t="s">
-        <v>353</v>
+        <v>396</v>
       </c>
       <c r="L44" t="s">
-        <v>354</v>
+        <v>397</v>
       </c>
       <c r="M44" t="n">
         <v>4</v>
       </c>
       <c r="N44" t="s">
-        <v>331</v>
+        <v>371</v>
       </c>
       <c r="O44" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="s"/>
@@ -5640,56 +6136,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>341</v>
+        <v>382</v>
       </c>
       <c r="X44" t="s">
-        <v>342</v>
+        <v>383</v>
       </c>
       <c r="Y44" t="s">
-        <v>355</v>
+        <v>398</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>60013</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>8466</v>
+      </c>
+      <c r="C45" t="s">
+        <v>399</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>356</v>
+        <v>400</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>357</v>
+        <v>401</v>
       </c>
       <c r="J45" t="s">
-        <v>358</v>
+        <v>402</v>
       </c>
       <c r="K45" t="s">
-        <v>359</v>
+        <v>403</v>
       </c>
       <c r="L45" t="s">
-        <v>360</v>
+        <v>404</v>
       </c>
       <c r="M45" t="n">
         <v>4</v>
       </c>
       <c r="N45" t="s">
-        <v>361</v>
+        <v>405</v>
       </c>
       <c r="O45" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="P45" t="n">
         <v>4</v>
@@ -5705,56 +6205,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>362</v>
+        <v>406</v>
       </c>
       <c r="X45" t="s">
-        <v>363</v>
+        <v>407</v>
       </c>
       <c r="Y45" t="s">
-        <v>364</v>
+        <v>408</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>60013</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>146923</v>
+      </c>
+      <c r="C46" t="s">
+        <v>409</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>365</v>
+        <v>410</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>366</v>
+        <v>411</v>
       </c>
       <c r="J46" t="s">
-        <v>367</v>
+        <v>412</v>
       </c>
       <c r="K46" t="s">
-        <v>368</v>
+        <v>413</v>
       </c>
       <c r="L46" t="s">
-        <v>369</v>
+        <v>414</v>
       </c>
       <c r="M46" t="n">
         <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>361</v>
+        <v>405</v>
       </c>
       <c r="O46" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="P46" t="n">
         <v>4</v>
@@ -5772,56 +6276,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>370</v>
+        <v>415</v>
       </c>
       <c r="X46" t="s">
-        <v>371</v>
+        <v>416</v>
       </c>
       <c r="Y46" t="s">
-        <v>372</v>
+        <v>417</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>60013</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>146924</v>
+      </c>
+      <c r="C47" t="s">
+        <v>418</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>373</v>
+        <v>419</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>374</v>
+        <v>420</v>
       </c>
       <c r="J47" t="s">
-        <v>375</v>
+        <v>421</v>
       </c>
       <c r="K47" t="s">
-        <v>376</v>
+        <v>422</v>
       </c>
       <c r="L47" t="s">
-        <v>377</v>
+        <v>423</v>
       </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
       <c r="N47" t="s">
-        <v>378</v>
+        <v>424</v>
       </c>
       <c r="O47" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P47" t="s"/>
       <c r="Q47" t="s"/>
@@ -5837,56 +6345,60 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>379</v>
+        <v>425</v>
       </c>
       <c r="X47" t="s">
-        <v>380</v>
+        <v>426</v>
       </c>
       <c r="Y47" t="s">
-        <v>381</v>
+        <v>427</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>60013</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>146925</v>
+      </c>
+      <c r="C48" t="s">
+        <v>428</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>382</v>
+        <v>429</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>383</v>
+        <v>430</v>
       </c>
       <c r="J48" t="s">
-        <v>384</v>
+        <v>431</v>
       </c>
       <c r="K48" t="s">
-        <v>385</v>
+        <v>432</v>
       </c>
       <c r="L48" t="s">
-        <v>386</v>
+        <v>433</v>
       </c>
       <c r="M48" t="n">
         <v>4</v>
       </c>
       <c r="N48" t="s">
-        <v>378</v>
+        <v>424</v>
       </c>
       <c r="O48" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="P48" t="s"/>
       <c r="Q48" t="s"/>
@@ -5898,56 +6410,60 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>379</v>
+        <v>425</v>
       </c>
       <c r="X48" t="s">
-        <v>380</v>
+        <v>426</v>
       </c>
       <c r="Y48" t="s">
-        <v>387</v>
+        <v>434</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>60013</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>103562</v>
+      </c>
+      <c r="C49" t="s">
+        <v>435</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>388</v>
+        <v>436</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>389</v>
+        <v>437</v>
       </c>
       <c r="J49" t="s">
-        <v>390</v>
+        <v>438</v>
       </c>
       <c r="K49" t="s">
-        <v>303</v>
+        <v>340</v>
       </c>
       <c r="L49" t="s">
-        <v>391</v>
+        <v>439</v>
       </c>
       <c r="M49" t="n">
         <v>4</v>
       </c>
       <c r="N49" t="s">
-        <v>378</v>
+        <v>424</v>
       </c>
       <c r="O49" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="P49" t="s"/>
       <c r="Q49" t="n">
@@ -5963,56 +6479,60 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>392</v>
+        <v>440</v>
       </c>
       <c r="X49" t="s">
-        <v>393</v>
+        <v>441</v>
       </c>
       <c r="Y49" t="s">
-        <v>394</v>
+        <v>442</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>60013</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>146926</v>
+      </c>
+      <c r="C50" t="s">
+        <v>443</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>395</v>
+        <v>444</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>396</v>
+        <v>445</v>
       </c>
       <c r="J50" t="s">
-        <v>397</v>
+        <v>446</v>
       </c>
       <c r="K50" t="s">
-        <v>398</v>
+        <v>447</v>
       </c>
       <c r="L50" t="s">
-        <v>399</v>
+        <v>448</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>400</v>
+        <v>449</v>
       </c>
       <c r="O50" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P50" t="s"/>
       <c r="Q50" t="s"/>
@@ -6030,56 +6550,60 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>401</v>
+        <v>450</v>
       </c>
       <c r="X50" t="s">
-        <v>402</v>
+        <v>451</v>
       </c>
       <c r="Y50" t="s">
-        <v>403</v>
+        <v>452</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>60013</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>146927</v>
+      </c>
+      <c r="C51" t="s">
+        <v>453</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>404</v>
+        <v>454</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>405</v>
+        <v>455</v>
       </c>
       <c r="J51" t="s">
-        <v>406</v>
+        <v>456</v>
       </c>
       <c r="K51" t="s">
-        <v>407</v>
+        <v>457</v>
       </c>
       <c r="L51" t="s">
-        <v>408</v>
+        <v>458</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>409</v>
+        <v>459</v>
       </c>
       <c r="O51" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P51" t="s"/>
       <c r="Q51" t="s"/>
@@ -6095,56 +6619,60 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>410</v>
+        <v>460</v>
       </c>
       <c r="X51" t="s">
-        <v>411</v>
+        <v>461</v>
       </c>
       <c r="Y51" t="s">
-        <v>412</v>
+        <v>462</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>60013</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>146928</v>
+      </c>
+      <c r="C52" t="s">
+        <v>463</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>413</v>
+        <v>464</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>414</v>
+        <v>465</v>
       </c>
       <c r="J52" t="s">
-        <v>415</v>
+        <v>466</v>
       </c>
       <c r="K52" t="s">
-        <v>416</v>
+        <v>467</v>
       </c>
       <c r="L52" t="s">
-        <v>417</v>
+        <v>468</v>
       </c>
       <c r="M52" t="n">
         <v>4</v>
       </c>
       <c r="N52" t="s">
-        <v>418</v>
+        <v>469</v>
       </c>
       <c r="O52" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P52" t="n">
         <v>4</v>
@@ -6162,56 +6690,60 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>419</v>
+        <v>470</v>
       </c>
       <c r="X52" t="s">
-        <v>420</v>
+        <v>471</v>
       </c>
       <c r="Y52" t="s">
-        <v>421</v>
+        <v>472</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>60013</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>23082</v>
+      </c>
+      <c r="C53" t="s">
+        <v>473</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>422</v>
+        <v>474</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>423</v>
+        <v>475</v>
       </c>
       <c r="J53" t="s">
-        <v>424</v>
+        <v>476</v>
       </c>
       <c r="K53" t="s">
-        <v>425</v>
+        <v>477</v>
       </c>
       <c r="L53" t="s">
-        <v>426</v>
+        <v>478</v>
       </c>
       <c r="M53" t="n">
         <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>409</v>
+        <v>459</v>
       </c>
       <c r="O53" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P53" t="s"/>
       <c r="Q53" t="s"/>
@@ -6223,56 +6755,60 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>427</v>
+        <v>479</v>
       </c>
       <c r="X53" t="s">
-        <v>428</v>
+        <v>480</v>
       </c>
       <c r="Y53" t="s">
-        <v>429</v>
+        <v>481</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>60013</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>146929</v>
+      </c>
+      <c r="C54" t="s">
+        <v>482</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>430</v>
+        <v>483</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>431</v>
+        <v>484</v>
       </c>
       <c r="J54" t="s">
-        <v>432</v>
+        <v>485</v>
       </c>
       <c r="K54" t="s">
-        <v>433</v>
+        <v>486</v>
       </c>
       <c r="L54" t="s">
-        <v>434</v>
+        <v>487</v>
       </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
       <c r="N54" t="s">
-        <v>409</v>
+        <v>459</v>
       </c>
       <c r="O54" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="P54" t="s"/>
       <c r="Q54" t="s"/>
@@ -6288,56 +6824,60 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>435</v>
+        <v>488</v>
       </c>
       <c r="X54" t="s">
-        <v>436</v>
+        <v>489</v>
       </c>
       <c r="Y54" t="s">
-        <v>437</v>
+        <v>490</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>60013</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>3679</v>
+      </c>
+      <c r="C55" t="s">
+        <v>491</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>438</v>
+        <v>492</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>439</v>
+        <v>493</v>
       </c>
       <c r="J55" t="s">
-        <v>440</v>
+        <v>494</v>
       </c>
       <c r="K55" t="s">
-        <v>441</v>
+        <v>495</v>
       </c>
       <c r="L55" t="s">
-        <v>442</v>
+        <v>496</v>
       </c>
       <c r="M55" t="n">
         <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>443</v>
+        <v>497</v>
       </c>
       <c r="O55" t="s">
-        <v>208</v>
+        <v>232</v>
       </c>
       <c r="P55" t="s"/>
       <c r="Q55" t="s"/>
@@ -6349,56 +6889,60 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>444</v>
+        <v>498</v>
       </c>
       <c r="X55" t="s">
-        <v>445</v>
+        <v>499</v>
       </c>
       <c r="Y55" t="s">
-        <v>446</v>
+        <v>500</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>60013</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>146930</v>
+      </c>
+      <c r="C56" t="s">
+        <v>501</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>447</v>
+        <v>502</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>448</v>
+        <v>503</v>
       </c>
       <c r="J56" t="s">
-        <v>449</v>
+        <v>504</v>
       </c>
       <c r="K56" t="s">
-        <v>450</v>
+        <v>505</v>
       </c>
       <c r="L56" t="s">
-        <v>451</v>
+        <v>506</v>
       </c>
       <c r="M56" t="n">
         <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>452</v>
+        <v>507</v>
       </c>
       <c r="O56" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P56" t="n">
         <v>5</v>
@@ -6416,56 +6960,60 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>453</v>
+        <v>508</v>
       </c>
       <c r="X56" t="s">
-        <v>454</v>
+        <v>509</v>
       </c>
       <c r="Y56" t="s">
-        <v>455</v>
+        <v>510</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>60013</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>146931</v>
+      </c>
+      <c r="C57" t="s">
+        <v>511</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>456</v>
+        <v>512</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>457</v>
+        <v>513</v>
       </c>
       <c r="J57" t="s">
-        <v>458</v>
+        <v>514</v>
       </c>
       <c r="K57" t="s">
-        <v>459</v>
+        <v>515</v>
       </c>
       <c r="L57" t="s">
-        <v>460</v>
+        <v>516</v>
       </c>
       <c r="M57" t="n">
         <v>4</v>
       </c>
       <c r="N57" t="s">
-        <v>452</v>
+        <v>507</v>
       </c>
       <c r="O57" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P57" t="s"/>
       <c r="Q57" t="s"/>
@@ -6477,47 +7025,51 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>461</v>
+        <v>517</v>
       </c>
       <c r="X57" t="s">
-        <v>462</v>
+        <v>518</v>
       </c>
       <c r="Y57" t="s">
-        <v>463</v>
+        <v>519</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>60013</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>25214</v>
+      </c>
+      <c r="C58" t="s">
+        <v>520</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>464</v>
+        <v>521</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>465</v>
+        <v>522</v>
       </c>
       <c r="J58" t="s">
-        <v>466</v>
+        <v>523</v>
       </c>
       <c r="K58" t="s">
-        <v>467</v>
+        <v>524</v>
       </c>
       <c r="L58" t="s">
-        <v>468</v>
+        <v>525</v>
       </c>
       <c r="M58" t="n">
         <v>4</v>
@@ -6544,56 +7096,60 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>469</v>
+        <v>526</v>
       </c>
       <c r="X58" t="s">
-        <v>470</v>
+        <v>527</v>
       </c>
       <c r="Y58" t="s">
-        <v>471</v>
+        <v>528</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>60013</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>146932</v>
+      </c>
+      <c r="C59" t="s">
+        <v>529</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>472</v>
+        <v>530</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>473</v>
+        <v>531</v>
       </c>
       <c r="J59" t="s">
-        <v>474</v>
+        <v>532</v>
       </c>
       <c r="K59" t="s">
-        <v>475</v>
+        <v>533</v>
       </c>
       <c r="L59" t="s">
-        <v>476</v>
+        <v>534</v>
       </c>
       <c r="M59" t="n">
         <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>452</v>
+        <v>507</v>
       </c>
       <c r="O59" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P59" t="n">
         <v>5</v>
@@ -6611,47 +7167,51 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>477</v>
+        <v>535</v>
       </c>
       <c r="X59" t="s">
-        <v>478</v>
+        <v>536</v>
       </c>
       <c r="Y59" t="s">
-        <v>479</v>
+        <v>537</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>60013</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>146933</v>
+      </c>
+      <c r="C60" t="s">
+        <v>538</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>480</v>
+        <v>539</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>481</v>
+        <v>540</v>
       </c>
       <c r="J60" t="s">
-        <v>474</v>
+        <v>532</v>
       </c>
       <c r="K60" t="s">
-        <v>482</v>
+        <v>541</v>
       </c>
       <c r="L60" t="s">
-        <v>483</v>
+        <v>542</v>
       </c>
       <c r="M60" t="n">
         <v>5</v>
@@ -6668,56 +7228,60 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>477</v>
+        <v>535</v>
       </c>
       <c r="X60" t="s">
-        <v>478</v>
+        <v>536</v>
       </c>
       <c r="Y60" t="s">
-        <v>484</v>
+        <v>543</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>60013</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>17257</v>
+      </c>
+      <c r="C61" t="s">
+        <v>544</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>485</v>
+        <v>545</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>486</v>
+        <v>546</v>
       </c>
       <c r="J61" t="s">
-        <v>487</v>
+        <v>547</v>
       </c>
       <c r="K61" t="s">
-        <v>488</v>
+        <v>548</v>
       </c>
       <c r="L61" t="s">
-        <v>489</v>
+        <v>549</v>
       </c>
       <c r="M61" t="n">
         <v>5</v>
       </c>
       <c r="N61" t="s">
-        <v>490</v>
+        <v>550</v>
       </c>
       <c r="O61" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P61" t="s"/>
       <c r="Q61" t="s"/>
@@ -6729,56 +7293,60 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>491</v>
+        <v>551</v>
       </c>
       <c r="X61" t="s">
-        <v>492</v>
+        <v>552</v>
       </c>
       <c r="Y61" t="s">
-        <v>493</v>
+        <v>553</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>60013</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>146934</v>
+      </c>
+      <c r="C62" t="s">
+        <v>554</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>494</v>
+        <v>555</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>495</v>
+        <v>556</v>
       </c>
       <c r="J62" t="s">
-        <v>496</v>
+        <v>557</v>
       </c>
       <c r="K62" t="s">
-        <v>497</v>
+        <v>558</v>
       </c>
       <c r="L62" t="s">
-        <v>498</v>
+        <v>559</v>
       </c>
       <c r="M62" t="n">
         <v>5</v>
       </c>
       <c r="N62" t="s">
-        <v>499</v>
+        <v>560</v>
       </c>
       <c r="O62" t="s">
-        <v>208</v>
+        <v>232</v>
       </c>
       <c r="P62" t="n">
         <v>5</v>
@@ -6800,47 +7368,51 @@
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>500</v>
+        <v>561</v>
       </c>
       <c r="X62" t="s">
-        <v>501</v>
+        <v>562</v>
       </c>
       <c r="Y62" t="s">
-        <v>502</v>
+        <v>563</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>60013</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>146935</v>
+      </c>
+      <c r="C63" t="s">
+        <v>564</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>503</v>
+        <v>565</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>504</v>
+        <v>566</v>
       </c>
       <c r="J63" t="s">
-        <v>505</v>
+        <v>567</v>
       </c>
       <c r="K63" t="s">
-        <v>506</v>
+        <v>568</v>
       </c>
       <c r="L63" t="s">
-        <v>507</v>
+        <v>569</v>
       </c>
       <c r="M63" t="n">
         <v>4</v>
@@ -6867,56 +7439,60 @@
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>500</v>
+        <v>561</v>
       </c>
       <c r="X63" t="s">
-        <v>501</v>
+        <v>562</v>
       </c>
       <c r="Y63" t="s">
-        <v>508</v>
+        <v>570</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>60013</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>36167</v>
+      </c>
+      <c r="C64" t="s">
+        <v>571</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>509</v>
+        <v>572</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>510</v>
+        <v>573</v>
       </c>
       <c r="J64" t="s">
-        <v>511</v>
+        <v>574</v>
       </c>
       <c r="K64" t="s">
-        <v>512</v>
+        <v>575</v>
       </c>
       <c r="L64" t="s">
-        <v>513</v>
+        <v>576</v>
       </c>
       <c r="M64" t="n">
         <v>4</v>
       </c>
       <c r="N64" t="s">
-        <v>499</v>
+        <v>560</v>
       </c>
       <c r="O64" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="P64" t="s"/>
       <c r="Q64" t="s"/>
@@ -6928,56 +7504,60 @@
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>514</v>
+        <v>577</v>
       </c>
       <c r="X64" t="s">
-        <v>515</v>
+        <v>578</v>
       </c>
       <c r="Y64" t="s">
-        <v>516</v>
+        <v>579</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>60013</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>146936</v>
+      </c>
+      <c r="C65" t="s">
+        <v>580</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>517</v>
+        <v>581</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>518</v>
+        <v>582</v>
       </c>
       <c r="J65" t="s">
-        <v>519</v>
+        <v>583</v>
       </c>
       <c r="K65" t="s">
-        <v>520</v>
+        <v>584</v>
       </c>
       <c r="L65" t="s">
-        <v>521</v>
+        <v>585</v>
       </c>
       <c r="M65" t="n">
         <v>2</v>
       </c>
       <c r="N65" t="s">
-        <v>499</v>
+        <v>560</v>
       </c>
       <c r="O65" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P65" t="n">
         <v>3</v>
@@ -6999,56 +7579,60 @@
         <v>0</v>
       </c>
       <c r="W65" t="s">
-        <v>522</v>
+        <v>586</v>
       </c>
       <c r="X65" t="s">
-        <v>523</v>
+        <v>587</v>
       </c>
       <c r="Y65" t="s">
-        <v>524</v>
+        <v>588</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>60013</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>146937</v>
+      </c>
+      <c r="C66" t="s">
+        <v>589</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>525</v>
+        <v>590</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>526</v>
+        <v>591</v>
       </c>
       <c r="J66" t="s">
-        <v>527</v>
+        <v>592</v>
       </c>
       <c r="K66" t="s">
-        <v>528</v>
+        <v>593</v>
       </c>
       <c r="L66" t="s">
-        <v>529</v>
+        <v>594</v>
       </c>
       <c r="M66" t="n">
         <v>4</v>
       </c>
       <c r="N66" t="s">
-        <v>499</v>
+        <v>560</v>
       </c>
       <c r="O66" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P66" t="n">
         <v>4</v>
@@ -7070,56 +7654,60 @@
         <v>0</v>
       </c>
       <c r="W66" t="s">
-        <v>530</v>
+        <v>595</v>
       </c>
       <c r="X66" t="s">
-        <v>531</v>
+        <v>596</v>
       </c>
       <c r="Y66" t="s">
-        <v>532</v>
+        <v>597</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>60013</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>146938</v>
+      </c>
+      <c r="C67" t="s">
+        <v>598</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>533</v>
+        <v>599</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>534</v>
+        <v>600</v>
       </c>
       <c r="J67" t="s">
-        <v>535</v>
+        <v>601</v>
       </c>
       <c r="K67" t="s">
-        <v>536</v>
+        <v>602</v>
       </c>
       <c r="L67" t="s">
-        <v>537</v>
+        <v>603</v>
       </c>
       <c r="M67" t="n">
         <v>2</v>
       </c>
       <c r="N67" t="s">
-        <v>538</v>
+        <v>604</v>
       </c>
       <c r="O67" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P67" t="n">
         <v>3</v>
@@ -7141,56 +7729,60 @@
         <v>0</v>
       </c>
       <c r="W67" t="s">
-        <v>539</v>
+        <v>605</v>
       </c>
       <c r="X67" t="s">
-        <v>540</v>
+        <v>606</v>
       </c>
       <c r="Y67" t="s">
-        <v>541</v>
+        <v>607</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>60013</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>19275</v>
+      </c>
+      <c r="C68" t="s">
+        <v>608</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>542</v>
+        <v>609</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>543</v>
+        <v>610</v>
       </c>
       <c r="J68" t="s">
-        <v>544</v>
+        <v>611</v>
       </c>
       <c r="K68" t="s">
-        <v>545</v>
+        <v>612</v>
       </c>
       <c r="L68" t="s">
-        <v>546</v>
+        <v>613</v>
       </c>
       <c r="M68" t="n">
         <v>4</v>
       </c>
       <c r="N68" t="s">
-        <v>547</v>
+        <v>614</v>
       </c>
       <c r="O68" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="P68" t="n">
         <v>4</v>
@@ -7212,56 +7804,60 @@
         <v>0</v>
       </c>
       <c r="W68" t="s">
-        <v>548</v>
+        <v>615</v>
       </c>
       <c r="X68" t="s">
-        <v>549</v>
+        <v>616</v>
       </c>
       <c r="Y68" t="s">
-        <v>550</v>
+        <v>617</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>60013</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>3638</v>
+      </c>
+      <c r="C69" t="s">
+        <v>618</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>551</v>
+        <v>619</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>552</v>
+        <v>620</v>
       </c>
       <c r="J69" t="s">
-        <v>553</v>
+        <v>621</v>
       </c>
       <c r="K69" t="s">
-        <v>554</v>
+        <v>622</v>
       </c>
       <c r="L69" t="s">
-        <v>555</v>
+        <v>623</v>
       </c>
       <c r="M69" t="n">
         <v>4</v>
       </c>
       <c r="N69" t="s">
-        <v>556</v>
+        <v>624</v>
       </c>
       <c r="O69" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P69" t="n">
         <v>4</v>
@@ -7283,56 +7879,60 @@
         <v>0</v>
       </c>
       <c r="W69" t="s">
-        <v>548</v>
+        <v>615</v>
       </c>
       <c r="X69" t="s">
-        <v>549</v>
+        <v>616</v>
       </c>
       <c r="Y69" t="s">
-        <v>557</v>
+        <v>625</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>60013</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>146939</v>
+      </c>
+      <c r="C70" t="s">
+        <v>626</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>558</v>
+        <v>627</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>559</v>
+        <v>628</v>
       </c>
       <c r="J70" t="s">
-        <v>560</v>
+        <v>629</v>
       </c>
       <c r="K70" t="s">
-        <v>561</v>
+        <v>630</v>
       </c>
       <c r="L70" t="s">
-        <v>562</v>
+        <v>631</v>
       </c>
       <c r="M70" t="n">
         <v>5</v>
       </c>
       <c r="N70" t="s">
-        <v>563</v>
+        <v>632</v>
       </c>
       <c r="O70" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="P70" t="n">
         <v>5</v>
@@ -7354,56 +7954,60 @@
         <v>0</v>
       </c>
       <c r="W70" t="s">
-        <v>548</v>
+        <v>615</v>
       </c>
       <c r="X70" t="s">
-        <v>549</v>
+        <v>616</v>
       </c>
       <c r="Y70" t="s">
-        <v>564</v>
+        <v>633</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>60013</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>146940</v>
+      </c>
+      <c r="C71" t="s">
+        <v>634</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>565</v>
+        <v>635</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>566</v>
+        <v>636</v>
       </c>
       <c r="J71" t="s">
-        <v>567</v>
+        <v>637</v>
       </c>
       <c r="K71" t="s">
-        <v>353</v>
+        <v>396</v>
       </c>
       <c r="L71" t="s">
-        <v>568</v>
+        <v>638</v>
       </c>
       <c r="M71" t="n">
         <v>4</v>
       </c>
       <c r="N71" t="s">
-        <v>563</v>
+        <v>632</v>
       </c>
       <c r="O71" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="P71" t="s"/>
       <c r="Q71" t="s"/>
@@ -7415,56 +8019,60 @@
         <v>0</v>
       </c>
       <c r="W71" t="s">
-        <v>548</v>
+        <v>615</v>
       </c>
       <c r="X71" t="s">
-        <v>549</v>
+        <v>616</v>
       </c>
       <c r="Y71" t="s">
-        <v>569</v>
+        <v>639</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>60013</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>146941</v>
+      </c>
+      <c r="C72" t="s">
+        <v>640</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>570</v>
+        <v>641</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>571</v>
+        <v>642</v>
       </c>
       <c r="J72" t="s">
-        <v>572</v>
+        <v>643</v>
       </c>
       <c r="K72" t="s">
-        <v>573</v>
+        <v>644</v>
       </c>
       <c r="L72" t="s">
-        <v>574</v>
+        <v>645</v>
       </c>
       <c r="M72" t="n">
         <v>5</v>
       </c>
       <c r="N72" t="s">
-        <v>556</v>
+        <v>624</v>
       </c>
       <c r="O72" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P72" t="n">
         <v>5</v>
@@ -7486,56 +8094,60 @@
         <v>0</v>
       </c>
       <c r="W72" t="s">
-        <v>548</v>
+        <v>615</v>
       </c>
       <c r="X72" t="s">
-        <v>549</v>
+        <v>616</v>
       </c>
       <c r="Y72" t="s">
-        <v>575</v>
+        <v>646</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>60013</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>146942</v>
+      </c>
+      <c r="C73" t="s">
+        <v>647</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>576</v>
+        <v>648</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>577</v>
+        <v>649</v>
       </c>
       <c r="J73" t="s">
-        <v>578</v>
+        <v>650</v>
       </c>
       <c r="K73" t="s">
-        <v>579</v>
+        <v>651</v>
       </c>
       <c r="L73" t="s">
-        <v>580</v>
+        <v>652</v>
       </c>
       <c r="M73" t="n">
         <v>5</v>
       </c>
       <c r="N73" t="s">
-        <v>556</v>
+        <v>624</v>
       </c>
       <c r="O73" t="s">
-        <v>208</v>
+        <v>232</v>
       </c>
       <c r="P73" t="n">
         <v>5</v>
@@ -7557,56 +8169,60 @@
         <v>0</v>
       </c>
       <c r="W73" t="s">
-        <v>548</v>
+        <v>615</v>
       </c>
       <c r="X73" t="s">
-        <v>549</v>
+        <v>616</v>
       </c>
       <c r="Y73" t="s">
-        <v>581</v>
+        <v>653</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>60013</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>146943</v>
+      </c>
+      <c r="C74" t="s">
+        <v>654</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>582</v>
+        <v>655</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>583</v>
+        <v>656</v>
       </c>
       <c r="J74" t="s">
-        <v>584</v>
+        <v>657</v>
       </c>
       <c r="K74" t="s">
-        <v>585</v>
+        <v>658</v>
       </c>
       <c r="L74" t="s">
-        <v>586</v>
+        <v>659</v>
       </c>
       <c r="M74" t="n">
         <v>4</v>
       </c>
       <c r="N74" t="s">
-        <v>587</v>
+        <v>660</v>
       </c>
       <c r="O74" t="s">
-        <v>208</v>
+        <v>232</v>
       </c>
       <c r="P74" t="n">
         <v>5</v>
@@ -7628,56 +8244,60 @@
         <v>0</v>
       </c>
       <c r="W74" t="s">
-        <v>588</v>
+        <v>661</v>
       </c>
       <c r="X74" t="s">
-        <v>589</v>
+        <v>662</v>
       </c>
       <c r="Y74" t="s">
-        <v>590</v>
+        <v>663</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>60013</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>146944</v>
+      </c>
+      <c r="C75" t="s">
+        <v>664</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>591</v>
+        <v>665</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>592</v>
+        <v>666</v>
       </c>
       <c r="J75" t="s">
-        <v>593</v>
+        <v>667</v>
       </c>
       <c r="K75" t="s">
-        <v>594</v>
+        <v>668</v>
       </c>
       <c r="L75" t="s">
-        <v>595</v>
+        <v>669</v>
       </c>
       <c r="M75" t="n">
         <v>4</v>
       </c>
       <c r="N75" t="s">
-        <v>587</v>
+        <v>660</v>
       </c>
       <c r="O75" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P75" t="n">
         <v>3</v>
@@ -7701,50 +8321,54 @@
       <c r="W75" t="s"/>
       <c r="X75" t="s"/>
       <c r="Y75" t="s">
-        <v>595</v>
+        <v>669</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>60013</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>19902</v>
+      </c>
+      <c r="C76" t="s">
+        <v>670</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>596</v>
+        <v>671</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>597</v>
+        <v>672</v>
       </c>
       <c r="J76" t="s">
-        <v>598</v>
+        <v>673</v>
       </c>
       <c r="K76" t="s">
-        <v>599</v>
+        <v>674</v>
       </c>
       <c r="L76" t="s">
-        <v>600</v>
+        <v>675</v>
       </c>
       <c r="M76" t="n">
         <v>5</v>
       </c>
       <c r="N76" t="s">
-        <v>601</v>
+        <v>676</v>
       </c>
       <c r="O76" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="P76" t="n">
         <v>5</v>
@@ -7766,56 +8390,60 @@
         <v>0</v>
       </c>
       <c r="W76" t="s">
-        <v>602</v>
+        <v>677</v>
       </c>
       <c r="X76" t="s">
-        <v>603</v>
+        <v>678</v>
       </c>
       <c r="Y76" t="s">
-        <v>604</v>
+        <v>679</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>60013</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>146945</v>
+      </c>
+      <c r="C77" t="s">
+        <v>680</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>605</v>
+        <v>681</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>606</v>
+        <v>682</v>
       </c>
       <c r="J77" t="s">
-        <v>607</v>
+        <v>683</v>
       </c>
       <c r="K77" t="s">
-        <v>608</v>
+        <v>684</v>
       </c>
       <c r="L77" t="s">
-        <v>609</v>
+        <v>685</v>
       </c>
       <c r="M77" t="n">
         <v>3</v>
       </c>
       <c r="N77" t="s">
-        <v>610</v>
+        <v>686</v>
       </c>
       <c r="O77" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="P77" t="n">
         <v>3</v>
@@ -7837,56 +8465,60 @@
         <v>0</v>
       </c>
       <c r="W77" t="s">
-        <v>548</v>
+        <v>615</v>
       </c>
       <c r="X77" t="s">
-        <v>549</v>
+        <v>616</v>
       </c>
       <c r="Y77" t="s">
-        <v>611</v>
+        <v>687</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>60013</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>19054</v>
+      </c>
+      <c r="C78" t="s">
+        <v>688</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>612</v>
+        <v>689</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>613</v>
+        <v>690</v>
       </c>
       <c r="J78" t="s">
-        <v>614</v>
+        <v>691</v>
       </c>
       <c r="K78" t="s">
-        <v>615</v>
+        <v>692</v>
       </c>
       <c r="L78" t="s">
-        <v>616</v>
+        <v>693</v>
       </c>
       <c r="M78" t="n">
         <v>4</v>
       </c>
       <c r="N78" t="s">
-        <v>587</v>
+        <v>660</v>
       </c>
       <c r="O78" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="P78" t="n">
         <v>4</v>
@@ -7910,50 +8542,54 @@
       <c r="W78" t="s"/>
       <c r="X78" t="s"/>
       <c r="Y78" t="s">
-        <v>617</v>
+        <v>694</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>60013</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>146946</v>
+      </c>
+      <c r="C79" t="s">
+        <v>695</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>618</v>
+        <v>696</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>619</v>
+        <v>697</v>
       </c>
       <c r="J79" t="s">
-        <v>620</v>
+        <v>698</v>
       </c>
       <c r="K79" t="s">
-        <v>621</v>
+        <v>699</v>
       </c>
       <c r="L79" t="s">
-        <v>622</v>
+        <v>700</v>
       </c>
       <c r="M79" t="n">
         <v>3</v>
       </c>
       <c r="N79" t="s">
-        <v>610</v>
+        <v>686</v>
       </c>
       <c r="O79" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P79" t="n">
         <v>3</v>
@@ -7975,56 +8611,60 @@
         <v>0</v>
       </c>
       <c r="W79" t="s">
-        <v>548</v>
+        <v>615</v>
       </c>
       <c r="X79" t="s">
-        <v>549</v>
+        <v>616</v>
       </c>
       <c r="Y79" t="s">
-        <v>623</v>
+        <v>701</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>60013</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>146947</v>
+      </c>
+      <c r="C80" t="s">
+        <v>702</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>624</v>
+        <v>703</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>625</v>
+        <v>704</v>
       </c>
       <c r="J80" t="s">
-        <v>626</v>
+        <v>705</v>
       </c>
       <c r="K80" t="s">
-        <v>627</v>
+        <v>706</v>
       </c>
       <c r="L80" t="s">
-        <v>628</v>
+        <v>707</v>
       </c>
       <c r="M80" t="n">
         <v>4</v>
       </c>
       <c r="N80" t="s">
-        <v>629</v>
+        <v>708</v>
       </c>
       <c r="O80" t="s">
-        <v>208</v>
+        <v>232</v>
       </c>
       <c r="P80" t="n">
         <v>4</v>
@@ -8048,50 +8688,54 @@
       <c r="W80" t="s"/>
       <c r="X80" t="s"/>
       <c r="Y80" t="s">
-        <v>628</v>
+        <v>707</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>60013</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>2567</v>
+      </c>
+      <c r="C81" t="s">
+        <v>709</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>630</v>
+        <v>710</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>631</v>
+        <v>711</v>
       </c>
       <c r="J81" t="s">
-        <v>632</v>
+        <v>712</v>
       </c>
       <c r="K81" t="s">
-        <v>633</v>
+        <v>713</v>
       </c>
       <c r="L81" t="s">
-        <v>634</v>
+        <v>714</v>
       </c>
       <c r="M81" t="n">
         <v>4</v>
       </c>
       <c r="N81" t="s">
-        <v>629</v>
+        <v>708</v>
       </c>
       <c r="O81" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P81" t="n">
         <v>5</v>
@@ -8115,50 +8759,54 @@
       <c r="W81" t="s"/>
       <c r="X81" t="s"/>
       <c r="Y81" t="s">
-        <v>635</v>
+        <v>715</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>60013</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>146948</v>
+      </c>
+      <c r="C82" t="s">
+        <v>716</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>636</v>
+        <v>717</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>637</v>
+        <v>718</v>
       </c>
       <c r="J82" t="s">
-        <v>638</v>
+        <v>719</v>
       </c>
       <c r="K82" t="s">
-        <v>639</v>
+        <v>720</v>
       </c>
       <c r="L82" t="s">
-        <v>640</v>
+        <v>721</v>
       </c>
       <c r="M82" t="n">
         <v>4</v>
       </c>
       <c r="N82" t="s">
-        <v>641</v>
+        <v>722</v>
       </c>
       <c r="O82" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P82" t="n">
         <v>5</v>
@@ -8182,50 +8830,54 @@
       <c r="W82" t="s"/>
       <c r="X82" t="s"/>
       <c r="Y82" t="s">
-        <v>640</v>
+        <v>721</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>60013</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>146949</v>
+      </c>
+      <c r="C83" t="s">
+        <v>723</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>642</v>
+        <v>724</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>643</v>
+        <v>725</v>
       </c>
       <c r="J83" t="s">
-        <v>644</v>
+        <v>726</v>
       </c>
       <c r="K83" t="s">
-        <v>645</v>
+        <v>727</v>
       </c>
       <c r="L83" t="s">
-        <v>646</v>
+        <v>728</v>
       </c>
       <c r="M83" t="n">
         <v>2</v>
       </c>
       <c r="N83" t="s">
-        <v>647</v>
+        <v>729</v>
       </c>
       <c r="O83" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P83" t="n">
         <v>2</v>
@@ -8247,56 +8899,60 @@
         <v>0</v>
       </c>
       <c r="W83" t="s">
-        <v>548</v>
+        <v>615</v>
       </c>
       <c r="X83" t="s">
-        <v>549</v>
+        <v>616</v>
       </c>
       <c r="Y83" t="s">
-        <v>648</v>
+        <v>730</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>60013</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>146950</v>
+      </c>
+      <c r="C84" t="s">
+        <v>731</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>649</v>
+        <v>732</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>650</v>
+        <v>733</v>
       </c>
       <c r="J84" t="s">
-        <v>651</v>
+        <v>734</v>
       </c>
       <c r="K84" t="s">
-        <v>652</v>
+        <v>735</v>
       </c>
       <c r="L84" t="s">
-        <v>653</v>
+        <v>736</v>
       </c>
       <c r="M84" t="n">
         <v>5</v>
       </c>
       <c r="N84" t="s">
-        <v>647</v>
+        <v>729</v>
       </c>
       <c r="O84" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P84" t="n">
         <v>5</v>
@@ -8320,41 +8976,45 @@
       <c r="W84" t="s"/>
       <c r="X84" t="s"/>
       <c r="Y84" t="s">
-        <v>654</v>
+        <v>737</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>60013</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>146951</v>
+      </c>
+      <c r="C85" t="s">
+        <v>738</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>655</v>
+        <v>739</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s">
-        <v>656</v>
+        <v>740</v>
       </c>
       <c r="J85" t="s">
-        <v>657</v>
+        <v>741</v>
       </c>
       <c r="K85" t="s">
-        <v>658</v>
+        <v>742</v>
       </c>
       <c r="L85" t="s">
-        <v>659</v>
+        <v>743</v>
       </c>
       <c r="M85" t="n">
         <v>5</v>
@@ -8381,56 +9041,60 @@
         <v>0</v>
       </c>
       <c r="W85" t="s">
-        <v>588</v>
+        <v>661</v>
       </c>
       <c r="X85" t="s">
-        <v>589</v>
+        <v>662</v>
       </c>
       <c r="Y85" t="s">
-        <v>660</v>
+        <v>744</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>60013</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>146952</v>
+      </c>
+      <c r="C86" t="s">
+        <v>745</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>661</v>
+        <v>746</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I86" t="s">
-        <v>662</v>
+        <v>747</v>
       </c>
       <c r="J86" t="s">
-        <v>663</v>
+        <v>748</v>
       </c>
       <c r="K86" t="s">
-        <v>664</v>
+        <v>749</v>
       </c>
       <c r="L86" t="s">
-        <v>665</v>
+        <v>750</v>
       </c>
       <c r="M86" t="n">
         <v>5</v>
       </c>
       <c r="N86" t="s">
-        <v>666</v>
+        <v>751</v>
       </c>
       <c r="O86" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P86" t="n">
         <v>5</v>
@@ -8454,50 +9118,54 @@
       <c r="W86" t="s"/>
       <c r="X86" t="s"/>
       <c r="Y86" t="s">
-        <v>667</v>
+        <v>752</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>60013</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>146953</v>
+      </c>
+      <c r="C87" t="s">
+        <v>753</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s">
-        <v>668</v>
+        <v>754</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I87" t="s">
-        <v>669</v>
+        <v>755</v>
       </c>
       <c r="J87" t="s">
-        <v>670</v>
+        <v>756</v>
       </c>
       <c r="K87" t="s">
-        <v>671</v>
+        <v>757</v>
       </c>
       <c r="L87" t="s">
-        <v>672</v>
+        <v>758</v>
       </c>
       <c r="M87" t="n">
         <v>5</v>
       </c>
       <c r="N87" t="s">
-        <v>666</v>
+        <v>751</v>
       </c>
       <c r="O87" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P87" t="n">
         <v>5</v>
@@ -8521,50 +9189,54 @@
       <c r="W87" t="s"/>
       <c r="X87" t="s"/>
       <c r="Y87" t="s">
-        <v>672</v>
+        <v>758</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>60013</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>146954</v>
+      </c>
+      <c r="C88" t="s">
+        <v>759</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F88" t="s">
-        <v>673</v>
+        <v>760</v>
       </c>
       <c r="G88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I88" t="s">
-        <v>674</v>
+        <v>761</v>
       </c>
       <c r="J88" t="s">
-        <v>675</v>
+        <v>762</v>
       </c>
       <c r="K88" t="s">
-        <v>676</v>
+        <v>763</v>
       </c>
       <c r="L88" t="s">
-        <v>677</v>
+        <v>764</v>
       </c>
       <c r="M88" t="n">
         <v>4</v>
       </c>
       <c r="N88" t="s">
-        <v>678</v>
+        <v>765</v>
       </c>
       <c r="O88" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="P88" t="s"/>
       <c r="Q88" t="n">
@@ -8586,50 +9258,54 @@
       <c r="W88" t="s"/>
       <c r="X88" t="s"/>
       <c r="Y88" t="s">
-        <v>677</v>
+        <v>764</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>60013</v>
       </c>
-      <c r="B89" t="s"/>
-      <c r="C89" t="s"/>
+      <c r="B89" t="n">
+        <v>146955</v>
+      </c>
+      <c r="C89" t="s">
+        <v>766</v>
+      </c>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F89" t="s">
-        <v>679</v>
+        <v>767</v>
       </c>
       <c r="G89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I89" t="s">
-        <v>680</v>
+        <v>768</v>
       </c>
       <c r="J89" t="s">
-        <v>681</v>
+        <v>769</v>
       </c>
       <c r="K89" t="s">
-        <v>682</v>
+        <v>770</v>
       </c>
       <c r="L89" t="s">
-        <v>683</v>
+        <v>771</v>
       </c>
       <c r="M89" t="n">
         <v>5</v>
       </c>
       <c r="N89" t="s">
-        <v>684</v>
+        <v>772</v>
       </c>
       <c r="O89" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P89" t="n">
         <v>5</v>
@@ -8653,41 +9329,45 @@
       <c r="W89" t="s"/>
       <c r="X89" t="s"/>
       <c r="Y89" t="s">
-        <v>683</v>
+        <v>771</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>60013</v>
       </c>
-      <c r="B90" t="s"/>
-      <c r="C90" t="s"/>
+      <c r="B90" t="n">
+        <v>146912</v>
+      </c>
+      <c r="C90" t="s">
+        <v>292</v>
+      </c>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F90" t="s">
-        <v>685</v>
+        <v>773</v>
       </c>
       <c r="G90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I90" t="s">
-        <v>686</v>
+        <v>774</v>
       </c>
       <c r="J90" t="s">
-        <v>687</v>
+        <v>775</v>
       </c>
       <c r="K90" t="s">
-        <v>688</v>
+        <v>776</v>
       </c>
       <c r="L90" t="s">
-        <v>689</v>
+        <v>777</v>
       </c>
       <c r="M90" t="n">
         <v>5</v>
@@ -8716,50 +9396,54 @@
       <c r="W90" t="s"/>
       <c r="X90" t="s"/>
       <c r="Y90" t="s">
-        <v>690</v>
+        <v>778</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>60013</v>
       </c>
-      <c r="B91" t="s"/>
-      <c r="C91" t="s"/>
+      <c r="B91" t="n">
+        <v>146956</v>
+      </c>
+      <c r="C91" t="s">
+        <v>779</v>
+      </c>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F91" t="s">
-        <v>691</v>
+        <v>780</v>
       </c>
       <c r="G91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I91" t="s">
-        <v>692</v>
+        <v>781</v>
       </c>
       <c r="J91" t="s">
-        <v>693</v>
+        <v>782</v>
       </c>
       <c r="K91" t="s">
-        <v>694</v>
+        <v>783</v>
       </c>
       <c r="L91" t="s">
-        <v>695</v>
+        <v>784</v>
       </c>
       <c r="M91" t="n">
         <v>5</v>
       </c>
       <c r="N91" t="s">
-        <v>678</v>
+        <v>765</v>
       </c>
       <c r="O91" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P91" t="n">
         <v>5</v>
@@ -8783,41 +9467,45 @@
       <c r="W91" t="s"/>
       <c r="X91" t="s"/>
       <c r="Y91" t="s">
-        <v>695</v>
+        <v>784</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>60013</v>
       </c>
-      <c r="B92" t="s"/>
-      <c r="C92" t="s"/>
+      <c r="B92" t="n">
+        <v>146957</v>
+      </c>
+      <c r="C92" t="s">
+        <v>785</v>
+      </c>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F92" t="s">
-        <v>696</v>
+        <v>786</v>
       </c>
       <c r="G92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I92" t="s">
-        <v>697</v>
+        <v>787</v>
       </c>
       <c r="J92" t="s">
-        <v>698</v>
+        <v>788</v>
       </c>
       <c r="K92" t="s">
-        <v>699</v>
+        <v>789</v>
       </c>
       <c r="L92" t="s">
-        <v>700</v>
+        <v>790</v>
       </c>
       <c r="M92" t="n">
         <v>3</v>
@@ -8846,50 +9534,54 @@
       <c r="W92" t="s"/>
       <c r="X92" t="s"/>
       <c r="Y92" t="s">
-        <v>700</v>
+        <v>790</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>60013</v>
       </c>
-      <c r="B93" t="s"/>
-      <c r="C93" t="s"/>
+      <c r="B93" t="n">
+        <v>146958</v>
+      </c>
+      <c r="C93" t="s">
+        <v>791</v>
+      </c>
       <c r="D93" t="n">
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F93" t="s">
-        <v>701</v>
+        <v>792</v>
       </c>
       <c r="G93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I93" t="s">
-        <v>702</v>
+        <v>793</v>
       </c>
       <c r="J93" t="s">
-        <v>703</v>
+        <v>794</v>
       </c>
       <c r="K93" t="s">
-        <v>704</v>
+        <v>795</v>
       </c>
       <c r="L93" t="s">
-        <v>705</v>
+        <v>796</v>
       </c>
       <c r="M93" t="n">
         <v>4</v>
       </c>
       <c r="N93" t="s">
-        <v>706</v>
+        <v>797</v>
       </c>
       <c r="O93" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="P93" t="s"/>
       <c r="Q93" t="s"/>
@@ -8903,50 +9595,54 @@
       <c r="W93" t="s"/>
       <c r="X93" t="s"/>
       <c r="Y93" t="s">
-        <v>705</v>
+        <v>796</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>60013</v>
       </c>
-      <c r="B94" t="s"/>
-      <c r="C94" t="s"/>
+      <c r="B94" t="n">
+        <v>146959</v>
+      </c>
+      <c r="C94" t="s">
+        <v>798</v>
+      </c>
       <c r="D94" t="n">
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F94" t="s">
-        <v>707</v>
+        <v>799</v>
       </c>
       <c r="G94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H94" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I94" t="s">
-        <v>708</v>
+        <v>800</v>
       </c>
       <c r="J94" t="s">
-        <v>709</v>
+        <v>801</v>
       </c>
       <c r="K94" t="s">
-        <v>710</v>
+        <v>802</v>
       </c>
       <c r="L94" t="s">
-        <v>711</v>
+        <v>803</v>
       </c>
       <c r="M94" t="n">
         <v>4</v>
       </c>
       <c r="N94" t="s">
-        <v>712</v>
+        <v>804</v>
       </c>
       <c r="O94" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="P94" t="n">
         <v>4</v>
@@ -8970,50 +9666,54 @@
       <c r="W94" t="s"/>
       <c r="X94" t="s"/>
       <c r="Y94" t="s">
-        <v>713</v>
+        <v>805</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>60013</v>
       </c>
-      <c r="B95" t="s"/>
-      <c r="C95" t="s"/>
+      <c r="B95" t="n">
+        <v>16169</v>
+      </c>
+      <c r="C95" t="s">
+        <v>806</v>
+      </c>
       <c r="D95" t="n">
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F95" t="s">
-        <v>714</v>
+        <v>807</v>
       </c>
       <c r="G95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H95" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I95" t="s">
-        <v>715</v>
+        <v>808</v>
       </c>
       <c r="J95" t="s">
-        <v>716</v>
+        <v>809</v>
       </c>
       <c r="K95" t="s">
-        <v>717</v>
+        <v>810</v>
       </c>
       <c r="L95" t="s">
-        <v>718</v>
+        <v>811</v>
       </c>
       <c r="M95" t="n">
         <v>5</v>
       </c>
       <c r="N95" t="s">
-        <v>719</v>
+        <v>812</v>
       </c>
       <c r="O95" t="s">
-        <v>208</v>
+        <v>232</v>
       </c>
       <c r="P95" t="n">
         <v>5</v>
@@ -9037,50 +9737,54 @@
       <c r="W95" t="s"/>
       <c r="X95" t="s"/>
       <c r="Y95" t="s">
-        <v>718</v>
+        <v>811</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>60013</v>
       </c>
-      <c r="B96" t="s"/>
-      <c r="C96" t="s"/>
+      <c r="B96" t="n">
+        <v>146960</v>
+      </c>
+      <c r="C96" t="s">
+        <v>813</v>
+      </c>
       <c r="D96" t="n">
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F96" t="s">
-        <v>720</v>
+        <v>814</v>
       </c>
       <c r="G96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H96" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I96" t="s">
-        <v>721</v>
+        <v>815</v>
       </c>
       <c r="J96" t="s">
-        <v>722</v>
+        <v>816</v>
       </c>
       <c r="K96" t="s">
-        <v>723</v>
+        <v>817</v>
       </c>
       <c r="L96" t="s">
-        <v>724</v>
+        <v>818</v>
       </c>
       <c r="M96" t="n">
         <v>5</v>
       </c>
       <c r="N96" t="s">
-        <v>719</v>
+        <v>812</v>
       </c>
       <c r="O96" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P96" t="n">
         <v>5</v>
@@ -9104,50 +9808,54 @@
       <c r="W96" t="s"/>
       <c r="X96" t="s"/>
       <c r="Y96" t="s">
-        <v>724</v>
+        <v>818</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
         <v>60013</v>
       </c>
-      <c r="B97" t="s"/>
-      <c r="C97" t="s"/>
+      <c r="B97" t="n">
+        <v>146961</v>
+      </c>
+      <c r="C97" t="s">
+        <v>819</v>
+      </c>
       <c r="D97" t="n">
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F97" t="s">
-        <v>725</v>
+        <v>820</v>
       </c>
       <c r="G97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H97" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I97" t="s">
-        <v>726</v>
+        <v>821</v>
       </c>
       <c r="J97" t="s">
-        <v>727</v>
+        <v>822</v>
       </c>
       <c r="K97" t="s">
-        <v>728</v>
+        <v>823</v>
       </c>
       <c r="L97" t="s">
-        <v>729</v>
+        <v>824</v>
       </c>
       <c r="M97" t="n">
         <v>5</v>
       </c>
       <c r="N97" t="s">
-        <v>719</v>
+        <v>812</v>
       </c>
       <c r="O97" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="P97" t="n">
         <v>5</v>
@@ -9171,50 +9879,54 @@
       <c r="W97" t="s"/>
       <c r="X97" t="s"/>
       <c r="Y97" t="s">
-        <v>730</v>
+        <v>825</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
         <v>60013</v>
       </c>
-      <c r="B98" t="s"/>
-      <c r="C98" t="s"/>
+      <c r="B98" t="n">
+        <v>146962</v>
+      </c>
+      <c r="C98" t="s">
+        <v>826</v>
+      </c>
       <c r="D98" t="n">
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F98" t="s">
-        <v>731</v>
+        <v>827</v>
       </c>
       <c r="G98" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H98" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I98" t="s">
-        <v>732</v>
+        <v>828</v>
       </c>
       <c r="J98" t="s">
-        <v>733</v>
+        <v>829</v>
       </c>
       <c r="K98" t="s">
-        <v>734</v>
+        <v>830</v>
       </c>
       <c r="L98" t="s">
-        <v>735</v>
+        <v>831</v>
       </c>
       <c r="M98" t="n">
         <v>4</v>
       </c>
       <c r="N98" t="s">
-        <v>706</v>
+        <v>797</v>
       </c>
       <c r="O98" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="P98" t="n">
         <v>4</v>
@@ -9238,50 +9950,54 @@
       <c r="W98" t="s"/>
       <c r="X98" t="s"/>
       <c r="Y98" t="s">
-        <v>735</v>
+        <v>831</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
         <v>60013</v>
       </c>
-      <c r="B99" t="s"/>
-      <c r="C99" t="s"/>
+      <c r="B99" t="n">
+        <v>146963</v>
+      </c>
+      <c r="C99" t="s">
+        <v>832</v>
+      </c>
       <c r="D99" t="n">
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F99" t="s">
-        <v>736</v>
+        <v>833</v>
       </c>
       <c r="G99" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H99" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I99" t="s">
-        <v>737</v>
+        <v>834</v>
       </c>
       <c r="J99" t="s">
-        <v>738</v>
+        <v>835</v>
       </c>
       <c r="K99" t="s">
-        <v>739</v>
+        <v>836</v>
       </c>
       <c r="L99" t="s">
-        <v>740</v>
+        <v>837</v>
       </c>
       <c r="M99" t="n">
         <v>4</v>
       </c>
       <c r="N99" t="s">
-        <v>706</v>
+        <v>797</v>
       </c>
       <c r="O99" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P99" t="n">
         <v>4</v>
@@ -9305,50 +10021,54 @@
       <c r="W99" t="s"/>
       <c r="X99" t="s"/>
       <c r="Y99" t="s">
-        <v>741</v>
+        <v>838</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
         <v>60013</v>
       </c>
-      <c r="B100" t="s"/>
-      <c r="C100" t="s"/>
+      <c r="B100" t="n">
+        <v>146964</v>
+      </c>
+      <c r="C100" t="s">
+        <v>839</v>
+      </c>
       <c r="D100" t="n">
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F100" t="s">
-        <v>742</v>
+        <v>840</v>
       </c>
       <c r="G100" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H100" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I100" t="s">
-        <v>743</v>
+        <v>841</v>
       </c>
       <c r="J100" t="s">
-        <v>744</v>
+        <v>842</v>
       </c>
       <c r="K100" t="s">
-        <v>745</v>
+        <v>843</v>
       </c>
       <c r="L100" t="s">
-        <v>746</v>
+        <v>844</v>
       </c>
       <c r="M100" t="n">
         <v>5</v>
       </c>
       <c r="N100" t="s">
-        <v>706</v>
+        <v>797</v>
       </c>
       <c r="O100" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P100" t="n">
         <v>5</v>
@@ -9372,50 +10092,54 @@
       <c r="W100" t="s"/>
       <c r="X100" t="s"/>
       <c r="Y100" t="s">
-        <v>747</v>
+        <v>845</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
         <v>60013</v>
       </c>
-      <c r="B101" t="s"/>
-      <c r="C101" t="s"/>
+      <c r="B101" t="n">
+        <v>146965</v>
+      </c>
+      <c r="C101" t="s">
+        <v>846</v>
+      </c>
       <c r="D101" t="n">
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F101" t="s">
-        <v>748</v>
+        <v>847</v>
       </c>
       <c r="G101" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H101" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I101" t="s">
-        <v>749</v>
+        <v>848</v>
       </c>
       <c r="J101" t="s">
-        <v>750</v>
+        <v>849</v>
       </c>
       <c r="K101" t="s">
-        <v>751</v>
+        <v>850</v>
       </c>
       <c r="L101" t="s">
-        <v>752</v>
+        <v>851</v>
       </c>
       <c r="M101" t="n">
         <v>4</v>
       </c>
       <c r="N101" t="s">
-        <v>753</v>
+        <v>852</v>
       </c>
       <c r="O101" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P101" t="n">
         <v>3</v>
@@ -9437,56 +10161,60 @@
         <v>0</v>
       </c>
       <c r="W101" t="s">
-        <v>754</v>
+        <v>853</v>
       </c>
       <c r="X101" t="s">
-        <v>755</v>
+        <v>854</v>
       </c>
       <c r="Y101" t="s">
-        <v>756</v>
+        <v>855</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
         <v>60013</v>
       </c>
-      <c r="B102" t="s"/>
-      <c r="C102" t="s"/>
+      <c r="B102" t="n">
+        <v>1826</v>
+      </c>
+      <c r="C102" t="s">
+        <v>856</v>
+      </c>
       <c r="D102" t="n">
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F102" t="s">
-        <v>757</v>
+        <v>857</v>
       </c>
       <c r="G102" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H102" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I102" t="s">
-        <v>758</v>
+        <v>858</v>
       </c>
       <c r="J102" t="s">
-        <v>759</v>
+        <v>859</v>
       </c>
       <c r="K102" t="s">
-        <v>760</v>
+        <v>860</v>
       </c>
       <c r="L102" t="s">
-        <v>761</v>
+        <v>861</v>
       </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
       <c r="N102" t="s">
-        <v>762</v>
+        <v>862</v>
       </c>
       <c r="O102" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="P102" t="n">
         <v>3</v>
@@ -9508,56 +10236,60 @@
         <v>0</v>
       </c>
       <c r="W102" t="s">
-        <v>754</v>
+        <v>853</v>
       </c>
       <c r="X102" t="s">
-        <v>755</v>
+        <v>854</v>
       </c>
       <c r="Y102" t="s">
-        <v>763</v>
+        <v>863</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
         <v>60013</v>
       </c>
-      <c r="B103" t="s"/>
-      <c r="C103" t="s"/>
+      <c r="B103" t="n">
+        <v>146966</v>
+      </c>
+      <c r="C103" t="s">
+        <v>864</v>
+      </c>
       <c r="D103" t="n">
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F103" t="s">
-        <v>764</v>
+        <v>865</v>
       </c>
       <c r="G103" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H103" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I103" t="s">
-        <v>765</v>
+        <v>866</v>
       </c>
       <c r="J103" t="s">
-        <v>759</v>
+        <v>859</v>
       </c>
       <c r="K103" t="s">
-        <v>766</v>
+        <v>867</v>
       </c>
       <c r="L103" t="s">
-        <v>767</v>
+        <v>868</v>
       </c>
       <c r="M103" t="n">
         <v>5</v>
       </c>
       <c r="N103" t="s">
-        <v>768</v>
+        <v>869</v>
       </c>
       <c r="O103" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="P103" t="n">
         <v>4</v>
@@ -9579,56 +10311,60 @@
         <v>0</v>
       </c>
       <c r="W103" t="s">
-        <v>754</v>
+        <v>853</v>
       </c>
       <c r="X103" t="s">
-        <v>755</v>
+        <v>854</v>
       </c>
       <c r="Y103" t="s">
-        <v>769</v>
+        <v>870</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
         <v>60013</v>
       </c>
-      <c r="B104" t="s"/>
-      <c r="C104" t="s"/>
+      <c r="B104" t="n">
+        <v>146967</v>
+      </c>
+      <c r="C104" t="s">
+        <v>871</v>
+      </c>
       <c r="D104" t="n">
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F104" t="s">
-        <v>770</v>
+        <v>872</v>
       </c>
       <c r="G104" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H104" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I104" t="s">
-        <v>771</v>
+        <v>873</v>
       </c>
       <c r="J104" t="s">
-        <v>772</v>
+        <v>874</v>
       </c>
       <c r="K104" t="s">
-        <v>773</v>
+        <v>875</v>
       </c>
       <c r="L104" t="s">
-        <v>774</v>
+        <v>876</v>
       </c>
       <c r="M104" t="n">
         <v>4</v>
       </c>
       <c r="N104" t="s">
-        <v>762</v>
+        <v>862</v>
       </c>
       <c r="O104" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P104" t="n">
         <v>4</v>
@@ -9652,50 +10388,54 @@
       <c r="W104" t="s"/>
       <c r="X104" t="s"/>
       <c r="Y104" t="s">
-        <v>775</v>
+        <v>877</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
         <v>60013</v>
       </c>
-      <c r="B105" t="s"/>
-      <c r="C105" t="s"/>
+      <c r="B105" t="n">
+        <v>146928</v>
+      </c>
+      <c r="C105" t="s">
+        <v>482</v>
+      </c>
       <c r="D105" t="n">
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F105" t="s">
-        <v>776</v>
+        <v>878</v>
       </c>
       <c r="G105" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H105" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I105" t="s">
-        <v>777</v>
+        <v>879</v>
       </c>
       <c r="J105" t="s">
-        <v>778</v>
+        <v>880</v>
       </c>
       <c r="K105" t="s">
-        <v>779</v>
+        <v>881</v>
       </c>
       <c r="L105" t="s">
-        <v>780</v>
+        <v>882</v>
       </c>
       <c r="M105" t="n">
         <v>4</v>
       </c>
       <c r="N105" t="s">
-        <v>762</v>
+        <v>862</v>
       </c>
       <c r="O105" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P105" t="n">
         <v>5</v>
@@ -9719,50 +10459,54 @@
       <c r="W105" t="s"/>
       <c r="X105" t="s"/>
       <c r="Y105" t="s">
-        <v>780</v>
+        <v>882</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
         <v>60013</v>
       </c>
-      <c r="B106" t="s"/>
-      <c r="C106" t="s"/>
+      <c r="B106" t="n">
+        <v>146968</v>
+      </c>
+      <c r="C106" t="s">
+        <v>883</v>
+      </c>
       <c r="D106" t="n">
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F106" t="s">
-        <v>781</v>
+        <v>884</v>
       </c>
       <c r="G106" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H106" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I106" t="s">
-        <v>782</v>
+        <v>885</v>
       </c>
       <c r="J106" t="s">
-        <v>783</v>
+        <v>886</v>
       </c>
       <c r="K106" t="s">
-        <v>784</v>
+        <v>887</v>
       </c>
       <c r="L106" t="s">
-        <v>785</v>
+        <v>888</v>
       </c>
       <c r="M106" t="n">
         <v>4</v>
       </c>
       <c r="N106" t="s">
-        <v>786</v>
+        <v>889</v>
       </c>
       <c r="O106" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P106" t="n">
         <v>4</v>
@@ -9786,50 +10530,54 @@
       <c r="W106" t="s"/>
       <c r="X106" t="s"/>
       <c r="Y106" t="s">
-        <v>785</v>
+        <v>888</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
         <v>60013</v>
       </c>
-      <c r="B107" t="s"/>
-      <c r="C107" t="s"/>
+      <c r="B107" t="n">
+        <v>146969</v>
+      </c>
+      <c r="C107" t="s">
+        <v>890</v>
+      </c>
       <c r="D107" t="n">
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F107" t="s">
-        <v>787</v>
+        <v>891</v>
       </c>
       <c r="G107" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H107" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I107" t="s">
-        <v>788</v>
+        <v>892</v>
       </c>
       <c r="J107" t="s">
-        <v>789</v>
+        <v>893</v>
       </c>
       <c r="K107" t="s">
-        <v>790</v>
+        <v>894</v>
       </c>
       <c r="L107" t="s">
-        <v>791</v>
+        <v>895</v>
       </c>
       <c r="M107" t="n">
         <v>5</v>
       </c>
       <c r="N107" t="s">
-        <v>792</v>
+        <v>896</v>
       </c>
       <c r="O107" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P107" t="n">
         <v>5</v>
@@ -9847,56 +10595,60 @@
         <v>0</v>
       </c>
       <c r="W107" t="s">
-        <v>793</v>
+        <v>897</v>
       </c>
       <c r="X107" t="s">
-        <v>794</v>
+        <v>898</v>
       </c>
       <c r="Y107" t="s">
-        <v>795</v>
+        <v>899</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
         <v>60013</v>
       </c>
-      <c r="B108" t="s"/>
-      <c r="C108" t="s"/>
+      <c r="B108" t="n">
+        <v>146970</v>
+      </c>
+      <c r="C108" t="s">
+        <v>900</v>
+      </c>
       <c r="D108" t="n">
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F108" t="s">
-        <v>796</v>
+        <v>901</v>
       </c>
       <c r="G108" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H108" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I108" t="s">
-        <v>797</v>
+        <v>902</v>
       </c>
       <c r="J108" t="s">
-        <v>798</v>
+        <v>903</v>
       </c>
       <c r="K108" t="s">
-        <v>799</v>
+        <v>904</v>
       </c>
       <c r="L108" t="s">
-        <v>800</v>
+        <v>905</v>
       </c>
       <c r="M108" t="n">
         <v>3</v>
       </c>
       <c r="N108" t="s">
-        <v>792</v>
+        <v>896</v>
       </c>
       <c r="O108" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P108" t="n">
         <v>4</v>
@@ -9914,56 +10666,60 @@
         <v>0</v>
       </c>
       <c r="W108" t="s">
-        <v>793</v>
+        <v>897</v>
       </c>
       <c r="X108" t="s">
-        <v>794</v>
+        <v>898</v>
       </c>
       <c r="Y108" t="s">
-        <v>801</v>
+        <v>906</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
         <v>60013</v>
       </c>
-      <c r="B109" t="s"/>
-      <c r="C109" t="s"/>
+      <c r="B109" t="n">
+        <v>146971</v>
+      </c>
+      <c r="C109" t="s">
+        <v>907</v>
+      </c>
       <c r="D109" t="n">
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F109" t="s">
-        <v>802</v>
+        <v>908</v>
       </c>
       <c r="G109" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H109" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I109" t="s">
-        <v>803</v>
+        <v>909</v>
       </c>
       <c r="J109" t="s">
-        <v>804</v>
+        <v>910</v>
       </c>
       <c r="K109" t="s">
-        <v>805</v>
+        <v>911</v>
       </c>
       <c r="L109" t="s">
-        <v>806</v>
+        <v>912</v>
       </c>
       <c r="M109" t="n">
         <v>5</v>
       </c>
       <c r="N109" t="s">
-        <v>807</v>
+        <v>913</v>
       </c>
       <c r="O109" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P109" t="n">
         <v>5</v>
@@ -9981,56 +10737,60 @@
         <v>0</v>
       </c>
       <c r="W109" t="s">
-        <v>793</v>
+        <v>897</v>
       </c>
       <c r="X109" t="s">
-        <v>794</v>
+        <v>898</v>
       </c>
       <c r="Y109" t="s">
-        <v>808</v>
+        <v>914</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
         <v>60013</v>
       </c>
-      <c r="B110" t="s"/>
-      <c r="C110" t="s"/>
+      <c r="B110" t="n">
+        <v>146972</v>
+      </c>
+      <c r="C110" t="s">
+        <v>915</v>
+      </c>
       <c r="D110" t="n">
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F110" t="s">
-        <v>809</v>
+        <v>916</v>
       </c>
       <c r="G110" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H110" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I110" t="s">
-        <v>810</v>
+        <v>917</v>
       </c>
       <c r="J110" t="s">
-        <v>811</v>
+        <v>918</v>
       </c>
       <c r="K110" t="s">
-        <v>812</v>
+        <v>919</v>
       </c>
       <c r="L110" t="s">
-        <v>813</v>
+        <v>920</v>
       </c>
       <c r="M110" t="n">
         <v>5</v>
       </c>
       <c r="N110" t="s">
-        <v>814</v>
+        <v>921</v>
       </c>
       <c r="O110" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P110" t="n">
         <v>5</v>
@@ -10050,50 +10810,54 @@
       <c r="W110" t="s"/>
       <c r="X110" t="s"/>
       <c r="Y110" t="s">
-        <v>815</v>
+        <v>922</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
         <v>60013</v>
       </c>
-      <c r="B111" t="s"/>
-      <c r="C111" t="s"/>
+      <c r="B111" t="n">
+        <v>146973</v>
+      </c>
+      <c r="C111" t="s">
+        <v>923</v>
+      </c>
       <c r="D111" t="n">
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F111" t="s">
-        <v>816</v>
+        <v>924</v>
       </c>
       <c r="G111" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H111" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I111" t="s">
-        <v>817</v>
+        <v>925</v>
       </c>
       <c r="J111" t="s">
-        <v>818</v>
+        <v>926</v>
       </c>
       <c r="K111" t="s">
-        <v>819</v>
+        <v>927</v>
       </c>
       <c r="L111" t="s">
-        <v>820</v>
+        <v>928</v>
       </c>
       <c r="M111" t="n">
         <v>4</v>
       </c>
       <c r="N111" t="s">
-        <v>821</v>
+        <v>929</v>
       </c>
       <c r="O111" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="P111" t="n">
         <v>4</v>
@@ -10117,7 +10881,7 @@
       <c r="W111" t="s"/>
       <c r="X111" t="s"/>
       <c r="Y111" t="s">
-        <v>820</v>
+        <v>928</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_281.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_281.xlsx
@@ -3321,7 +3321,7 @@
         <v>60013</v>
       </c>
       <c r="B2" t="n">
-        <v>146893</v>
+        <v>178249</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
@@ -3449,7 +3449,7 @@
         <v>60013</v>
       </c>
       <c r="B4" t="n">
-        <v>146894</v>
+        <v>178250</v>
       </c>
       <c r="C4" t="s">
         <v>64</v>
@@ -3575,7 +3575,7 @@
         <v>60013</v>
       </c>
       <c r="B6" t="n">
-        <v>146895</v>
+        <v>178251</v>
       </c>
       <c r="C6" t="s">
         <v>79</v>
@@ -3705,7 +3705,7 @@
         <v>60013</v>
       </c>
       <c r="B8" t="n">
-        <v>146896</v>
+        <v>178252</v>
       </c>
       <c r="C8" t="s">
         <v>95</v>
@@ -3772,7 +3772,7 @@
         <v>60013</v>
       </c>
       <c r="B9" t="n">
-        <v>146897</v>
+        <v>178253</v>
       </c>
       <c r="C9" t="s">
         <v>102</v>
@@ -3829,7 +3829,7 @@
         <v>60013</v>
       </c>
       <c r="B10" t="n">
-        <v>146898</v>
+        <v>178254</v>
       </c>
       <c r="C10" t="s">
         <v>108</v>
@@ -3896,7 +3896,7 @@
         <v>60013</v>
       </c>
       <c r="B11" t="n">
-        <v>146899</v>
+        <v>178255</v>
       </c>
       <c r="C11" t="s">
         <v>115</v>
@@ -3963,7 +3963,7 @@
         <v>60013</v>
       </c>
       <c r="B12" t="n">
-        <v>146900</v>
+        <v>178256</v>
       </c>
       <c r="C12" t="s">
         <v>122</v>
@@ -4219,7 +4219,7 @@
         <v>60013</v>
       </c>
       <c r="B16" t="n">
-        <v>146901</v>
+        <v>178257</v>
       </c>
       <c r="C16" t="s">
         <v>149</v>
@@ -4351,7 +4351,7 @@
         <v>60013</v>
       </c>
       <c r="B18" t="n">
-        <v>146902</v>
+        <v>178258</v>
       </c>
       <c r="C18" t="s">
         <v>167</v>
@@ -4416,7 +4416,7 @@
         <v>60013</v>
       </c>
       <c r="B19" t="n">
-        <v>146903</v>
+        <v>178259</v>
       </c>
       <c r="C19" t="s">
         <v>174</v>
@@ -4487,7 +4487,7 @@
         <v>60013</v>
       </c>
       <c r="B20" t="n">
-        <v>146904</v>
+        <v>178260</v>
       </c>
       <c r="C20" t="s">
         <v>183</v>
@@ -4552,7 +4552,7 @@
         <v>60013</v>
       </c>
       <c r="B21" t="n">
-        <v>146905</v>
+        <v>178261</v>
       </c>
       <c r="C21" t="s">
         <v>193</v>
@@ -4749,7 +4749,7 @@
         <v>60013</v>
       </c>
       <c r="B24" t="n">
-        <v>146906</v>
+        <v>178262</v>
       </c>
       <c r="C24" t="s">
         <v>219</v>
@@ -4810,7 +4810,7 @@
         <v>60013</v>
       </c>
       <c r="B25" t="n">
-        <v>146907</v>
+        <v>178263</v>
       </c>
       <c r="C25" t="s">
         <v>225</v>
@@ -4875,7 +4875,7 @@
         <v>60013</v>
       </c>
       <c r="B26" t="n">
-        <v>146908</v>
+        <v>178264</v>
       </c>
       <c r="C26" t="s">
         <v>233</v>
@@ -4942,7 +4942,7 @@
         <v>60013</v>
       </c>
       <c r="B27" t="n">
-        <v>146909</v>
+        <v>178265</v>
       </c>
       <c r="C27" t="s">
         <v>240</v>
@@ -5143,7 +5143,7 @@
         <v>60013</v>
       </c>
       <c r="B30" t="n">
-        <v>146910</v>
+        <v>178266</v>
       </c>
       <c r="C30" t="s">
         <v>266</v>
@@ -5214,7 +5214,7 @@
         <v>60013</v>
       </c>
       <c r="B31" t="n">
-        <v>146911</v>
+        <v>178267</v>
       </c>
       <c r="C31" t="s">
         <v>273</v>
@@ -5283,7 +5283,7 @@
         <v>60013</v>
       </c>
       <c r="B32" t="n">
-        <v>146912</v>
+        <v>178268</v>
       </c>
       <c r="C32" t="s">
         <v>282</v>
@@ -5348,7 +5348,7 @@
         <v>60013</v>
       </c>
       <c r="B33" t="n">
-        <v>146913</v>
+        <v>146917</v>
       </c>
       <c r="C33" t="s">
         <v>292</v>
@@ -5409,7 +5409,7 @@
         <v>60013</v>
       </c>
       <c r="B34" t="n">
-        <v>146914</v>
+        <v>178269</v>
       </c>
       <c r="C34" t="s">
         <v>299</v>
@@ -5474,7 +5474,7 @@
         <v>60013</v>
       </c>
       <c r="B35" t="n">
-        <v>146915</v>
+        <v>178270</v>
       </c>
       <c r="C35" t="s">
         <v>309</v>
@@ -5539,7 +5539,7 @@
         <v>60013</v>
       </c>
       <c r="B36" t="n">
-        <v>146916</v>
+        <v>178271</v>
       </c>
       <c r="C36" t="s">
         <v>319</v>
@@ -5608,7 +5608,7 @@
         <v>60013</v>
       </c>
       <c r="B37" t="n">
-        <v>146917</v>
+        <v>178272</v>
       </c>
       <c r="C37" t="s">
         <v>326</v>
@@ -5679,7 +5679,7 @@
         <v>60013</v>
       </c>
       <c r="B38" t="n">
-        <v>146918</v>
+        <v>178273</v>
       </c>
       <c r="C38" t="s">
         <v>336</v>
@@ -5750,7 +5750,7 @@
         <v>60013</v>
       </c>
       <c r="B39" t="n">
-        <v>146919</v>
+        <v>178274</v>
       </c>
       <c r="C39" t="s">
         <v>346</v>
@@ -5886,7 +5886,7 @@
         <v>60013</v>
       </c>
       <c r="B41" t="n">
-        <v>146920</v>
+        <v>178275</v>
       </c>
       <c r="C41" t="s">
         <v>365</v>
@@ -5955,7 +5955,7 @@
         <v>60013</v>
       </c>
       <c r="B42" t="n">
-        <v>146921</v>
+        <v>178276</v>
       </c>
       <c r="C42" t="s">
         <v>375</v>
@@ -6020,7 +6020,7 @@
         <v>60013</v>
       </c>
       <c r="B43" t="n">
-        <v>146922</v>
+        <v>178277</v>
       </c>
       <c r="C43" t="s">
         <v>385</v>
@@ -6219,7 +6219,7 @@
         <v>60013</v>
       </c>
       <c r="B46" t="n">
-        <v>146923</v>
+        <v>178278</v>
       </c>
       <c r="C46" t="s">
         <v>409</v>
@@ -6290,7 +6290,7 @@
         <v>60013</v>
       </c>
       <c r="B47" t="n">
-        <v>146924</v>
+        <v>178279</v>
       </c>
       <c r="C47" t="s">
         <v>418</v>
@@ -6359,7 +6359,7 @@
         <v>60013</v>
       </c>
       <c r="B48" t="n">
-        <v>146925</v>
+        <v>178280</v>
       </c>
       <c r="C48" t="s">
         <v>428</v>
@@ -6493,7 +6493,7 @@
         <v>60013</v>
       </c>
       <c r="B50" t="n">
-        <v>146926</v>
+        <v>178281</v>
       </c>
       <c r="C50" t="s">
         <v>443</v>
@@ -6564,7 +6564,7 @@
         <v>60013</v>
       </c>
       <c r="B51" t="n">
-        <v>146927</v>
+        <v>178282</v>
       </c>
       <c r="C51" t="s">
         <v>453</v>
@@ -6633,7 +6633,7 @@
         <v>60013</v>
       </c>
       <c r="B52" t="n">
-        <v>146928</v>
+        <v>178283</v>
       </c>
       <c r="C52" t="s">
         <v>463</v>
@@ -6769,7 +6769,7 @@
         <v>60013</v>
       </c>
       <c r="B54" t="n">
-        <v>146929</v>
+        <v>146920</v>
       </c>
       <c r="C54" t="s">
         <v>482</v>
@@ -6903,7 +6903,7 @@
         <v>60013</v>
       </c>
       <c r="B56" t="n">
-        <v>146930</v>
+        <v>178284</v>
       </c>
       <c r="C56" t="s">
         <v>501</v>
@@ -6974,7 +6974,7 @@
         <v>60013</v>
       </c>
       <c r="B57" t="n">
-        <v>146931</v>
+        <v>178285</v>
       </c>
       <c r="C57" t="s">
         <v>511</v>
@@ -7110,7 +7110,7 @@
         <v>60013</v>
       </c>
       <c r="B59" t="n">
-        <v>146932</v>
+        <v>178286</v>
       </c>
       <c r="C59" t="s">
         <v>529</v>
@@ -7181,7 +7181,7 @@
         <v>60013</v>
       </c>
       <c r="B60" t="n">
-        <v>146933</v>
+        <v>178287</v>
       </c>
       <c r="C60" t="s">
         <v>538</v>
@@ -7307,7 +7307,7 @@
         <v>60013</v>
       </c>
       <c r="B62" t="n">
-        <v>146934</v>
+        <v>178288</v>
       </c>
       <c r="C62" t="s">
         <v>554</v>
@@ -7382,7 +7382,7 @@
         <v>60013</v>
       </c>
       <c r="B63" t="n">
-        <v>146935</v>
+        <v>178289</v>
       </c>
       <c r="C63" t="s">
         <v>564</v>
@@ -7518,7 +7518,7 @@
         <v>60013</v>
       </c>
       <c r="B65" t="n">
-        <v>146936</v>
+        <v>178290</v>
       </c>
       <c r="C65" t="s">
         <v>580</v>
@@ -7593,7 +7593,7 @@
         <v>60013</v>
       </c>
       <c r="B66" t="n">
-        <v>146937</v>
+        <v>178291</v>
       </c>
       <c r="C66" t="s">
         <v>589</v>
@@ -7668,7 +7668,7 @@
         <v>60013</v>
       </c>
       <c r="B67" t="n">
-        <v>146938</v>
+        <v>178292</v>
       </c>
       <c r="C67" t="s">
         <v>598</v>
@@ -7893,7 +7893,7 @@
         <v>60013</v>
       </c>
       <c r="B70" t="n">
-        <v>146939</v>
+        <v>178293</v>
       </c>
       <c r="C70" t="s">
         <v>626</v>
@@ -7968,7 +7968,7 @@
         <v>60013</v>
       </c>
       <c r="B71" t="n">
-        <v>146940</v>
+        <v>178294</v>
       </c>
       <c r="C71" t="s">
         <v>634</v>
@@ -8033,7 +8033,7 @@
         <v>60013</v>
       </c>
       <c r="B72" t="n">
-        <v>146941</v>
+        <v>178295</v>
       </c>
       <c r="C72" t="s">
         <v>640</v>
@@ -8108,7 +8108,7 @@
         <v>60013</v>
       </c>
       <c r="B73" t="n">
-        <v>146942</v>
+        <v>178296</v>
       </c>
       <c r="C73" t="s">
         <v>647</v>
@@ -8183,7 +8183,7 @@
         <v>60013</v>
       </c>
       <c r="B74" t="n">
-        <v>146943</v>
+        <v>178297</v>
       </c>
       <c r="C74" t="s">
         <v>654</v>
@@ -8258,7 +8258,7 @@
         <v>60013</v>
       </c>
       <c r="B75" t="n">
-        <v>146944</v>
+        <v>178298</v>
       </c>
       <c r="C75" t="s">
         <v>664</v>
@@ -8404,7 +8404,7 @@
         <v>60013</v>
       </c>
       <c r="B77" t="n">
-        <v>146945</v>
+        <v>178299</v>
       </c>
       <c r="C77" t="s">
         <v>680</v>
@@ -8550,7 +8550,7 @@
         <v>60013</v>
       </c>
       <c r="B79" t="n">
-        <v>146946</v>
+        <v>178300</v>
       </c>
       <c r="C79" t="s">
         <v>695</v>
@@ -8625,7 +8625,7 @@
         <v>60013</v>
       </c>
       <c r="B80" t="n">
-        <v>146947</v>
+        <v>178301</v>
       </c>
       <c r="C80" t="s">
         <v>702</v>
@@ -8767,7 +8767,7 @@
         <v>60013</v>
       </c>
       <c r="B82" t="n">
-        <v>146948</v>
+        <v>178302</v>
       </c>
       <c r="C82" t="s">
         <v>716</v>
@@ -8838,7 +8838,7 @@
         <v>60013</v>
       </c>
       <c r="B83" t="n">
-        <v>146949</v>
+        <v>178303</v>
       </c>
       <c r="C83" t="s">
         <v>723</v>
@@ -8913,7 +8913,7 @@
         <v>60013</v>
       </c>
       <c r="B84" t="n">
-        <v>146950</v>
+        <v>178304</v>
       </c>
       <c r="C84" t="s">
         <v>731</v>
@@ -8984,7 +8984,7 @@
         <v>60013</v>
       </c>
       <c r="B85" t="n">
-        <v>146951</v>
+        <v>178305</v>
       </c>
       <c r="C85" t="s">
         <v>738</v>
@@ -9055,7 +9055,7 @@
         <v>60013</v>
       </c>
       <c r="B86" t="n">
-        <v>146952</v>
+        <v>178306</v>
       </c>
       <c r="C86" t="s">
         <v>745</v>
@@ -9126,7 +9126,7 @@
         <v>60013</v>
       </c>
       <c r="B87" t="n">
-        <v>146953</v>
+        <v>178307</v>
       </c>
       <c r="C87" t="s">
         <v>753</v>
@@ -9197,7 +9197,7 @@
         <v>60013</v>
       </c>
       <c r="B88" t="n">
-        <v>146954</v>
+        <v>178308</v>
       </c>
       <c r="C88" t="s">
         <v>759</v>
@@ -9266,7 +9266,7 @@
         <v>60013</v>
       </c>
       <c r="B89" t="n">
-        <v>146955</v>
+        <v>178309</v>
       </c>
       <c r="C89" t="s">
         <v>766</v>
@@ -9337,7 +9337,7 @@
         <v>60013</v>
       </c>
       <c r="B90" t="n">
-        <v>146912</v>
+        <v>146917</v>
       </c>
       <c r="C90" t="s">
         <v>292</v>
@@ -9404,7 +9404,7 @@
         <v>60013</v>
       </c>
       <c r="B91" t="n">
-        <v>146956</v>
+        <v>178310</v>
       </c>
       <c r="C91" t="s">
         <v>779</v>
@@ -9475,7 +9475,7 @@
         <v>60013</v>
       </c>
       <c r="B92" t="n">
-        <v>146957</v>
+        <v>178311</v>
       </c>
       <c r="C92" t="s">
         <v>785</v>
@@ -9542,7 +9542,7 @@
         <v>60013</v>
       </c>
       <c r="B93" t="n">
-        <v>146958</v>
+        <v>178312</v>
       </c>
       <c r="C93" t="s">
         <v>791</v>
@@ -9603,7 +9603,7 @@
         <v>60013</v>
       </c>
       <c r="B94" t="n">
-        <v>146959</v>
+        <v>178313</v>
       </c>
       <c r="C94" t="s">
         <v>798</v>
@@ -9745,7 +9745,7 @@
         <v>60013</v>
       </c>
       <c r="B96" t="n">
-        <v>146960</v>
+        <v>178314</v>
       </c>
       <c r="C96" t="s">
         <v>813</v>
@@ -9816,7 +9816,7 @@
         <v>60013</v>
       </c>
       <c r="B97" t="n">
-        <v>146961</v>
+        <v>178315</v>
       </c>
       <c r="C97" t="s">
         <v>819</v>
@@ -9887,7 +9887,7 @@
         <v>60013</v>
       </c>
       <c r="B98" t="n">
-        <v>146962</v>
+        <v>178316</v>
       </c>
       <c r="C98" t="s">
         <v>826</v>
@@ -9958,7 +9958,7 @@
         <v>60013</v>
       </c>
       <c r="B99" t="n">
-        <v>146963</v>
+        <v>178317</v>
       </c>
       <c r="C99" t="s">
         <v>832</v>
@@ -10029,7 +10029,7 @@
         <v>60013</v>
       </c>
       <c r="B100" t="n">
-        <v>146964</v>
+        <v>178318</v>
       </c>
       <c r="C100" t="s">
         <v>839</v>
@@ -10100,7 +10100,7 @@
         <v>60013</v>
       </c>
       <c r="B101" t="n">
-        <v>146965</v>
+        <v>178319</v>
       </c>
       <c r="C101" t="s">
         <v>846</v>
@@ -10250,7 +10250,7 @@
         <v>60013</v>
       </c>
       <c r="B103" t="n">
-        <v>146966</v>
+        <v>178320</v>
       </c>
       <c r="C103" t="s">
         <v>864</v>
@@ -10325,7 +10325,7 @@
         <v>60013</v>
       </c>
       <c r="B104" t="n">
-        <v>146967</v>
+        <v>178321</v>
       </c>
       <c r="C104" t="s">
         <v>871</v>
@@ -10396,7 +10396,7 @@
         <v>60013</v>
       </c>
       <c r="B105" t="n">
-        <v>146928</v>
+        <v>146920</v>
       </c>
       <c r="C105" t="s">
         <v>482</v>
@@ -10467,7 +10467,7 @@
         <v>60013</v>
       </c>
       <c r="B106" t="n">
-        <v>146968</v>
+        <v>178322</v>
       </c>
       <c r="C106" t="s">
         <v>883</v>
@@ -10538,7 +10538,7 @@
         <v>60013</v>
       </c>
       <c r="B107" t="n">
-        <v>146969</v>
+        <v>178323</v>
       </c>
       <c r="C107" t="s">
         <v>890</v>
@@ -10609,7 +10609,7 @@
         <v>60013</v>
       </c>
       <c r="B108" t="n">
-        <v>146970</v>
+        <v>178324</v>
       </c>
       <c r="C108" t="s">
         <v>900</v>
@@ -10680,7 +10680,7 @@
         <v>60013</v>
       </c>
       <c r="B109" t="n">
-        <v>146971</v>
+        <v>178325</v>
       </c>
       <c r="C109" t="s">
         <v>907</v>
@@ -10751,7 +10751,7 @@
         <v>60013</v>
       </c>
       <c r="B110" t="n">
-        <v>146972</v>
+        <v>178326</v>
       </c>
       <c r="C110" t="s">
         <v>915</v>
@@ -10818,7 +10818,7 @@
         <v>60013</v>
       </c>
       <c r="B111" t="n">
-        <v>146973</v>
+        <v>178327</v>
       </c>
       <c r="C111" t="s">
         <v>923</v>
